--- a/main/streamlit_performances.xlsx
+++ b/main/streamlit_performances.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacopobinati/Desktop/GalambosC/other_projects/streamlit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacopobinati/Desktop/GalambosC/other_projects/main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEACA2D7-1205-B343-A52B-4F4FA9407BE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35449008-0411-724F-975B-CF8DB805781D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10600" yWindow="-20980" windowWidth="29400" windowHeight="18440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="15">
   <si>
     <t>date</t>
   </si>
@@ -111,7 +111,7 @@
       <name val="&quot;Helvetica Neue&quot;"/>
     </font>
   </fonts>
-  <fills count="144">
+  <fills count="103">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -132,36 +132,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFAADBB8"/>
-        <bgColor rgb="FFAADBB8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3F9F8"/>
-        <bgColor rgb="FFF3F9F8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4F9F8"/>
-        <bgColor rgb="FFF4F9F8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF1F8F6"/>
-        <bgColor rgb="FFF1F8F6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF87274"/>
-        <bgColor rgb="FFF87274"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF9A3A6"/>
         <bgColor rgb="FFF9A3A6"/>
       </patternFill>
@@ -174,54 +144,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFBDDDF"/>
-        <bgColor rgb="FFFBDDDF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEEF7F3"/>
-        <bgColor rgb="FFEEF7F3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF99EA0"/>
         <bgColor rgb="FFF99EA0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFACED1"/>
-        <bgColor rgb="FFFACED1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFABEC0"/>
-        <bgColor rgb="FFFABEC0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFACED0"/>
-        <bgColor rgb="FFFACED0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFCFEAD8"/>
         <bgColor rgb="FFCFEAD8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE4F2EA"/>
-        <bgColor rgb="FFE4F2EA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF63BE7B"/>
         <bgColor rgb="FF63BE7B"/>
       </patternFill>
@@ -234,194 +168,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF6FAFA"/>
-        <bgColor rgb="FFF6FAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF87D7F"/>
-        <bgColor rgb="FFF87D7F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF99D9F"/>
-        <bgColor rgb="FFF99D9F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFAFBFD"/>
-        <bgColor rgb="FFFAFBFD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF8FBFC"/>
-        <bgColor rgb="FFF8FBFC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF9B1B3"/>
-        <bgColor rgb="FFF9B1B3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFAB8BA"/>
-        <bgColor rgb="FFFAB8BA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFADDCBB"/>
-        <bgColor rgb="FFADDCBB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF99D4AA"/>
-        <bgColor rgb="FF99D4AA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC7E7D1"/>
-        <bgColor rgb="FFC7E7D1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDBEFE3"/>
-        <bgColor rgb="FFDBEFE3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFBF7FA"/>
-        <bgColor rgb="FFFBF7FA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFBF5F8"/>
-        <bgColor rgb="FFFBF5F8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD6EDDE"/>
-        <bgColor rgb="FFD6EDDE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDEF0E5"/>
-        <bgColor rgb="FFDEF0E5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF8696B"/>
         <bgColor rgb="FFF8696B"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF8888A"/>
-        <bgColor rgb="FFF8888A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD3ECDC"/>
-        <bgColor rgb="FFD3ECDC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD5ECDD"/>
-        <bgColor rgb="FFD5ECDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD8EEE0"/>
-        <bgColor rgb="FFD8EEE0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFECF6F2"/>
-        <bgColor rgb="FFECF6F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE2F2E8"/>
-        <bgColor rgb="FFE2F2E8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFBECEF"/>
-        <bgColor rgb="FFFBECEF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFBDFE1"/>
-        <bgColor rgb="FFFBDFE1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFBE2E4"/>
-        <bgColor rgb="FFFBE2E4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFBE7EA"/>
-        <bgColor rgb="FFFBE7EA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFBEAED"/>
         <bgColor rgb="FFFBEAED"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFBE3E6"/>
-        <bgColor rgb="FFFBE3E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF99A9C"/>
-        <bgColor rgb="FFF99A9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFBEEF1"/>
-        <bgColor rgb="FFFBEEF1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFBDDE0"/>
-        <bgColor rgb="FFFBDDE0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFAD2D5"/>
-        <bgColor rgb="FFFAD2D5"/>
       </patternFill>
     </fill>
     <fill>
@@ -1020,7 +774,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1033,12 +787,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1048,139 +796,10 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="48" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="50" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="51" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="52" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1189,6 +808,92 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="48" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="50" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="51" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="52" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="53" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="54" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="55" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1198,68 +903,78 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="58" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="59" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="60" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="61" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="62" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="58" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="59" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="60" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="61" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="62" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="63" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="64" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="65" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="66" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="67" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="65" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="66" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="67" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="68" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="69" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="53" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="70" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="71" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="72" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="73" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="74" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="75" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="76" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="77" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="70" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="71" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="72" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="73" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="74" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="75" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="76" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="77" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="78" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="79" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="80" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="81" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="82" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="83" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="84" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="85" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="86" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="87" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="88" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="81" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="82" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="83" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="84" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="85" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="86" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="87" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="88" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="89" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1267,133 +982,34 @@
     <xf numFmtId="0" fontId="1" fillId="91" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="92" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="93" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="94" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="95" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="92" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="93" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="94" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="95" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="96" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="97" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="98" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="99" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="97" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="98" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="99" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="100" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="48" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="101" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="102" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="103" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="104" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="105" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="106" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="107" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="108" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="66" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="109" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="110" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="111" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="112" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="78" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="113" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="114" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="115" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="116" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="117" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="118" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="119" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="120" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="121" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="122" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="123" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="124" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="125" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="126" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="127" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="128" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="129" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="130" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="131" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="132" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="87" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="133" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="134" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="135" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="136" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="137" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="138" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="139" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="140" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="141" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="89" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="142" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="143" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="102" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1617,10 +1233,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+      <selection activeCell="G38" sqref="G38:G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1668,7 +1284,7 @@
       <c r="D2" s="3">
         <v>0</v>
       </c>
-      <c r="E2" s="164">
+      <c r="E2" s="4">
         <v>0</v>
       </c>
       <c r="F2" s="3"/>
@@ -1694,16 +1310,16 @@
       <c r="D3" s="3">
         <v>679</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="3">
         <v>6.79E-3</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="3">
         <v>2.3219231952946003E-2</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>0.29243000000000002</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <v>1.0067900000000001</v>
       </c>
       <c r="I3" s="3" t="s">
@@ -1726,16 +1342,16 @@
       <c r="D4" s="3">
         <v>256</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="3">
         <v>2.5600000000000002E-3</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="3">
         <v>2.339224035526965E-3</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>1.0943799999999999</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>1.0093673824</v>
       </c>
       <c r="I4" s="3" t="s">
@@ -1758,16 +1374,16 @@
       <c r="D5" s="3">
         <v>406</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="3">
         <v>3.248E-3</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="3">
         <v>2.4202826842484905E-3</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>1.3419920000000001</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>1.0126458076580351</v>
       </c>
       <c r="I5" s="3" t="s">
@@ -1790,16 +1406,16 @@
       <c r="D6" s="3">
         <v>-2922</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="3">
         <v>-1.9480000000000001E-2</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="3">
         <v>-1.2537974357654086E-2</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <v>1.5536799999999999</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <v>0.99291946732485659</v>
       </c>
       <c r="I6" s="3" t="s">
@@ -1822,16 +1438,16 @@
       <c r="D7" s="3">
         <v>-400</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="3">
         <v>-8.0000000000000002E-3</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="3">
         <v>-4.3830332781801644E-3</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>1.8252200000000001</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>0.98497611158625775</v>
       </c>
       <c r="I7" s="3" t="s">
@@ -1854,16 +1470,16 @@
       <c r="D8" s="3">
         <v>202.54</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="3">
         <v>4.0508000000000002E-3</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="3">
         <v>2.5740611298214399E-3</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <v>1.5737000000000001</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <v>0.98896605281907124</v>
       </c>
       <c r="I8" s="3" t="s">
@@ -1886,16 +1502,16 @@
       <c r="D9" s="3">
         <v>-998.9</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="3">
         <v>-1.3318666666666666E-2</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="3">
         <v>-6.4631550341953895E-3</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <v>2.0607066666666665</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <v>0.97579434361692496</v>
       </c>
       <c r="I9" s="3" t="s">
@@ -1918,16 +1534,16 @@
       <c r="D10" s="3">
         <v>-439</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="3">
         <v>-8.7799999999999996E-3</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="3">
         <v>-6.5039927700490394E-3</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <v>1.3499399999999999</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <v>0.96722686927996837</v>
       </c>
       <c r="I10" s="3" t="s">
@@ -1950,16 +1566,16 @@
       <c r="D11" s="3">
         <v>962</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="3">
         <v>1.2826666666666667E-2</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="3">
         <v>6.9174294774536384E-3</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <v>1.8542533333333333</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3">
         <v>0.97963316592326621</v>
       </c>
       <c r="I11" s="3" t="s">
@@ -1982,16 +1598,16 @@
       <c r="D12" s="3">
         <v>4339</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="3">
         <v>4.2874646746111737E-2</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12" s="3">
         <v>2.6758843554196061E-2</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="3">
         <v>1.6022608248848837</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="3">
         <v>1.0216345918530012</v>
       </c>
       <c r="I12" s="3" t="s">
@@ -2014,16 +1630,16 @@
       <c r="D13" s="3">
         <v>297</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="3">
         <v>2.3760000000000001E-3</v>
       </c>
-      <c r="F13" s="23">
+      <c r="F13" s="3">
         <v>1.9091943456991702E-3</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <v>1.2445040000000001</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="3">
         <v>1.024061995643244</v>
       </c>
       <c r="I13" s="3" t="s">
@@ -2046,16 +1662,16 @@
       <c r="D14" s="3">
         <v>-2695</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="3">
         <v>-1.7966666666666666E-2</v>
       </c>
-      <c r="F14" s="25">
+      <c r="F14" s="3">
         <v>-1.3415235127506956E-2</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="3">
         <v>1.3392733333333333</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="3">
         <v>1.0056630151215202</v>
       </c>
       <c r="I14" s="3" t="s">
@@ -2078,16 +1694,16 @@
       <c r="D15" s="3">
         <v>74</v>
       </c>
-      <c r="E15" s="26">
+      <c r="E15" s="3">
         <v>7.3999999999999999E-4</v>
       </c>
-      <c r="F15" s="27">
+      <c r="F15" s="3">
         <v>1.2308306443564751E-3</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="3">
         <v>0.60121999999999998</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="3">
         <v>1.00640720575271</v>
       </c>
       <c r="I15" s="3" t="s">
@@ -2110,16 +1726,16 @@
       <c r="D16" s="3">
         <v>-1062</v>
       </c>
-      <c r="E16" s="28">
+      <c r="E16" s="3">
         <v>-1.0612147011211704E-2</v>
       </c>
-      <c r="F16" s="29">
+      <c r="F16" s="3">
         <v>-9.594709358003722E-3</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="3">
         <v>1.1060415292683414</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="3">
         <v>0.99572706453211945</v>
       </c>
       <c r="I16" s="3" t="s">
@@ -2142,16 +1758,16 @@
       <c r="D17" s="3">
         <v>2218</v>
       </c>
-      <c r="E17" s="30">
+      <c r="E17" s="3">
         <v>2.240132509190805E-2</v>
       </c>
-      <c r="F17" s="31">
+      <c r="F17" s="3">
         <v>2.7801453998495863E-2</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="3">
         <v>0.8057609178685412</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="3">
         <v>1.0180326702075146</v>
       </c>
       <c r="I17" s="3" t="s">
@@ -2174,16 +1790,16 @@
       <c r="D18" s="3">
         <v>1515</v>
       </c>
-      <c r="E18" s="32">
+      <c r="E18" s="3">
         <v>1.4965919193914847E-2</v>
       </c>
-      <c r="F18" s="33">
+      <c r="F18" s="3">
         <v>9.3993125783276045E-3</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="3">
         <v>1.5922355033092956</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="3">
         <v>1.0332684648866057</v>
       </c>
       <c r="I18" s="3" t="s">
@@ -2206,16 +1822,16 @@
       <c r="D19" s="3">
         <v>-60</v>
       </c>
-      <c r="E19" s="34">
+      <c r="E19" s="3">
         <v>-5.839700228721592E-4</v>
       </c>
-      <c r="F19" s="35">
+      <c r="F19" s="3">
         <v>-9.643548723065568E-4</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="3">
         <v>0.60555511217090863</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="3">
         <v>1.0326650670775328</v>
       </c>
       <c r="I19" s="3" t="s">
@@ -2238,16 +1854,16 @@
       <c r="D20" s="3">
         <v>1120</v>
       </c>
-      <c r="E20" s="36">
+      <c r="E20" s="3">
         <v>1.0907143204947168E-2</v>
       </c>
-      <c r="F20" s="37">
+      <c r="F20" s="3">
         <v>8.483241810263208E-3</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="3">
         <v>1.285728197886741</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="3">
         <v>1.0439284928468939</v>
       </c>
       <c r="I20" s="3" t="s">
@@ -2270,16 +1886,16 @@
       <c r="D21" s="3">
         <v>-2157</v>
       </c>
-      <c r="E21" s="38">
+      <c r="E21" s="3">
         <v>-2.0779345888926354E-2</v>
       </c>
-      <c r="F21" s="39">
+      <c r="F21" s="3">
         <v>-1.635615004890921E-2</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="3">
         <v>1.2704301334232455</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="3">
         <v>1.0222363416107227</v>
       </c>
       <c r="I21" s="3" t="s">
@@ -2302,16 +1918,16 @@
       <c r="D22" s="3">
         <v>1166</v>
       </c>
-      <c r="E22" s="40">
+      <c r="E22" s="3">
         <v>1.166E-2</v>
       </c>
-      <c r="F22" s="41">
+      <c r="F22" s="3">
         <v>1.1081438115965445E-2</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="3">
         <v>1.0522100000000001</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="3">
         <v>1.0341556173539037</v>
       </c>
       <c r="I22" s="3" t="s">
@@ -2334,16 +1950,16 @@
       <c r="D23" s="3">
         <v>1535</v>
       </c>
-      <c r="E23" s="42">
+      <c r="E23" s="3">
         <v>1.0233333333333334E-2</v>
       </c>
-      <c r="F23" s="37">
+      <c r="F23" s="3">
         <v>8.5349376421331221E-3</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="3">
         <v>1.1989933333333334</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="3">
         <v>1.0447384765048253</v>
       </c>
       <c r="I23" s="3" t="s">
@@ -2354,7 +1970,7 @@
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="43">
+      <c r="A24" s="10">
         <v>45940</v>
       </c>
       <c r="B24" s="3">
@@ -2366,16 +1982,16 @@
       <c r="D24" s="3">
         <v>339</v>
       </c>
-      <c r="E24" s="44">
+      <c r="E24" s="3">
         <v>4.5199999999999997E-3</v>
       </c>
-      <c r="F24" s="45">
+      <c r="F24" s="3">
         <v>7.4950156338608482E-3</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="3">
         <v>0.60306745453333332</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="3">
         <v>1.0494606944186271</v>
       </c>
       <c r="I24" s="3" t="s">
@@ -2386,7 +2002,7 @@
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="43">
+      <c r="A25" s="10">
         <v>45943</v>
       </c>
       <c r="B25" s="3">
@@ -2398,16 +2014,16 @@
       <c r="D25" s="3">
         <v>-329.42</v>
       </c>
-      <c r="E25" s="46">
+      <c r="E25" s="3">
         <v>-2.1961333333333334E-3</v>
       </c>
-      <c r="F25" s="47">
+      <c r="F25" s="3">
         <v>-4.1015698197572857E-3</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="3">
         <v>0.53543726666666669</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="3">
         <v>1.0471559388055911</v>
       </c>
       <c r="I25" s="3" t="s">
@@ -2418,7 +2034,7 @@
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="43">
+      <c r="A26" s="10">
         <v>45944</v>
       </c>
       <c r="B26" s="3">
@@ -2430,16 +2046,16 @@
       <c r="D26" s="3">
         <v>-737</v>
       </c>
-      <c r="E26" s="48">
+      <c r="E26" s="3">
         <v>-3.6849999999999999E-3</v>
       </c>
-      <c r="F26" s="49">
+      <c r="F26" s="3">
         <v>-2.8476268488323571E-3</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="3">
         <v>1.29406</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="3">
         <v>1.0432971691710924</v>
       </c>
       <c r="I26" s="3" t="s">
@@ -2450,7 +2066,7 @@
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="43">
+      <c r="A27" s="10">
         <v>45945</v>
       </c>
       <c r="B27" s="3">
@@ -2462,16 +2078,16 @@
       <c r="D27" s="3">
         <v>-546</v>
       </c>
-      <c r="E27" s="50">
+      <c r="E27" s="3">
         <v>-2.4254485525047422E-3</v>
       </c>
-      <c r="F27" s="51">
+      <c r="F27" s="3">
         <v>-3.4459907223326706E-3</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="3">
         <v>0.70384651264031839</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="3">
         <v>1.040766705562294</v>
       </c>
       <c r="I27" s="3" t="s">
@@ -2482,7 +2098,7 @@
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="43">
+      <c r="A28" s="10">
         <v>45946</v>
       </c>
       <c r="B28" s="3">
@@ -2494,16 +2110,16 @@
       <c r="D28" s="3">
         <v>-3098</v>
       </c>
-      <c r="E28" s="52">
+      <c r="E28" s="3">
         <v>-1.3898546888528988E-2</v>
       </c>
-      <c r="F28" s="38">
+      <c r="F28" s="3">
         <v>-2.0851000821117526E-2</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="3">
         <v>0.66656497727690767</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="3">
         <v>1.0263015607050165</v>
       </c>
       <c r="I28" s="3" t="s">
@@ -2514,7 +2130,7 @@
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="43">
+      <c r="A29" s="10">
         <v>45950</v>
       </c>
       <c r="B29" s="3">
@@ -2526,16 +2142,16 @@
       <c r="D29" s="3">
         <v>-419</v>
       </c>
-      <c r="E29" s="53">
+      <c r="E29" s="3">
         <v>-1.9220183486238533E-3</v>
       </c>
-      <c r="F29" s="51">
+      <c r="F29" s="3">
         <v>-3.5146692985584065E-3</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" s="3">
         <v>0.5468561009174312</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="3">
         <v>1.0243289902741202</v>
       </c>
       <c r="I29" s="3" t="s">
@@ -2546,7 +2162,7 @@
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="43">
+      <c r="A30" s="10">
         <v>45951</v>
       </c>
       <c r="B30" s="3">
@@ -2558,16 +2174,16 @@
       <c r="D30" s="3">
         <v>-951</v>
       </c>
-      <c r="E30" s="54">
+      <c r="E30" s="3">
         <v>-4.3623853211009174E-3</v>
       </c>
-      <c r="F30" s="55">
+      <c r="F30" s="3">
         <v>-5.885301598499898E-3</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30" s="3">
         <v>0.74123394495412842</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="3">
         <v>1.0198604725229703</v>
       </c>
       <c r="I30" s="3" t="s">
@@ -2575,6 +2191,38 @@
       </c>
       <c r="J30" s="3">
         <v>10198.604725229703</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A31" s="10">
+        <v>45952</v>
+      </c>
+      <c r="B31" s="3">
+        <v>218000</v>
+      </c>
+      <c r="C31" s="3">
+        <v>180550</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3078</v>
+      </c>
+      <c r="E31" s="3">
+        <v>1.4119266055045871E-2</v>
+      </c>
+      <c r="F31" s="3">
+        <v>1.7047909166435889E-2</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0.8282110091743119</v>
+      </c>
+      <c r="H31" s="3">
+        <v>1.0342601538735468</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J31" s="3">
+        <v>10342.601538735467</v>
       </c>
     </row>
   </sheetData>
@@ -2605,25 +2253,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="59" t="s">
+      <c r="F1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="59" t="s">
+      <c r="G1" s="14" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2636,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="D2" s="3"/>
-      <c r="E2" s="165">
+      <c r="E2" s="119">
         <v>0</v>
       </c>
-      <c r="F2" s="165">
+      <c r="F2" s="119">
         <v>1</v>
       </c>
       <c r="G2" s="3">
@@ -2653,13 +2301,13 @@
       <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="60">
+      <c r="C3" s="15">
         <v>738.1</v>
       </c>
       <c r="D3" s="3">
         <v>30000</v>
       </c>
-      <c r="E3" s="61">
+      <c r="E3" s="16">
         <v>2.4603333333333335E-2</v>
       </c>
       <c r="F3" s="4">
@@ -2676,13 +2324,13 @@
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="62">
+      <c r="C4" s="17">
         <v>-420</v>
       </c>
       <c r="D4" s="3">
         <v>30000</v>
       </c>
-      <c r="E4" s="63">
+      <c r="E4" s="18">
         <v>-1.4E-2</v>
       </c>
       <c r="F4" s="4">
@@ -2699,13 +2347,13 @@
       <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="64">
+      <c r="C5" s="19">
         <v>-388.25999999996975</v>
       </c>
       <c r="D5" s="3">
         <v>30000</v>
       </c>
-      <c r="E5" s="65">
+      <c r="E5" s="20">
         <v>-1.2941999999998993E-2</v>
       </c>
       <c r="F5" s="4">
@@ -2722,13 +2370,13 @@
       <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="66">
+      <c r="C6" s="21">
         <v>974.84</v>
       </c>
       <c r="D6" s="3">
         <v>50000</v>
       </c>
-      <c r="E6" s="67">
+      <c r="E6" s="22">
         <v>1.9496800000000002E-2</v>
       </c>
       <c r="F6" s="4">
@@ -2745,13 +2393,13 @@
       <c r="B7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="68">
+      <c r="C7" s="23">
         <v>-551.64999999997667</v>
       </c>
       <c r="D7" s="3">
         <v>50000</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="6">
         <v>-1.1032999999999533E-2</v>
       </c>
       <c r="F7" s="4">
@@ -2768,13 +2416,13 @@
       <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="69">
+      <c r="C8" s="24">
         <v>1099.96</v>
       </c>
       <c r="D8" s="3">
         <v>50000</v>
       </c>
-      <c r="E8" s="70">
+      <c r="E8" s="25">
         <v>2.19992E-2</v>
       </c>
       <c r="F8" s="4">
@@ -2791,13 +2439,13 @@
       <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="71">
+      <c r="C9" s="26">
         <v>1203.0799999999883</v>
       </c>
       <c r="D9" s="3">
         <v>50000</v>
       </c>
-      <c r="E9" s="72">
+      <c r="E9" s="27">
         <v>2.4061599999999767E-2</v>
       </c>
       <c r="F9" s="4">
@@ -2814,13 +2462,13 @@
       <c r="B10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="73">
+      <c r="C10" s="28">
         <v>557.07000000000005</v>
       </c>
       <c r="D10" s="3">
         <v>50000</v>
       </c>
-      <c r="E10" s="74">
+      <c r="E10" s="29">
         <v>1.1141400000000001E-2</v>
       </c>
       <c r="F10" s="4">
@@ -2837,13 +2485,13 @@
       <c r="B11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="75">
+      <c r="C11" s="30">
         <v>-612.6</v>
       </c>
       <c r="D11" s="3">
         <v>50000</v>
       </c>
-      <c r="E11" s="76">
+      <c r="E11" s="31">
         <v>-1.2252000000000001E-2</v>
       </c>
       <c r="F11" s="4">
@@ -2860,13 +2508,13 @@
       <c r="B12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="77">
+      <c r="C12" s="32">
         <v>-250</v>
       </c>
       <c r="D12" s="3">
         <v>70000</v>
       </c>
-      <c r="E12" s="78">
+      <c r="E12" s="33">
         <v>-3.5714285714285713E-3</v>
       </c>
       <c r="F12" s="4">
@@ -2883,13 +2531,13 @@
       <c r="B13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="79">
+      <c r="C13" s="34">
         <v>484.79999999997904</v>
       </c>
       <c r="D13" s="3">
         <v>70000</v>
       </c>
-      <c r="E13" s="80">
+      <c r="E13" s="35">
         <v>6.9257142857139858E-3</v>
       </c>
       <c r="F13" s="4">
@@ -2906,13 +2554,13 @@
       <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="81">
+      <c r="C14" s="36">
         <v>-939.02</v>
       </c>
       <c r="D14" s="3">
         <v>70000</v>
       </c>
-      <c r="E14" s="82">
+      <c r="E14" s="37">
         <v>-1.3414571428571428E-2</v>
       </c>
       <c r="F14" s="4">
@@ -2929,13 +2577,13 @@
       <c r="B15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="83">
+      <c r="C15" s="38">
         <v>604.64000000000237</v>
       </c>
       <c r="D15" s="3">
         <v>70000</v>
       </c>
-      <c r="E15" s="84">
+      <c r="E15" s="39">
         <v>8.6377142857143197E-3</v>
       </c>
       <c r="F15" s="4">
@@ -2952,7 +2600,7 @@
       <c r="B16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="85">
+      <c r="C16" s="40">
         <v>54.879999999990687</v>
       </c>
       <c r="D16" s="3">
@@ -2975,13 +2623,13 @@
       <c r="B17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="86">
+      <c r="C17" s="41">
         <v>703.26</v>
       </c>
       <c r="D17" s="3">
         <v>70000</v>
       </c>
-      <c r="E17" s="87">
+      <c r="E17" s="42">
         <v>1.0046571428571429E-2</v>
       </c>
       <c r="F17" s="4">
@@ -2998,13 +2646,13 @@
       <c r="B18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="88">
+      <c r="C18" s="43">
         <v>-1024.2099999999953</v>
       </c>
       <c r="D18" s="3">
         <v>75000</v>
       </c>
-      <c r="E18" s="89">
+      <c r="E18" s="44">
         <v>-1.365613333333327E-2</v>
       </c>
       <c r="F18" s="4">
@@ -3021,13 +2669,13 @@
       <c r="B19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="90">
+      <c r="C19" s="45">
         <v>350</v>
       </c>
       <c r="D19" s="3">
         <v>75000</v>
       </c>
-      <c r="E19" s="91">
+      <c r="E19" s="46">
         <v>4.6666666666666671E-3</v>
       </c>
       <c r="F19" s="4">
@@ -3044,13 +2692,13 @@
       <c r="B20" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="92">
+      <c r="C20" s="47">
         <v>1790</v>
       </c>
       <c r="D20" s="3">
         <v>75000</v>
       </c>
-      <c r="E20" s="93">
+      <c r="E20" s="48">
         <v>2.3866666666666668E-2</v>
       </c>
       <c r="F20" s="4">
@@ -3067,13 +2715,13 @@
       <c r="B21" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="94">
+      <c r="C21" s="49">
         <v>749</v>
       </c>
       <c r="D21" s="3">
         <v>75000</v>
       </c>
-      <c r="E21" s="95">
+      <c r="E21" s="50">
         <v>9.9866666666666663E-3</v>
       </c>
       <c r="F21" s="4">
@@ -3090,13 +2738,13 @@
       <c r="B22" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="96">
+      <c r="C22" s="51">
         <v>916</v>
       </c>
       <c r="D22" s="3">
         <v>75000</v>
       </c>
-      <c r="E22" s="97">
+      <c r="E22" s="52">
         <v>1.2213333333333333E-2</v>
       </c>
       <c r="F22" s="4">
@@ -3113,13 +2761,13 @@
       <c r="B23" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="98">
+      <c r="C23" s="53">
         <v>535</v>
       </c>
       <c r="D23" s="3">
         <v>90000</v>
       </c>
-      <c r="E23" s="99">
+      <c r="E23" s="54">
         <v>5.944444444444444E-3</v>
       </c>
       <c r="F23" s="4">
@@ -3136,13 +2784,13 @@
       <c r="B24" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="100">
+      <c r="C24" s="55">
         <v>-400</v>
       </c>
       <c r="D24" s="3">
         <v>90000</v>
       </c>
-      <c r="E24" s="101">
+      <c r="E24" s="56">
         <v>-4.4444444444444444E-3</v>
       </c>
       <c r="F24" s="4">
@@ -3159,13 +2807,13 @@
       <c r="B25" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="102">
+      <c r="C25" s="57">
         <v>-1200</v>
       </c>
       <c r="D25" s="3">
         <v>90000</v>
       </c>
-      <c r="E25" s="103">
+      <c r="E25" s="58">
         <v>-1.3333333333333334E-2</v>
       </c>
       <c r="F25" s="4">
@@ -3182,13 +2830,13 @@
       <c r="B26" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="104">
+      <c r="C26" s="59">
         <v>-1130</v>
       </c>
       <c r="D26" s="3">
         <v>90000</v>
       </c>
-      <c r="E26" s="105">
+      <c r="E26" s="60">
         <v>-1.2555555555555556E-2</v>
       </c>
       <c r="F26" s="4">
@@ -3205,13 +2853,13 @@
       <c r="B27" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="106">
+      <c r="C27" s="61">
         <v>-814</v>
       </c>
       <c r="D27" s="3">
         <v>90000</v>
       </c>
-      <c r="E27" s="107">
+      <c r="E27" s="62">
         <v>-9.0444444444444452E-3</v>
       </c>
       <c r="F27" s="4">
@@ -3228,13 +2876,13 @@
       <c r="B28" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="108">
+      <c r="C28" s="63">
         <v>402</v>
       </c>
       <c r="D28" s="3">
         <v>90000</v>
       </c>
-      <c r="E28" s="109">
+      <c r="E28" s="64">
         <v>4.4666666666666665E-3</v>
       </c>
       <c r="F28" s="4">
@@ -3251,13 +2899,13 @@
       <c r="B29" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="110">
+      <c r="C29" s="65">
         <v>-10</v>
       </c>
       <c r="D29" s="3">
         <v>90000</v>
       </c>
-      <c r="E29" s="111">
+      <c r="E29" s="66">
         <v>-1.1111111111111112E-4</v>
       </c>
       <c r="F29" s="4">
@@ -3274,13 +2922,13 @@
       <c r="B30" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="112">
+      <c r="C30" s="67">
         <v>1807</v>
       </c>
       <c r="D30" s="3">
         <v>90000</v>
       </c>
-      <c r="E30" s="113">
+      <c r="E30" s="68">
         <v>2.0077777777777778E-2</v>
       </c>
       <c r="F30" s="4">
@@ -3297,13 +2945,13 @@
       <c r="B31" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="114">
+      <c r="C31" s="69">
         <v>-995</v>
       </c>
       <c r="D31" s="3">
         <v>90000</v>
       </c>
-      <c r="E31" s="115">
+      <c r="E31" s="70">
         <v>-1.1055555555555556E-2</v>
       </c>
       <c r="F31" s="4">
@@ -3320,13 +2968,13 @@
       <c r="B32" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="116">
+      <c r="C32" s="71">
         <v>-1100</v>
       </c>
       <c r="D32" s="3">
         <v>100000</v>
       </c>
-      <c r="E32" s="15">
+      <c r="E32" s="6">
         <v>-1.0999999999999999E-2</v>
       </c>
       <c r="F32" s="4">
@@ -3343,13 +2991,13 @@
       <c r="B33" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="117">
+      <c r="C33" s="72">
         <v>-1000</v>
       </c>
       <c r="D33" s="3">
         <v>100000</v>
       </c>
-      <c r="E33" s="118">
+      <c r="E33" s="73">
         <v>-0.01</v>
       </c>
       <c r="F33" s="4">
@@ -3366,13 +3014,13 @@
       <c r="B34" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="119">
+      <c r="C34" s="74">
         <v>640</v>
       </c>
       <c r="D34" s="3">
         <v>100000</v>
       </c>
-      <c r="E34" s="120">
+      <c r="E34" s="75">
         <v>6.4000000000000003E-3</v>
       </c>
       <c r="F34" s="4">
@@ -3389,13 +3037,13 @@
       <c r="B35" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="116">
+      <c r="C35" s="71">
         <v>-1100</v>
       </c>
       <c r="D35" s="3">
         <v>100000</v>
       </c>
-      <c r="E35" s="15">
+      <c r="E35" s="6">
         <v>-1.0999999999999999E-2</v>
       </c>
       <c r="F35" s="4">
@@ -3412,13 +3060,13 @@
       <c r="B36" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="121">
+      <c r="C36" s="76">
         <v>-700</v>
       </c>
       <c r="D36" s="3">
         <v>100000</v>
       </c>
-      <c r="E36" s="122">
+      <c r="E36" s="77">
         <v>-7.0000000000000001E-3</v>
       </c>
       <c r="F36" s="4">
@@ -3435,13 +3083,13 @@
       <c r="B37" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="123">
+      <c r="C37" s="78">
         <v>-1500</v>
       </c>
       <c r="D37" s="3">
         <v>100000</v>
       </c>
-      <c r="E37" s="38">
+      <c r="E37" s="9">
         <v>-1.4999999999999999E-2</v>
       </c>
       <c r="F37" s="4">
@@ -3458,13 +3106,13 @@
       <c r="B38" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="124">
+      <c r="C38" s="79">
         <v>-70</v>
       </c>
       <c r="D38" s="3">
         <v>100000</v>
       </c>
-      <c r="E38" s="125">
+      <c r="E38" s="80">
         <v>-6.9999999999999999E-4</v>
       </c>
       <c r="F38" s="4">
@@ -3481,13 +3129,13 @@
       <c r="B39" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="94">
+      <c r="C39" s="49">
         <v>750</v>
       </c>
       <c r="D39" s="3">
         <v>90000</v>
       </c>
-      <c r="E39" s="126">
+      <c r="E39" s="81">
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="F39" s="4">
@@ -3504,13 +3152,13 @@
       <c r="B40" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="127">
+      <c r="C40" s="82">
         <v>-924</v>
       </c>
       <c r="D40" s="3">
         <v>90000</v>
       </c>
-      <c r="E40" s="128">
+      <c r="E40" s="83">
         <v>-1.0266666666666667E-2</v>
       </c>
       <c r="F40" s="4">
@@ -3527,13 +3175,13 @@
       <c r="B41" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C41" s="129">
+      <c r="C41" s="84">
         <v>1020</v>
       </c>
       <c r="D41" s="3">
         <v>90000</v>
       </c>
-      <c r="E41" s="130">
+      <c r="E41" s="85">
         <v>1.1333333333333334E-2</v>
       </c>
       <c r="F41" s="4">
@@ -3550,13 +3198,13 @@
       <c r="B42" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C42" s="131">
+      <c r="C42" s="86">
         <v>2000</v>
       </c>
       <c r="D42" s="3">
         <v>100000</v>
       </c>
-      <c r="E42" s="132">
+      <c r="E42" s="87">
         <v>0.02</v>
       </c>
       <c r="F42" s="4">
@@ -3573,13 +3221,13 @@
       <c r="B43" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C43" s="133">
+      <c r="C43" s="88">
         <v>-1300</v>
       </c>
       <c r="D43" s="3">
         <v>100000</v>
       </c>
-      <c r="E43" s="134">
+      <c r="E43" s="89">
         <v>-1.2999999999999999E-2</v>
       </c>
       <c r="F43" s="4">
@@ -3596,13 +3244,13 @@
       <c r="B44" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C44" s="135">
+      <c r="C44" s="90">
         <v>500</v>
       </c>
       <c r="D44" s="3">
         <v>100000</v>
       </c>
-      <c r="E44" s="19">
+      <c r="E44" s="7">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F44" s="4">
@@ -3619,13 +3267,13 @@
       <c r="B45" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="133">
+      <c r="C45" s="88">
         <v>-1300</v>
       </c>
       <c r="D45" s="3">
         <v>100000</v>
       </c>
-      <c r="E45" s="134">
+      <c r="E45" s="89">
         <v>-1.2999999999999999E-2</v>
       </c>
       <c r="F45" s="4">
@@ -3642,13 +3290,13 @@
       <c r="B46" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C46" s="117">
+      <c r="C46" s="72">
         <v>-1000</v>
       </c>
       <c r="D46" s="3">
         <v>100000</v>
       </c>
-      <c r="E46" s="118">
+      <c r="E46" s="73">
         <v>-0.01</v>
       </c>
       <c r="F46" s="4">
@@ -3659,19 +3307,19 @@
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="136">
+      <c r="A47" s="91">
         <v>45903</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="137">
+      <c r="C47" s="92">
         <v>-1174.93</v>
       </c>
       <c r="D47" s="3">
         <v>99000</v>
       </c>
-      <c r="E47" s="138">
+      <c r="E47" s="93">
         <v>-1.1867979797979799E-2</v>
       </c>
       <c r="F47" s="4">
@@ -3682,19 +3330,19 @@
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="136">
+      <c r="A48" s="91">
         <v>45904</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C48" s="139">
+      <c r="C48" s="94">
         <v>-863.3</v>
       </c>
       <c r="D48" s="3">
         <v>99000</v>
       </c>
-      <c r="E48" s="140">
+      <c r="E48" s="95">
         <v>-8.7202020202020204E-3</v>
       </c>
       <c r="F48" s="4">
@@ -3705,19 +3353,19 @@
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="136">
+      <c r="A49" s="91">
         <v>45908</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C49" s="141">
+      <c r="C49" s="96">
         <v>-654.66</v>
       </c>
       <c r="D49" s="3">
         <v>99000</v>
       </c>
-      <c r="E49" s="142">
+      <c r="E49" s="97">
         <v>-6.6127272727272727E-3</v>
       </c>
       <c r="F49" s="4">
@@ -3728,19 +3376,19 @@
       </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="136">
+      <c r="A50" s="91">
         <v>45909</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C50" s="143">
+      <c r="C50" s="98">
         <v>-1240.75</v>
       </c>
       <c r="D50" s="3">
         <v>99000</v>
       </c>
-      <c r="E50" s="144">
+      <c r="E50" s="99">
         <v>-1.2532828282828283E-2</v>
       </c>
       <c r="F50" s="4">
@@ -3751,19 +3399,19 @@
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="136">
+      <c r="A51" s="91">
         <v>45910</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C51" s="112">
+      <c r="C51" s="67">
         <v>1802.05</v>
       </c>
       <c r="D51" s="3">
         <v>99000</v>
       </c>
-      <c r="E51" s="145">
+      <c r="E51" s="100">
         <v>1.8202525252525251E-2</v>
       </c>
       <c r="F51" s="4">
@@ -3774,19 +3422,19 @@
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="136">
+      <c r="A52" s="91">
         <v>45911</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C52" s="146">
+      <c r="C52" s="101">
         <v>-1149.72</v>
       </c>
       <c r="D52" s="3">
         <v>99000</v>
       </c>
-      <c r="E52" s="147">
+      <c r="E52" s="102">
         <v>-1.1613333333333333E-2</v>
       </c>
       <c r="F52" s="4">
@@ -3797,19 +3445,19 @@
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="136">
+      <c r="A53" s="91">
         <v>45922</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C53" s="148">
+      <c r="C53" s="103">
         <v>827.3</v>
       </c>
       <c r="D53" s="3">
         <v>99000</v>
       </c>
-      <c r="E53" s="126">
+      <c r="E53" s="81">
         <v>8.3565656565656558E-3</v>
       </c>
       <c r="F53" s="4">
@@ -3820,19 +3468,19 @@
       </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="136">
+      <c r="A54" s="91">
         <v>45924</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C54" s="149">
+      <c r="C54" s="104">
         <v>1686.1599999999901</v>
       </c>
       <c r="D54" s="3">
         <v>99000</v>
       </c>
-      <c r="E54" s="150">
+      <c r="E54" s="105">
         <v>1.7031919191919091E-2</v>
       </c>
       <c r="F54" s="4">
@@ -3843,19 +3491,19 @@
       </c>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="136">
+      <c r="A55" s="91">
         <v>45925</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C55" s="151">
+      <c r="C55" s="106">
         <v>-741.37</v>
       </c>
       <c r="D55" s="3">
         <v>99000</v>
       </c>
-      <c r="E55" s="152">
+      <c r="E55" s="107">
         <v>-7.4885858585858585E-3</v>
       </c>
       <c r="F55" s="4">
@@ -3866,19 +3514,19 @@
       </c>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="136">
+      <c r="A56" s="91">
         <v>45929</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C56" s="153">
+      <c r="C56" s="108">
         <v>2081.65</v>
       </c>
       <c r="D56" s="3">
         <v>99000</v>
       </c>
-      <c r="E56" s="154">
+      <c r="E56" s="109">
         <v>2.1026767676767678E-2</v>
       </c>
       <c r="F56" s="4">
@@ -3892,16 +3540,16 @@
       <c r="A57" s="2">
         <v>45930</v>
       </c>
-      <c r="B57" s="155" t="s">
+      <c r="B57" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="C57" s="156">
+      <c r="C57" s="111">
         <v>-729</v>
       </c>
       <c r="D57" s="3">
         <v>99000</v>
       </c>
-      <c r="E57" s="157">
+      <c r="E57" s="112">
         <v>-7.3636363636363639E-3</v>
       </c>
       <c r="F57" s="4">
@@ -3918,13 +3566,13 @@
       <c r="B58" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C58" s="158">
+      <c r="C58" s="113">
         <v>-1123</v>
       </c>
       <c r="D58" s="3">
         <v>99000</v>
       </c>
-      <c r="E58" s="159">
+      <c r="E58" s="114">
         <v>-1.1343434343434343E-2</v>
       </c>
       <c r="F58" s="4">
@@ -3941,13 +3589,13 @@
       <c r="B59" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C59" s="160">
+      <c r="C59" s="115">
         <v>1975</v>
       </c>
       <c r="D59" s="3">
         <v>74948</v>
       </c>
-      <c r="E59" s="21">
+      <c r="E59" s="8">
         <v>2.6351603778619843E-2</v>
       </c>
       <c r="F59" s="4">
@@ -3964,13 +3612,13 @@
       <c r="B60" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C60" s="161">
+      <c r="C60" s="116">
         <v>995</v>
       </c>
       <c r="D60" s="3">
         <v>74948</v>
       </c>
-      <c r="E60" s="162">
+      <c r="E60" s="117">
         <v>1.3275871270747719E-2</v>
       </c>
       <c r="F60" s="4">
@@ -3981,19 +3629,19 @@
       </c>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="43">
+      <c r="A61" s="10">
         <v>45944</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C61" s="81">
+      <c r="C61" s="36">
         <v>-940</v>
       </c>
       <c r="D61" s="3">
         <v>75000</v>
       </c>
-      <c r="E61" s="144">
+      <c r="E61" s="99">
         <v>-1.2533333333333334E-2</v>
       </c>
       <c r="F61" s="4">
@@ -4004,7 +3652,7 @@
       </c>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="43">
+      <c r="A62" s="10">
         <v>45946</v>
       </c>
       <c r="B62" s="3" t="s">
@@ -4016,7 +3664,7 @@
       <c r="D62" s="3">
         <v>75000</v>
       </c>
-      <c r="E62" s="163">
+      <c r="E62" s="118">
         <v>-1.2239999999999999E-2</v>
       </c>
       <c r="F62" s="4">

--- a/main/streamlit_performances.xlsx
+++ b/main/streamlit_performances.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacopobinati/Desktop/GalambosC/other_projects/main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35449008-0411-724F-975B-CF8DB805781D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6A3CB4-3845-1E44-8937-A1CE222FEA06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10600" yWindow="-20980" windowWidth="29400" windowHeight="18440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="29400" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="USEquity500" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="15">
   <si>
     <t>date</t>
   </si>
@@ -1233,15 +1233,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38:G39"/>
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" ht="16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1273,7 +1273,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" ht="16">
       <c r="A2" s="2">
         <v>45910</v>
       </c>
@@ -1297,7 +1297,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" ht="16">
       <c r="A3" s="2">
         <v>45911</v>
       </c>
@@ -1329,7 +1329,7 @@
         <v>10067.900000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" ht="16">
       <c r="A4" s="2">
         <v>45912</v>
       </c>
@@ -1361,7 +1361,7 @@
         <v>10093.673824</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" ht="16">
       <c r="A5" s="2">
         <v>45915</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>10126.458076580351</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" ht="16">
       <c r="A6" s="2">
         <v>45916</v>
       </c>
@@ -1425,7 +1425,7 @@
         <v>9929.1946732485667</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" ht="16">
       <c r="A7" s="2">
         <v>45917</v>
       </c>
@@ -1457,7 +1457,7 @@
         <v>9849.7611158625768</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" ht="16">
       <c r="A8" s="2">
         <v>45918</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v>9889.6605281907123</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" ht="16">
       <c r="A9" s="2">
         <v>45919</v>
       </c>
@@ -1521,7 +1521,7 @@
         <v>9757.9434361692493</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" ht="16">
       <c r="A10" s="2">
         <v>45922</v>
       </c>
@@ -1553,7 +1553,7 @@
         <v>9672.2686927996838</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" ht="16">
       <c r="A11" s="2">
         <v>45923</v>
       </c>
@@ -1585,7 +1585,7 @@
         <v>9796.3316592326628</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" ht="16">
       <c r="A12" s="2">
         <v>45924</v>
       </c>
@@ -1617,7 +1617,7 @@
         <v>10216.345918530013</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" ht="16">
       <c r="A13" s="2">
         <v>45925</v>
       </c>
@@ -1649,7 +1649,7 @@
         <v>10240.61995643244</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" ht="16">
       <c r="A14" s="2">
         <v>45926</v>
       </c>
@@ -1681,7 +1681,7 @@
         <v>10056.630151215202</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" ht="16">
       <c r="A15" s="2">
         <v>45929</v>
       </c>
@@ -1713,7 +1713,7 @@
         <v>10064.072057527101</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" ht="16">
       <c r="A16" s="2">
         <v>45930</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>9957.270645321194</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" ht="16">
       <c r="A17" s="2">
         <v>45931</v>
       </c>
@@ -1777,7 +1777,7 @@
         <v>10180.326702075146</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" ht="16">
       <c r="A18" s="2">
         <v>45932</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>10332.684648866058</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" ht="16">
       <c r="A19" s="2">
         <v>45933</v>
       </c>
@@ -1841,7 +1841,7 @@
         <v>10326.650670775329</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" ht="16">
       <c r="A20" s="2">
         <v>45936</v>
       </c>
@@ -1873,7 +1873,7 @@
         <v>10439.28492846894</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" ht="16">
       <c r="A21" s="2">
         <v>45937</v>
       </c>
@@ -1905,7 +1905,7 @@
         <v>10222.363416107228</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" ht="16">
       <c r="A22" s="2">
         <v>45938</v>
       </c>
@@ -1937,7 +1937,7 @@
         <v>10341.556173539037</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" ht="16">
       <c r="A23" s="2">
         <v>45939</v>
       </c>
@@ -1969,7 +1969,7 @@
         <v>10447.384765048253</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" ht="16">
       <c r="A24" s="10">
         <v>45940</v>
       </c>
@@ -2001,7 +2001,7 @@
         <v>10494.606944186271</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" ht="16">
       <c r="A25" s="10">
         <v>45943</v>
       </c>
@@ -2033,7 +2033,7 @@
         <v>10471.559388055912</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" ht="16">
       <c r="A26" s="10">
         <v>45944</v>
       </c>
@@ -2065,7 +2065,7 @@
         <v>10432.971691710924</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" ht="16">
       <c r="A27" s="10">
         <v>45945</v>
       </c>
@@ -2097,7 +2097,7 @@
         <v>10407.66705562294</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" ht="16">
       <c r="A28" s="10">
         <v>45946</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>10263.015607050165</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" ht="16">
       <c r="A29" s="10">
         <v>45950</v>
       </c>
@@ -2161,7 +2161,7 @@
         <v>10243.289902741202</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" ht="16">
       <c r="A30" s="10">
         <v>45951</v>
       </c>
@@ -2204,25 +2204,57 @@
         <v>180550</v>
       </c>
       <c r="D31" s="3">
-        <v>3078</v>
+        <v>5177</v>
       </c>
       <c r="E31" s="3">
-        <v>1.4119266055045871E-2</v>
+        <v>2.3747706422018348E-2</v>
       </c>
       <c r="F31" s="3">
-        <v>1.7047909166435889E-2</v>
+        <v>2.8673497646081417E-2</v>
       </c>
       <c r="G31" s="3">
         <v>0.8282110091743119</v>
       </c>
       <c r="H31" s="3">
-        <v>1.0342601538735468</v>
+        <v>1.0440798196158667</v>
       </c>
       <c r="I31" s="3" t="s">
         <v>10</v>
       </c>
       <c r="J31" s="3">
-        <v>10342.601538735467</v>
+        <v>10440.798196158667</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A32" s="10">
+        <v>45953</v>
+      </c>
+      <c r="B32" s="3">
+        <v>218000</v>
+      </c>
+      <c r="C32" s="3">
+        <v>211190</v>
+      </c>
+      <c r="D32" s="3">
+        <v>-957</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-4.3899082568807342E-3</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-4.5314645579809651E-3</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0.96876146788990825</v>
+      </c>
+      <c r="H32" s="3">
+        <v>1.0394964049948925</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J32" s="3">
+        <v>10394.964049948925</v>
       </c>
     </row>
   </sheetData>

--- a/main/streamlit_performances.xlsx
+++ b/main/streamlit_performances.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacopobinati/Desktop/GalambosC/other_projects/main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6A3CB4-3845-1E44-8937-A1CE222FEA06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5579ECD3-F170-5046-A9FE-F323E977372D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="29400" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1236,7 +1236,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2236,25 +2236,25 @@
         <v>211190</v>
       </c>
       <c r="D32" s="3">
-        <v>-957</v>
+        <v>1376</v>
       </c>
       <c r="E32" s="3">
-        <v>-4.3899082568807342E-3</v>
+        <v>6.3119266055045873E-3</v>
       </c>
       <c r="F32" s="3">
-        <v>-4.5314645579809651E-3</v>
+        <v>6.5154600123111892E-3</v>
       </c>
       <c r="G32" s="3">
         <v>0.96876146788990825</v>
       </c>
       <c r="H32" s="3">
-        <v>1.0394964049948925</v>
+        <v>1.0506699748075705</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J32" s="3">
-        <v>10394.964049948925</v>
+        <v>10506.699748075705</v>
       </c>
     </row>
   </sheetData>

--- a/main/streamlit_performances.xlsx
+++ b/main/streamlit_performances.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacopobinati/Desktop/GalambosC/other_projects/main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5579ECD3-F170-5046-A9FE-F323E977372D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA960D2-51A8-9A4A-9367-EC4B852F3297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="29400" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1236,7 +1236,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2236,25 +2236,25 @@
         <v>211190</v>
       </c>
       <c r="D32" s="3">
-        <v>1376</v>
+        <v>-2513</v>
       </c>
       <c r="E32" s="3">
-        <v>6.3119266055045873E-3</v>
+        <v>-1.1527522935779817E-2</v>
       </c>
       <c r="F32" s="3">
-        <v>6.5154600123111892E-3</v>
+        <v>-1.5323170731707317E-2</v>
       </c>
       <c r="G32" s="3">
-        <v>0.96876146788990825</v>
+        <v>0.75229357798165142</v>
       </c>
       <c r="H32" s="3">
-        <v>1.0506699748075705</v>
+        <v>1.038558352575041</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J32" s="3">
-        <v>10506.699748075705</v>
+        <v>10385.58352575041</v>
       </c>
     </row>
   </sheetData>

--- a/main/streamlit_performances.xlsx
+++ b/main/streamlit_performances.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacopobinati/Desktop/GalambosC/other_projects/main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA960D2-51A8-9A4A-9367-EC4B852F3297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{967C25CA-416C-0440-83B0-18D8CD242DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="29400" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8020" yWindow="680" windowWidth="21380" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="USEquity500" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="15">
   <si>
     <t>date</t>
   </si>
@@ -1233,10 +1233,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2256,6 +2256,108 @@
       <c r="J32" s="3">
         <v>10385.58352575041</v>
       </c>
+    </row>
+    <row r="33" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A33" s="10">
+        <v>45954</v>
+      </c>
+      <c r="B33" s="3">
+        <v>218000</v>
+      </c>
+      <c r="C33" s="3">
+        <v>164000</v>
+      </c>
+      <c r="D33" s="3">
+        <v>-2513</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1.1527522935779817E-2</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-1.5323170731707317E-2</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0.75229357798165142</v>
+      </c>
+      <c r="H33" s="3">
+        <v>1.038558352575041</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J33" s="3">
+        <v>10385.58352575041</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A34" s="10">
+        <v>45958</v>
+      </c>
+      <c r="B34" s="3">
+        <v>218000</v>
+      </c>
+      <c r="C34" s="3">
+        <v>87500</v>
+      </c>
+      <c r="D34" s="3">
+        <v>-2374</v>
+      </c>
+      <c r="E34" s="3">
+        <v>-1.0889908256880734E-2</v>
+      </c>
+      <c r="F34" s="3">
+        <v>-2.713142857142857E-2</v>
+      </c>
+      <c r="G34" s="3">
+        <v>0.40137614678899081</v>
+      </c>
+      <c r="H34" s="3">
+        <v>1.0272485473960817</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J34" s="3">
+        <v>10272.485473960818</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A35" s="10">
+        <v>45959</v>
+      </c>
+      <c r="B35" s="3">
+        <v>218000</v>
+      </c>
+      <c r="C35" s="3">
+        <v>104470</v>
+      </c>
+      <c r="D35" s="3">
+        <v>-3281</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1.505045871559633E-2</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-3.1406145304872214E-2</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0.47922018348623852</v>
+      </c>
+      <c r="H35" s="3">
+        <v>1.0117879855428407</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J35" s="3">
+        <v>10117.879855428406</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A36" s="10"/>
+    </row>
+    <row r="37" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A37" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/main/streamlit_performances.xlsx
+++ b/main/streamlit_performances.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacopobinati/Desktop/GalambosC/other_projects/main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{967C25CA-416C-0440-83B0-18D8CD242DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D1228D-EE38-294C-A977-AC04F3CC5BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8020" yWindow="680" windowWidth="21380" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="29400" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="USEquity500" sheetId="1" r:id="rId1"/>
     <sheet name="IBUST" sheetId="2" r:id="rId2"/>
+    <sheet name="Portfolio" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="20">
   <si>
     <t>date</t>
   </si>
@@ -80,6 +81,21 @@
   <si>
     <t>SHORT</t>
   </si>
+  <si>
+    <t>asset</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>entry_price</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>weight_portfolio</t>
+  </si>
 </sst>
 </file>
 
@@ -88,7 +104,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yy"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -109,6 +125,13 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="&quot;Helvetica Neue&quot;"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="103">
@@ -774,7 +797,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1015,6 +1038,7 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1236,7 +1260,7 @@
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2354,10 +2378,68 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A36" s="10"/>
+      <c r="A36" s="10">
+        <v>45960</v>
+      </c>
+      <c r="B36" s="3">
+        <v>218000</v>
+      </c>
+      <c r="C36" s="3">
+        <v>163935</v>
+      </c>
+      <c r="D36" s="3">
+        <v>-1815</v>
+      </c>
+      <c r="E36" s="3">
+        <v>-8.3256880733944948E-3</v>
+      </c>
+      <c r="F36" s="3">
+        <v>-1.1071461249885626E-2</v>
+      </c>
+      <c r="G36" s="3">
+        <v>0.7519954128440367</v>
+      </c>
+      <c r="H36" s="3">
+        <v>1.0033641543788028</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J36" s="3">
+        <v>10033.641543788028</v>
+      </c>
     </row>
     <row r="37" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A37" s="10"/>
+      <c r="A37" s="10">
+        <v>45964</v>
+      </c>
+      <c r="B37" s="3">
+        <v>218000</v>
+      </c>
+      <c r="C37" s="3">
+        <v>153142</v>
+      </c>
+      <c r="D37" s="3">
+        <v>918</v>
+      </c>
+      <c r="E37" s="3">
+        <v>4.2110091743119268E-3</v>
+      </c>
+      <c r="F37" s="3">
+        <v>5.9944365360253878E-3</v>
+      </c>
+      <c r="G37" s="3">
+        <v>0.70248623853211012</v>
+      </c>
+      <c r="H37" s="3">
+        <v>1.0075893300380676</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J37" s="3">
+        <v>10075.893300380676</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3811,4 +3893,39 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D563339F-8737-494D-8C83-1682B994962A}">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="120" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="120" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="120" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="120" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="120" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="120" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/main/streamlit_performances.xlsx
+++ b/main/streamlit_performances.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacopobinati/Desktop/GalambosC/other_projects/main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D1228D-EE38-294C-A977-AC04F3CC5BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E628293C-8B25-8F47-8CB8-E33A8B99193A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="29400" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="29400" windowHeight="18460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="USEquity500" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="20">
   <si>
     <t>date</t>
   </si>
@@ -104,7 +104,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -128,6 +128,13 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -797,9 +804,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1039,6 +1045,14 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1257,1188 +1271,1220 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="16">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="120" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="16">
-      <c r="A2" s="2">
+      <c r="A2" s="121">
         <v>45910</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="122">
         <v>100000</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3">
+      <c r="C2" s="122"/>
+      <c r="D2" s="122">
         <v>0</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="123">
         <v>0</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="4">
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="123">
         <v>1</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3">
+      <c r="I2" s="122"/>
+      <c r="J2" s="122">
         <v>10000</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16">
-      <c r="A3" s="2">
+      <c r="A3" s="121">
         <v>45911</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="122">
         <v>100000</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="122">
         <v>29243</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="122">
         <v>679</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="122">
         <v>6.79E-3</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="122">
         <v>2.3219231952946003E-2</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="122">
         <v>0.29243000000000002</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="122">
         <v>1.0067900000000001</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="122">
         <v>10067.900000000001</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="16">
-      <c r="A4" s="2">
+      <c r="A4" s="121">
         <v>45912</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="122">
         <v>100000</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="122">
         <v>109438</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="122">
         <v>256</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="122">
         <v>2.5600000000000002E-3</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="122">
         <v>2.339224035526965E-3</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="122">
         <v>1.0943799999999999</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="122">
         <v>1.0093673824</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="122">
         <v>10093.673824</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="16">
-      <c r="A5" s="2">
+      <c r="A5" s="121">
         <v>45915</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="122">
         <v>125000</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="122">
         <v>167749</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="122">
         <v>406</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="122">
         <v>3.248E-3</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="122">
         <v>2.4202826842484905E-3</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="122">
         <v>1.3419920000000001</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="122">
         <v>1.0126458076580351</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="122">
         <v>10126.458076580351</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="16">
-      <c r="A6" s="2">
+      <c r="A6" s="121">
         <v>45916</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="122">
         <v>150000</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="122">
         <v>233052</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="122">
         <v>-2922</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="122">
         <v>-1.9480000000000001E-2</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="122">
         <v>-1.2537974357654086E-2</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="122">
         <v>1.5536799999999999</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="122">
         <v>0.99291946732485659</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="122">
         <v>9929.1946732485667</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="16">
-      <c r="A7" s="2">
+      <c r="A7" s="121">
         <v>45917</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="122">
         <v>50000</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="122">
         <v>91261</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="122">
         <v>-400</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="122">
         <v>-8.0000000000000002E-3</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="122">
         <v>-4.3830332781801644E-3</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="122">
         <v>1.8252200000000001</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="122">
         <v>0.98497611158625775</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="122">
         <v>9849.7611158625768</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="16">
-      <c r="A8" s="2">
+      <c r="A8" s="121">
         <v>45918</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="122">
         <v>50000</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="122">
         <v>78685</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="122">
         <v>202.54</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="122">
         <v>4.0508000000000002E-3</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="122">
         <v>2.5740611298214399E-3</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="122">
         <v>1.5737000000000001</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="122">
         <v>0.98896605281907124</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="122">
         <v>9889.6605281907123</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="16">
-      <c r="A9" s="2">
+      <c r="A9" s="121">
         <v>45919</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="122">
         <v>75000</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="122">
         <v>154553</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="122">
         <v>-998.9</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="122">
         <v>-1.3318666666666666E-2</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="122">
         <v>-6.4631550341953895E-3</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="122">
         <v>2.0607066666666665</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="122">
         <v>0.97579434361692496</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="122">
         <v>9757.9434361692493</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="16">
-      <c r="A10" s="2">
+      <c r="A10" s="121">
         <v>45922</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="122">
         <v>50000</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="122">
         <v>67497</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="122">
         <v>-439</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="122">
         <v>-8.7799999999999996E-3</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="122">
         <v>-6.5039927700490394E-3</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="122">
         <v>1.3499399999999999</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="122">
         <v>0.96722686927996837</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="122">
         <v>9672.2686927996838</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="16">
-      <c r="A11" s="2">
+      <c r="A11" s="121">
         <v>45923</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="122">
         <v>75000</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="122">
         <v>139069</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="122">
         <v>962</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="122">
         <v>1.2826666666666667E-2</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="122">
         <v>6.9174294774536384E-3</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="122">
         <v>1.8542533333333333</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="122">
         <v>0.97963316592326621</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="122">
         <v>9796.3316592326628</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="16">
-      <c r="A12" s="2">
+      <c r="A12" s="121">
         <v>45924</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="122">
         <v>101202</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="122">
         <v>162152</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="122">
         <v>4339</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="122">
         <v>4.2874646746111737E-2</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="122">
         <v>2.6758843554196061E-2</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="122">
         <v>1.6022608248848837</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="122">
         <v>1.0216345918530012</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="122">
         <v>10216.345918530013</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="16">
-      <c r="A13" s="2">
+      <c r="A13" s="121">
         <v>45925</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="122">
         <v>125000</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="122">
         <v>155563</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="122">
         <v>297</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="122">
         <v>2.3760000000000001E-3</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="122">
         <v>1.9091943456991702E-3</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="122">
         <v>1.2445040000000001</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="122">
         <v>1.024061995643244</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="122">
         <v>10240.61995643244</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="16">
-      <c r="A14" s="2">
+      <c r="A14" s="121">
         <v>45926</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="122">
         <v>150000</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="122">
         <v>200891</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="122">
         <v>-2695</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="122">
         <v>-1.7966666666666666E-2</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="122">
         <v>-1.3415235127506956E-2</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="122">
         <v>1.3392733333333333</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="122">
         <v>1.0056630151215202</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="122">
         <v>10056.630151215202</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="16">
-      <c r="A15" s="2">
+      <c r="A15" s="121">
         <v>45929</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="122">
         <v>100000</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="122">
         <v>60122</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="122">
         <v>74</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="122">
         <v>7.3999999999999999E-4</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="122">
         <v>1.2308306443564751E-3</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="122">
         <v>0.60121999999999998</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="122">
         <v>1.00640720575271</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="122">
         <v>10064.072057527101</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="16">
-      <c r="A16" s="2">
+      <c r="A16" s="121">
         <v>45930</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="122">
         <v>100074</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="122">
         <v>110686</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="122">
         <v>-1062</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="122">
         <v>-1.0612147011211704E-2</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="122">
         <v>-9.594709358003722E-3</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="122">
         <v>1.1060415292683414</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="122">
         <v>0.99572706453211945</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="I16" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16" s="122">
         <v>9957.270645321194</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="16">
-      <c r="A17" s="2">
+      <c r="A17" s="121">
         <v>45931</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="122">
         <v>99012</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="122">
         <v>79780</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="122">
         <v>2218</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="122">
         <v>2.240132509190805E-2</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="122">
         <v>2.7801453998495863E-2</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="122">
         <v>0.8057609178685412</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="122">
         <v>1.0180326702075146</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I17" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="122">
         <v>10180.326702075146</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="16">
-      <c r="A18" s="2">
+      <c r="A18" s="121">
         <v>45932</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="122">
         <v>101230</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="122">
         <v>161182</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="122">
         <v>1515</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="122">
         <v>1.4965919193914847E-2</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="122">
         <v>9.3993125783276045E-3</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="122">
         <v>1.5922355033092956</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="122">
         <v>1.0332684648866057</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="I18" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="122">
         <v>10332.684648866058</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="16">
-      <c r="A19" s="2">
+      <c r="A19" s="121">
         <v>45933</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="122">
         <v>102745</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="122">
         <v>62217.760000000002</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="122">
         <v>-60</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="122">
         <v>-5.839700228721592E-4</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="122">
         <v>-9.643548723065568E-4</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="122">
         <v>0.60555511217090863</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="122">
         <v>1.0326650670775328</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="I19" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J19" s="122">
         <v>10326.650670775329</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="16">
-      <c r="A20" s="2">
+      <c r="A20" s="121">
         <v>45936</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="122">
         <v>102685</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="122">
         <v>132025</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="122">
         <v>1120</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="122">
         <v>1.0907143204947168E-2</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="122">
         <v>8.483241810263208E-3</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="122">
         <v>1.285728197886741</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="122">
         <v>1.0439284928468939</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="I20" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="122">
         <v>10439.28492846894</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="16">
-      <c r="A21" s="2">
+      <c r="A21" s="121">
         <v>45937</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="122">
         <v>103805</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="122">
         <v>131877</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="122">
         <v>-2157</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="122">
         <v>-2.0779345888926354E-2</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="122">
         <v>-1.635615004890921E-2</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="122">
         <v>1.2704301334232455</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="122">
         <v>1.0222363416107227</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="I21" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="122">
         <v>10222.363416107228</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="16">
-      <c r="A22" s="2">
+      <c r="A22" s="121">
         <v>45938</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="122">
         <v>100000</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="122">
         <v>105221</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="122">
         <v>1166</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="122">
         <v>1.166E-2</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="122">
         <v>1.1081438115965445E-2</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="122">
         <v>1.0522100000000001</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="122">
         <v>1.0341556173539037</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="I22" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="122">
         <v>10341.556173539037</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="16">
-      <c r="A23" s="2">
+      <c r="A23" s="121">
         <v>45939</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="122">
         <v>150000</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="122">
         <v>179849</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="122">
         <v>1535</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="122">
         <v>1.0233333333333334E-2</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="122">
         <v>8.5349376421331221E-3</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="122">
         <v>1.1989933333333334</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="122">
         <v>1.0447384765048253</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="I23" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J23" s="122">
         <v>10447.384765048253</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="16">
-      <c r="A24" s="10">
+      <c r="A24" s="121">
         <v>45940</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="122">
         <v>75000</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="122">
         <v>45230.059090000002</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="122">
         <v>339</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="122">
         <v>4.5199999999999997E-3</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="122">
         <v>7.4950156338608482E-3</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="122">
         <v>0.60306745453333332</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="122">
         <v>1.0494606944186271</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="I24" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J24" s="122">
         <v>10494.606944186271</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="16">
-      <c r="A25" s="10">
+      <c r="A25" s="121">
         <v>45943</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="122">
         <v>150000</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="122">
         <v>80315.59</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="122">
         <v>-329.42</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="122">
         <v>-2.1961333333333334E-3</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="122">
         <v>-4.1015698197572857E-3</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25" s="122">
         <v>0.53543726666666669</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="122">
         <v>1.0471559388055911</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="I25" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="J25" s="3">
+      <c r="J25" s="122">
         <v>10471.559388055912</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="16">
-      <c r="A26" s="10">
+      <c r="A26" s="121">
         <v>45944</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="122">
         <v>200000</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="122">
         <v>258812</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="122">
         <v>-737</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="122">
         <v>-3.6849999999999999E-3</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="122">
         <v>-2.8476268488323571E-3</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="122">
         <v>1.29406</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="122">
         <v>1.0432971691710924</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="I26" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26" s="122">
         <v>10432.971691710924</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="16">
-      <c r="A27" s="10">
+      <c r="A27" s="121">
         <v>45945</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="122">
         <v>225113</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="122">
         <v>158445</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="122">
         <v>-546</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="122">
         <v>-2.4254485525047422E-3</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="122">
         <v>-3.4459907223326706E-3</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27" s="122">
         <v>0.70384651264031839</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="122">
         <v>1.040766705562294</v>
       </c>
-      <c r="I27" s="3" t="s">
+      <c r="I27" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="J27" s="3">
+      <c r="J27" s="122">
         <v>10407.66705562294</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="16">
-      <c r="A28" s="10">
+      <c r="A28" s="121">
         <v>45946</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="122">
         <v>222901</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="122">
         <v>148578</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="122">
         <v>-3098</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="122">
         <v>-1.3898546888528988E-2</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="122">
         <v>-2.0851000821117526E-2</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28" s="122">
         <v>0.66656497727690767</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28" s="122">
         <v>1.0263015607050165</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="I28" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="J28" s="3">
+      <c r="J28" s="122">
         <v>10263.015607050165</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="16">
-      <c r="A29" s="10">
+      <c r="A29" s="121">
         <v>45950</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="122">
         <v>218000</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="122">
         <v>119214.63</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="122">
         <v>-419</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="122">
         <v>-1.9220183486238533E-3</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="122">
         <v>-3.5146692985584065E-3</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="122">
         <v>0.5468561009174312</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="122">
         <v>1.0243289902741202</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="I29" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="122">
         <v>10243.289902741202</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="16">
-      <c r="A30" s="10">
+      <c r="A30" s="121">
         <v>45951</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="122">
         <v>218000</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="122">
         <v>161589</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="122">
         <v>-951</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="122">
         <v>-4.3623853211009174E-3</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="122">
         <v>-5.885301598499898E-3</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G30" s="122">
         <v>0.74123394495412842</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H30" s="122">
         <v>1.0198604725229703</v>
       </c>
-      <c r="I30" s="3" t="s">
+      <c r="I30" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="J30" s="3">
+      <c r="J30" s="122">
         <v>10198.604725229703</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A31" s="10">
+      <c r="A31" s="121">
         <v>45952</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="122">
         <v>218000</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="122">
         <v>180550</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="122">
         <v>5177</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="122">
         <v>2.3747706422018348E-2</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="122">
         <v>2.8673497646081417E-2</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G31" s="122">
         <v>0.8282110091743119</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H31" s="122">
         <v>1.0440798196158667</v>
       </c>
-      <c r="I31" s="3" t="s">
+      <c r="I31" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="J31" s="3">
+      <c r="J31" s="122">
         <v>10440.798196158667</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A32" s="10">
+      <c r="A32" s="121">
         <v>45953</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="122">
         <v>218000</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="122">
         <v>211190</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="122">
+        <v>1376</v>
+      </c>
+      <c r="E32" s="122">
+        <v>6.3119266055045873E-3</v>
+      </c>
+      <c r="F32" s="122">
+        <v>6.5154600123111892E-3</v>
+      </c>
+      <c r="G32" s="122">
+        <v>0.96876146788990825</v>
+      </c>
+      <c r="H32" s="122">
+        <v>1.0506699748075705</v>
+      </c>
+      <c r="I32" s="122" t="s">
+        <v>10</v>
+      </c>
+      <c r="J32" s="122">
+        <v>10506.699748075705</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A33" s="121">
+        <v>45954</v>
+      </c>
+      <c r="B33" s="122">
+        <v>218000</v>
+      </c>
+      <c r="C33" s="122">
+        <v>164000</v>
+      </c>
+      <c r="D33" s="122">
         <v>-2513</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E33" s="122">
         <v>-1.1527522935779817E-2</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F33" s="122">
         <v>-1.5323170731707317E-2</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G33" s="122">
         <v>0.75229357798165142</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H33" s="122">
         <v>1.038558352575041</v>
       </c>
-      <c r="I32" s="3" t="s">
+      <c r="I33" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="J32" s="3">
+      <c r="J33" s="122">
         <v>10385.58352575041</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A33" s="10">
-        <v>45954</v>
-      </c>
-      <c r="B33" s="3">
+    <row r="34" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A34" s="121">
+        <v>45958</v>
+      </c>
+      <c r="B34" s="122">
         <v>218000</v>
       </c>
-      <c r="C33" s="3">
-        <v>164000</v>
-      </c>
-      <c r="D33" s="3">
-        <v>-2513</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-1.1527522935779817E-2</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-1.5323170731707317E-2</v>
-      </c>
-      <c r="G33" s="3">
-        <v>0.75229357798165142</v>
-      </c>
-      <c r="H33" s="3">
-        <v>1.038558352575041</v>
-      </c>
-      <c r="I33" s="3" t="s">
+      <c r="C34" s="122">
+        <v>87500</v>
+      </c>
+      <c r="D34" s="122">
+        <v>-2374</v>
+      </c>
+      <c r="E34" s="122">
+        <v>-1.0889908256880734E-2</v>
+      </c>
+      <c r="F34" s="122">
+        <v>-2.713142857142857E-2</v>
+      </c>
+      <c r="G34" s="122">
+        <v>0.40137614678899081</v>
+      </c>
+      <c r="H34" s="122">
+        <v>1.0272485473960817</v>
+      </c>
+      <c r="I34" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="J33" s="3">
-        <v>10385.58352575041</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A34" s="10">
-        <v>45958</v>
-      </c>
-      <c r="B34" s="3">
+      <c r="J34" s="122">
+        <v>10272.485473960818</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A35" s="121">
+        <v>45959</v>
+      </c>
+      <c r="B35" s="122">
         <v>218000</v>
       </c>
-      <c r="C34" s="3">
-        <v>87500</v>
-      </c>
-      <c r="D34" s="3">
-        <v>-2374</v>
-      </c>
-      <c r="E34" s="3">
-        <v>-1.0889908256880734E-2</v>
-      </c>
-      <c r="F34" s="3">
-        <v>-2.713142857142857E-2</v>
-      </c>
-      <c r="G34" s="3">
-        <v>0.40137614678899081</v>
-      </c>
-      <c r="H34" s="3">
-        <v>1.0272485473960817</v>
-      </c>
-      <c r="I34" s="3" t="s">
+      <c r="C35" s="122">
+        <v>104470</v>
+      </c>
+      <c r="D35" s="122">
+        <v>-3281</v>
+      </c>
+      <c r="E35" s="122">
+        <v>-1.505045871559633E-2</v>
+      </c>
+      <c r="F35" s="122">
+        <v>-3.1406145304872214E-2</v>
+      </c>
+      <c r="G35" s="122">
+        <v>0.47922018348623852</v>
+      </c>
+      <c r="H35" s="122">
+        <v>1.0117879855428407</v>
+      </c>
+      <c r="I35" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="J34" s="3">
-        <v>10272.485473960818</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A35" s="10">
-        <v>45959</v>
-      </c>
-      <c r="B35" s="3">
+      <c r="J35" s="122">
+        <v>10117.879855428406</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A36" s="121">
+        <v>45960</v>
+      </c>
+      <c r="B36" s="122">
         <v>218000</v>
       </c>
-      <c r="C35" s="3">
-        <v>104470</v>
-      </c>
-      <c r="D35" s="3">
-        <v>-3281</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-1.505045871559633E-2</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-3.1406145304872214E-2</v>
-      </c>
-      <c r="G35" s="3">
-        <v>0.47922018348623852</v>
-      </c>
-      <c r="H35" s="3">
-        <v>1.0117879855428407</v>
-      </c>
-      <c r="I35" s="3" t="s">
+      <c r="C36" s="122">
+        <v>163935</v>
+      </c>
+      <c r="D36" s="122">
+        <v>-1815</v>
+      </c>
+      <c r="E36" s="122">
+        <v>-8.3256880733944948E-3</v>
+      </c>
+      <c r="F36" s="122">
+        <v>-1.1071461249885626E-2</v>
+      </c>
+      <c r="G36" s="122">
+        <v>0.7519954128440367</v>
+      </c>
+      <c r="H36" s="122">
+        <v>1.0033641543788028</v>
+      </c>
+      <c r="I36" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="J35" s="3">
-        <v>10117.879855428406</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A36" s="10">
-        <v>45960</v>
-      </c>
-      <c r="B36" s="3">
+      <c r="J36" s="122">
+        <v>10033.641543788028</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A37" s="121">
+        <v>45964</v>
+      </c>
+      <c r="B37" s="122">
         <v>218000</v>
       </c>
-      <c r="C36" s="3">
-        <v>163935</v>
-      </c>
-      <c r="D36" s="3">
-        <v>-1815</v>
-      </c>
-      <c r="E36" s="3">
-        <v>-8.3256880733944948E-3</v>
-      </c>
-      <c r="F36" s="3">
-        <v>-1.1071461249885626E-2</v>
-      </c>
-      <c r="G36" s="3">
-        <v>0.7519954128440367</v>
-      </c>
-      <c r="H36" s="3">
-        <v>1.0033641543788028</v>
-      </c>
-      <c r="I36" s="3" t="s">
+      <c r="C37" s="122">
+        <v>153142</v>
+      </c>
+      <c r="D37" s="122">
+        <v>918</v>
+      </c>
+      <c r="E37" s="122">
+        <v>4.2110091743119268E-3</v>
+      </c>
+      <c r="F37" s="122">
+        <v>5.9944365360253878E-3</v>
+      </c>
+      <c r="G37" s="122">
+        <v>0.70248623853211012</v>
+      </c>
+      <c r="H37" s="122">
+        <v>1.0075893300380676</v>
+      </c>
+      <c r="I37" s="122" t="s">
+        <v>10</v>
+      </c>
+      <c r="J37" s="122">
+        <v>10075.893300380676</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A38" s="121">
+        <v>45965</v>
+      </c>
+      <c r="B38" s="122">
+        <v>218000</v>
+      </c>
+      <c r="C38" s="122">
+        <v>116764</v>
+      </c>
+      <c r="D38" s="122">
+        <v>-2525</v>
+      </c>
+      <c r="E38" s="122">
+        <v>-1.158256880733945E-2</v>
+      </c>
+      <c r="F38" s="122">
+        <v>-2.162481586790449E-2</v>
+      </c>
+      <c r="G38" s="122">
+        <v>0.53561467889908254</v>
+      </c>
+      <c r="H38" s="122">
+        <v>0.9959188572933606</v>
+      </c>
+      <c r="I38" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="J36" s="3">
-        <v>10033.641543788028</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A37" s="10">
-        <v>45964</v>
-      </c>
-      <c r="B37" s="3">
-        <v>218000</v>
-      </c>
-      <c r="C37" s="3">
-        <v>153142</v>
-      </c>
-      <c r="D37" s="3">
-        <v>918</v>
-      </c>
-      <c r="E37" s="3">
-        <v>4.2110091743119268E-3</v>
-      </c>
-      <c r="F37" s="3">
-        <v>5.9944365360253878E-3</v>
-      </c>
-      <c r="G37" s="3">
-        <v>0.70248623853211012</v>
-      </c>
-      <c r="H37" s="3">
-        <v>1.0075893300380676</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J37" s="3">
-        <v>10075.893300380676</v>
+      <c r="J38" s="122">
+        <v>9959.1885729336063</v>
       </c>
     </row>
   </sheetData>
@@ -2469,1424 +2515,1424 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>45831</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2">
         <v>0</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="119">
+      <c r="D2" s="2"/>
+      <c r="E2" s="118">
         <v>0</v>
       </c>
-      <c r="F2" s="119">
+      <c r="F2" s="118">
         <v>1</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="2">
         <v>1000</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>45832</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="14">
         <v>738.1</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>30000</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="15">
         <v>2.4603333333333335E-2</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>1.0246033333333333</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <v>1024.6033333333332</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>45833</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="16">
         <v>-420</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>30000</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="17">
         <v>-1.4E-2</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>1.0102588866666666</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <v>1010.2588866666666</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>45834</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="18">
         <v>-388.25999999996975</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>30000</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="19">
         <v>-1.2941999999998993E-2</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>0.99718411615542768</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <v>997.18411615542766</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>45835</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="20">
         <v>974.84</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>50000</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="21">
         <v>1.9496800000000002E-2</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>1.0166260154312867</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <v>1016.6260154312868</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>45839</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="22">
         <v>-551.64999999997667</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>50000</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>-1.1032999999999533E-2</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>1.0054095806030339</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="2">
         <v>1005.4095806030339</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>45840</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="23">
         <v>1099.96</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>50000</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="24">
         <v>2.19992E-2</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>1.0275277870486361</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="2">
         <v>1027.5277870486361</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>45841</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="25">
         <v>1203.0799999999883</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>50000</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="26">
         <v>2.4061599999999767E-2</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>1.0522517496494854</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="2">
         <v>1052.2517496494854</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>45845</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="28">
+      <c r="C10" s="27">
         <v>557.07000000000005</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>50000</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="28">
         <v>1.1141400000000001E-2</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>1.0639753072930302</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="2">
         <v>1063.9753072930303</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>45846</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="30">
+      <c r="C11" s="29">
         <v>-612.6</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>50000</v>
       </c>
-      <c r="E11" s="31">
+      <c r="E11" s="30">
         <v>-1.2252000000000001E-2</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <v>1.0509394818280759</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="2">
         <v>1050.9394818280759</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>45847</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="32">
+      <c r="C12" s="31">
         <v>-250</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>70000</v>
       </c>
-      <c r="E12" s="33">
+      <c r="E12" s="32">
         <v>-3.5714285714285713E-3</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <v>1.0471861265358329</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="2">
         <v>1047.186126535833</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>45848</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="34">
+      <c r="C13" s="33">
         <v>484.79999999997904</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <v>70000</v>
       </c>
-      <c r="E13" s="35">
+      <c r="E13" s="34">
         <v>6.9257142857139858E-3</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <v>1.0544386384521836</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="2">
         <v>1054.4386384521836</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>45849</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="36">
+      <c r="C14" s="35">
         <v>-939.02</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <v>70000</v>
       </c>
-      <c r="E14" s="37">
+      <c r="E14" s="36">
         <v>-1.3414571428571428E-2</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="3">
         <v>1.0402937960196212</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="2">
         <v>1040.2937960196211</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>45852</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="38">
+      <c r="C15" s="37">
         <v>604.64000000000237</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <v>70000</v>
       </c>
-      <c r="E15" s="39">
+      <c r="E15" s="38">
         <v>8.6377142857143197E-3</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="3">
         <v>1.0492795566028399</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="2">
         <v>1049.2795566028399</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <v>45853</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="40">
+      <c r="C16" s="39">
         <v>54.879999999990687</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
         <v>70000</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="4">
         <v>7.8399999999986694E-4</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="3">
         <v>1.0501021917752165</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="2">
         <v>1050.1021917752164</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="2">
+      <c r="A17" s="1">
         <v>45854</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="41">
+      <c r="C17" s="40">
         <v>703.26</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <v>70000</v>
       </c>
-      <c r="E17" s="42">
+      <c r="E17" s="41">
         <v>1.0046571428571429E-2</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="3">
         <v>1.0606521184521855</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="2">
         <v>1060.6521184521855</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="2">
+      <c r="A18" s="1">
         <v>45855</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="43">
+      <c r="C18" s="42">
         <v>-1024.2099999999953</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <v>75000</v>
       </c>
-      <c r="E18" s="44">
+      <c r="E18" s="43">
         <v>-1.365613333333327E-2</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="3">
         <v>1.04616771170232</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="2">
         <v>1046.16771170232</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="2">
+      <c r="A19" s="1">
         <v>45856</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="45">
+      <c r="C19" s="44">
         <v>350</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="2">
         <v>75000</v>
       </c>
-      <c r="E19" s="46">
+      <c r="E19" s="45">
         <v>4.6666666666666671E-3</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="3">
         <v>1.0510498276902642</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="2">
         <v>1051.0498276902642</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="2">
+      <c r="A20" s="1">
         <v>45859</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="47">
+      <c r="C20" s="46">
         <v>1790</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="2">
         <v>75000</v>
       </c>
-      <c r="E20" s="48">
+      <c r="E20" s="47">
         <v>2.3866666666666668E-2</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="3">
         <v>1.0761348835778053</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="2">
         <v>1076.1348835778053</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="2">
+      <c r="A21" s="1">
         <v>45860</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="49">
+      <c r="C21" s="48">
         <v>749</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="2">
         <v>75000</v>
       </c>
-      <c r="E21" s="50">
+      <c r="E21" s="49">
         <v>9.9866666666666663E-3</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="3">
         <v>1.0868818839484689</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="2">
         <v>1086.8818839484688</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="2">
+      <c r="A22" s="1">
         <v>45861</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="51">
+      <c r="C22" s="50">
         <v>916</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="2">
         <v>75000</v>
       </c>
-      <c r="E22" s="52">
+      <c r="E22" s="51">
         <v>1.2213333333333333E-2</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="3">
         <v>1.100156334691093</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="2">
         <v>1100.156334691093</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="2">
+      <c r="A23" s="1">
         <v>45862</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="53">
+      <c r="C23" s="52">
         <v>535</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="2">
         <v>90000</v>
       </c>
-      <c r="E23" s="54">
+      <c r="E23" s="53">
         <v>5.944444444444444E-3</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="3">
         <v>1.1066961529028678</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="2">
         <v>1106.6961529028679</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="2">
+      <c r="A24" s="1">
         <v>45863</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="55">
+      <c r="C24" s="54">
         <v>-400</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="2">
         <v>90000</v>
       </c>
-      <c r="E24" s="56">
+      <c r="E24" s="55">
         <v>-4.4444444444444444E-3</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="3">
         <v>1.1017775033344106</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="2">
         <v>1101.7775033344105</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="2">
+      <c r="A25" s="1">
         <v>45866</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="57">
+      <c r="C25" s="56">
         <v>-1200</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="2">
         <v>90000</v>
       </c>
-      <c r="E25" s="58">
+      <c r="E25" s="57">
         <v>-1.3333333333333334E-2</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="3">
         <v>1.087087136623285</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25" s="2">
         <v>1087.087136623285</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="2">
+      <c r="A26" s="1">
         <v>45867</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="59">
+      <c r="C26" s="58">
         <v>-1130</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="2">
         <v>90000</v>
       </c>
-      <c r="E26" s="60">
+      <c r="E26" s="59">
         <v>-1.2555555555555556E-2</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="3">
         <v>1.0734381536856816</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="2">
         <v>1073.4381536856815</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="2">
+      <c r="A27" s="1">
         <v>45868</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="61">
+      <c r="C27" s="60">
         <v>-814</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="2">
         <v>90000</v>
       </c>
-      <c r="E27" s="62">
+      <c r="E27" s="61">
         <v>-9.0444444444444452E-3</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="3">
         <v>1.0637295019401245</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27" s="2">
         <v>1063.7295019401245</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="2">
+      <c r="A28" s="1">
         <v>45869</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="63">
+      <c r="C28" s="62">
         <v>402</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="2">
         <v>90000</v>
       </c>
-      <c r="E28" s="64">
+      <c r="E28" s="63">
         <v>4.4666666666666665E-3</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="3">
         <v>1.0684808270487904</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28" s="2">
         <v>1068.4808270487904</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="2">
+      <c r="A29" s="1">
         <v>45870</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="65">
+      <c r="C29" s="64">
         <v>-10</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="2">
         <v>90000</v>
       </c>
-      <c r="E29" s="66">
+      <c r="E29" s="65">
         <v>-1.1111111111111112E-4</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="3">
         <v>1.0683621069568963</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="2">
         <v>1068.3621069568962</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="2">
+      <c r="A30" s="1">
         <v>45873</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="67">
+      <c r="C30" s="66">
         <v>1807</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="2">
         <v>90000</v>
       </c>
-      <c r="E30" s="68">
+      <c r="E30" s="67">
         <v>2.0077777777777778E-2</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="3">
         <v>1.0898124439265753</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G30" s="2">
         <v>1089.8124439265753</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="2">
+      <c r="A31" s="1">
         <v>45874</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="69">
+      <c r="C31" s="68">
         <v>-995</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="2">
         <v>90000</v>
       </c>
-      <c r="E31" s="70">
+      <c r="E31" s="69">
         <v>-1.1055555555555556E-2</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="3">
         <v>1.0777639619076091</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G31" s="2">
         <v>1077.7639619076092</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="2">
+      <c r="A32" s="1">
         <v>45875</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="71">
+      <c r="C32" s="70">
         <v>-1100</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="2">
         <v>100000</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="5">
         <v>-1.0999999999999999E-2</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="3">
         <v>1.0659085583266255</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" s="2">
         <v>1065.9085583266256</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="2">
+      <c r="A33" s="1">
         <v>45876</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="72">
+      <c r="C33" s="71">
         <v>-1000</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="2">
         <v>100000</v>
       </c>
-      <c r="E33" s="73">
+      <c r="E33" s="72">
         <v>-0.01</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="3">
         <v>1.0552494727433592</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G33" s="2">
         <v>1055.2494727433593</v>
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="2">
+      <c r="A34" s="1">
         <v>45877</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="74">
+      <c r="C34" s="73">
         <v>640</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="2">
         <v>100000</v>
       </c>
-      <c r="E34" s="75">
+      <c r="E34" s="74">
         <v>6.4000000000000003E-3</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34" s="3">
         <v>1.0620030693689166</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G34" s="2">
         <v>1062.0030693689166</v>
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="2">
+      <c r="A35" s="1">
         <v>45880</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="71">
+      <c r="C35" s="70">
         <v>-1100</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="2">
         <v>100000</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35" s="5">
         <v>-1.0999999999999999E-2</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="3">
         <v>1.0503210356058585</v>
       </c>
-      <c r="G35" s="3">
+      <c r="G35" s="2">
         <v>1050.3210356058585</v>
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="2">
+      <c r="A36" s="1">
         <v>45881</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="76">
+      <c r="C36" s="75">
         <v>-700</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="2">
         <v>100000</v>
       </c>
-      <c r="E36" s="77">
+      <c r="E36" s="76">
         <v>-7.0000000000000001E-3</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36" s="3">
         <v>1.0429687883566174</v>
       </c>
-      <c r="G36" s="3">
+      <c r="G36" s="2">
         <v>1042.9687883566176</v>
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="2">
+      <c r="A37" s="1">
         <v>45882</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="78">
+      <c r="C37" s="77">
         <v>-1500</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="2">
         <v>100000</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E37" s="8">
         <v>-1.4999999999999999E-2</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F37" s="3">
         <v>1.0273242565312681</v>
       </c>
-      <c r="G37" s="3">
+      <c r="G37" s="2">
         <v>1027.324256531268</v>
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="2">
+      <c r="A38" s="1">
         <v>45883</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="79">
+      <c r="C38" s="78">
         <v>-70</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="2">
         <v>100000</v>
       </c>
-      <c r="E38" s="80">
+      <c r="E38" s="79">
         <v>-6.9999999999999999E-4</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F38" s="3">
         <v>1.0266051295516962</v>
       </c>
-      <c r="G38" s="3">
+      <c r="G38" s="2">
         <v>1026.6051295516963</v>
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="2">
+      <c r="A39" s="1">
         <v>45884</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="49">
+      <c r="C39" s="48">
         <v>750</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="2">
         <v>90000</v>
       </c>
-      <c r="E39" s="81">
+      <c r="E39" s="80">
         <v>8.3333333333333332E-3</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F39" s="3">
         <v>1.0351601722979604</v>
       </c>
-      <c r="G39" s="3">
+      <c r="G39" s="2">
         <v>1035.1601722979603</v>
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="2">
+      <c r="A40" s="1">
         <v>45887</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="82">
+      <c r="C40" s="81">
         <v>-924</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="2">
         <v>90000</v>
       </c>
-      <c r="E40" s="83">
+      <c r="E40" s="82">
         <v>-1.0266666666666667E-2</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F40" s="3">
         <v>1.024532527862368</v>
       </c>
-      <c r="G40" s="3">
+      <c r="G40" s="2">
         <v>1024.5325278623679</v>
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="2">
+      <c r="A41" s="1">
         <v>45888</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C41" s="84">
+      <c r="C41" s="83">
         <v>1020</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="2">
         <v>90000</v>
       </c>
-      <c r="E41" s="85">
+      <c r="E41" s="84">
         <v>1.1333333333333334E-2</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F41" s="3">
         <v>1.0361438965114749</v>
       </c>
-      <c r="G41" s="3">
+      <c r="G41" s="2">
         <v>1036.1438965114748</v>
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="2">
+      <c r="A42" s="1">
         <v>45889</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C42" s="86">
+      <c r="C42" s="85">
         <v>2000</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="2">
         <v>100000</v>
       </c>
-      <c r="E42" s="87">
+      <c r="E42" s="86">
         <v>0.02</v>
       </c>
-      <c r="F42" s="4">
+      <c r="F42" s="3">
         <v>1.0568667744417044</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G42" s="2">
         <v>1056.8667744417044</v>
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="2">
+      <c r="A43" s="1">
         <v>45890</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C43" s="88">
+      <c r="C43" s="87">
         <v>-1300</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="2">
         <v>100000</v>
       </c>
-      <c r="E43" s="89">
+      <c r="E43" s="88">
         <v>-1.2999999999999999E-2</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F43" s="3">
         <v>1.0431275063739622</v>
       </c>
-      <c r="G43" s="3">
+      <c r="G43" s="2">
         <v>1043.1275063739622</v>
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="2">
+      <c r="A44" s="1">
         <v>45891</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C44" s="90">
+      <c r="C44" s="89">
         <v>500</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="2">
         <v>100000</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E44" s="6">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F44" s="4">
+      <c r="F44" s="3">
         <v>1.0483431439058319</v>
       </c>
-      <c r="G44" s="3">
+      <c r="G44" s="2">
         <v>1048.343143905832</v>
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="2">
+      <c r="A45" s="1">
         <v>45894</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="88">
+      <c r="C45" s="87">
         <v>-1300</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="2">
         <v>100000</v>
       </c>
-      <c r="E45" s="89">
+      <c r="E45" s="88">
         <v>-1.2999999999999999E-2</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F45" s="3">
         <v>1.0347146830350562</v>
       </c>
-      <c r="G45" s="3">
+      <c r="G45" s="2">
         <v>1034.7146830350562</v>
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="2">
+      <c r="A46" s="1">
         <v>45897</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C46" s="72">
+      <c r="C46" s="71">
         <v>-1000</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="2">
         <v>100000</v>
       </c>
-      <c r="E46" s="73">
+      <c r="E46" s="72">
         <v>-0.01</v>
       </c>
-      <c r="F46" s="4">
+      <c r="F46" s="3">
         <v>1.0243675362047056</v>
       </c>
-      <c r="G46" s="3">
+      <c r="G46" s="2">
         <v>1024.3675362047056</v>
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="91">
+      <c r="A47" s="90">
         <v>45903</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="92">
+      <c r="C47" s="91">
         <v>-1174.93</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="2">
         <v>99000</v>
       </c>
-      <c r="E47" s="93">
+      <c r="E47" s="92">
         <v>-1.1867979797979799E-2</v>
       </c>
-      <c r="F47" s="4">
+      <c r="F47" s="3">
         <v>1.0122103629793218</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47" s="2">
         <v>1012.2103629793218</v>
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="91">
+      <c r="A48" s="90">
         <v>45904</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C48" s="94">
+      <c r="C48" s="93">
         <v>-863.3</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="2">
         <v>99000</v>
       </c>
-      <c r="E48" s="95">
+      <c r="E48" s="94">
         <v>-8.7202020202020204E-3</v>
       </c>
-      <c r="F48" s="4">
+      <c r="F48" s="3">
         <v>1.0033836841271999</v>
       </c>
-      <c r="G48" s="3">
+      <c r="G48" s="2">
         <v>1003.3836841271999</v>
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="91">
+      <c r="A49" s="90">
         <v>45908</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C49" s="96">
+      <c r="C49" s="95">
         <v>-654.66</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="2">
         <v>99000</v>
       </c>
-      <c r="E49" s="97">
+      <c r="E49" s="96">
         <v>-6.6127272727272727E-3</v>
       </c>
-      <c r="F49" s="4">
+      <c r="F49" s="3">
         <v>0.99674858147416234</v>
       </c>
-      <c r="G49" s="3">
+      <c r="G49" s="2">
         <v>996.74858147416239</v>
       </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="91">
+      <c r="A50" s="90">
         <v>45909</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C50" s="98">
+      <c r="C50" s="97">
         <v>-1240.75</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D50" s="2">
         <v>99000</v>
       </c>
-      <c r="E50" s="99">
+      <c r="E50" s="98">
         <v>-1.2532828282828283E-2</v>
       </c>
-      <c r="F50" s="4">
+      <c r="F50" s="3">
         <v>0.98425650266139397</v>
       </c>
-      <c r="G50" s="3">
+      <c r="G50" s="2">
         <v>984.25650266139394</v>
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="91">
+      <c r="A51" s="90">
         <v>45910</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C51" s="67">
+      <c r="C51" s="66">
         <v>1802.05</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D51" s="2">
         <v>99000</v>
       </c>
-      <c r="E51" s="100">
+      <c r="E51" s="99">
         <v>1.8202525252525251E-2</v>
       </c>
-      <c r="F51" s="4">
+      <c r="F51" s="3">
         <v>1.0021724565060501</v>
       </c>
-      <c r="G51" s="3">
+      <c r="G51" s="2">
         <v>1002.1724565060501</v>
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="91">
+      <c r="A52" s="90">
         <v>45911</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C52" s="101">
+      <c r="C52" s="100">
         <v>-1149.72</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="2">
         <v>99000</v>
       </c>
-      <c r="E52" s="102">
+      <c r="E52" s="101">
         <v>-1.1613333333333333E-2</v>
       </c>
-      <c r="F52" s="4">
+      <c r="F52" s="3">
         <v>0.99053389371115985</v>
       </c>
-      <c r="G52" s="3">
+      <c r="G52" s="2">
         <v>990.53389371115986</v>
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="91">
+      <c r="A53" s="90">
         <v>45922</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C53" s="103">
+      <c r="C53" s="102">
         <v>827.3</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D53" s="2">
         <v>99000</v>
       </c>
-      <c r="E53" s="81">
+      <c r="E53" s="80">
         <v>8.3565656565656558E-3</v>
       </c>
-      <c r="F53" s="4">
+      <c r="F53" s="3">
         <v>0.99881135522901077</v>
       </c>
-      <c r="G53" s="3">
+      <c r="G53" s="2">
         <v>998.81135522901081</v>
       </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="91">
+      <c r="A54" s="90">
         <v>45924</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C54" s="104">
+      <c r="C54" s="103">
         <v>1686.1599999999901</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54" s="2">
         <v>99000</v>
       </c>
-      <c r="E54" s="105">
+      <c r="E54" s="104">
         <v>1.7031919191919091E-2</v>
       </c>
-      <c r="F54" s="4">
+      <c r="F54" s="3">
         <v>1.0158230295192425</v>
       </c>
-      <c r="G54" s="3">
+      <c r="G54" s="2">
         <v>1015.8230295192425</v>
       </c>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="91">
+      <c r="A55" s="90">
         <v>45925</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C55" s="106">
+      <c r="C55" s="105">
         <v>-741.37</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D55" s="2">
         <v>99000</v>
       </c>
-      <c r="E55" s="107">
+      <c r="E55" s="106">
         <v>-7.4885858585858585E-3</v>
       </c>
-      <c r="F55" s="4">
+      <c r="F55" s="3">
         <v>1.0082159515455589</v>
       </c>
-      <c r="G55" s="3">
+      <c r="G55" s="2">
         <v>1008.2159515455588</v>
       </c>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="91">
+      <c r="A56" s="90">
         <v>45929</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C56" s="108">
+      <c r="C56" s="107">
         <v>2081.65</v>
       </c>
-      <c r="D56" s="3">
+      <c r="D56" s="2">
         <v>99000</v>
       </c>
-      <c r="E56" s="109">
+      <c r="E56" s="108">
         <v>2.1026767676767678E-2</v>
       </c>
-      <c r="F56" s="4">
+      <c r="F56" s="3">
         <v>1.0294154741267185</v>
       </c>
-      <c r="G56" s="3">
+      <c r="G56" s="2">
         <v>1029.4154741267184</v>
       </c>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="2">
+      <c r="A57" s="1">
         <v>45930</v>
       </c>
-      <c r="B57" s="110" t="s">
+      <c r="B57" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="C57" s="111">
+      <c r="C57" s="110">
         <v>-729</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="2">
         <v>99000</v>
       </c>
-      <c r="E57" s="112">
+      <c r="E57" s="111">
         <v>-7.3636363636363639E-3</v>
       </c>
-      <c r="F57" s="4">
+      <c r="F57" s="3">
         <v>1.021835232908149</v>
       </c>
-      <c r="G57" s="3">
+      <c r="G57" s="2">
         <v>1021.835232908149</v>
       </c>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="2">
+      <c r="A58" s="1">
         <v>45931</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C58" s="113">
+      <c r="C58" s="112">
         <v>-1123</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="2">
         <v>99000</v>
       </c>
-      <c r="E58" s="114">
+      <c r="E58" s="113">
         <v>-1.1343434343434343E-2</v>
       </c>
-      <c r="F58" s="4">
+      <c r="F58" s="3">
         <v>1.0102441120338475</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G58" s="2">
         <v>1010.2441120338475</v>
       </c>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="2">
+      <c r="A59" s="1">
         <v>45938</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C59" s="115">
+      <c r="C59" s="114">
         <v>1975</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="2">
         <v>74948</v>
       </c>
-      <c r="E59" s="8">
+      <c r="E59" s="7">
         <v>2.6351603778619843E-2</v>
       </c>
-      <c r="F59" s="4">
+      <c r="F59" s="3">
         <v>1.036865664593847</v>
       </c>
-      <c r="G59" s="3">
+      <c r="G59" s="2">
         <v>1036.865664593847</v>
       </c>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="2">
+      <c r="A60" s="1">
         <v>45939</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C60" s="116">
+      <c r="C60" s="115">
         <v>995</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60" s="2">
         <v>74948</v>
       </c>
-      <c r="E60" s="117">
+      <c r="E60" s="116">
         <v>1.3275871270747719E-2</v>
       </c>
-      <c r="F60" s="4">
+      <c r="F60" s="3">
         <v>1.0506309596820531</v>
       </c>
-      <c r="G60" s="3">
+      <c r="G60" s="2">
         <v>1050.6309596820531</v>
       </c>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="10">
+      <c r="A61" s="9">
         <v>45944</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C61" s="36">
+      <c r="C61" s="35">
         <v>-940</v>
       </c>
-      <c r="D61" s="3">
+      <c r="D61" s="2">
         <v>75000</v>
       </c>
-      <c r="E61" s="99">
+      <c r="E61" s="98">
         <v>-1.2533333333333334E-2</v>
       </c>
-      <c r="F61" s="4">
+      <c r="F61" s="3">
         <v>1.0374630516540382</v>
       </c>
-      <c r="G61" s="3">
+      <c r="G61" s="2">
         <v>1037.4630516540383</v>
       </c>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="10">
+      <c r="A62" s="9">
         <v>45946</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C62" s="3">
+      <c r="C62" s="2">
         <v>-918</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62" s="2">
         <v>75000</v>
       </c>
-      <c r="E62" s="118">
+      <c r="E62" s="117">
         <v>-1.2239999999999999E-2</v>
       </c>
-      <c r="F62" s="4">
+      <c r="F62" s="3">
         <v>1.0247645039017927</v>
       </c>
-      <c r="G62" s="3">
+      <c r="G62" s="2">
         <v>1024.7645039017928</v>
       </c>
     </row>
@@ -3906,22 +3952,22 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="120" t="s">
+      <c r="B1" s="119" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="120" t="s">
+      <c r="C1" s="119" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="120" t="s">
+      <c r="D1" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="120" t="s">
+      <c r="E1" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="120" t="s">
+      <c r="F1" s="119" t="s">
         <v>19</v>
       </c>
     </row>

--- a/main/streamlit_performances.xlsx
+++ b/main/streamlit_performances.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacopobinati/Desktop/GalambosC/other_projects/main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E628293C-8B25-8F47-8CB8-E33A8B99193A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCFE254-5F65-9E49-A532-7D874C902E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="29400" windowHeight="18460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="29400" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="USEquity500" sheetId="1" r:id="rId1"/>
@@ -1274,7 +1274,7 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>

--- a/main/streamlit_performances.xlsx
+++ b/main/streamlit_performances.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacopobinati/Desktop/GalambosC/other_projects/main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCFE254-5F65-9E49-A532-7D874C902E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71136CD-7AD5-D248-85DB-1330D5BD00A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="29400" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="21">
   <si>
     <t>date</t>
   </si>
@@ -96,13 +96,17 @@
   <si>
     <t>weight_portfolio</t>
   </si>
+  <si>
+    <t>q</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="d/m/yy"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -804,7 +808,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1049,8 +1053,10 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1273,14 +1279,21 @@
   </sheetPr>
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" style="123"/>
+    <col min="2" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="122" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="120" t="s">
@@ -1315,23 +1328,23 @@
       <c r="A2" s="121">
         <v>45910</v>
       </c>
-      <c r="B2" s="122">
+      <c r="B2" s="124">
         <v>100000</v>
       </c>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122">
+      <c r="C2" s="124"/>
+      <c r="D2" s="124">
         <v>0</v>
       </c>
-      <c r="E2" s="123">
+      <c r="E2" s="125">
         <v>0</v>
       </c>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="123">
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="125">
         <v>1</v>
       </c>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122">
+      <c r="I2" s="124"/>
+      <c r="J2" s="124">
         <v>10000</v>
       </c>
     </row>
@@ -1339,31 +1352,31 @@
       <c r="A3" s="121">
         <v>45911</v>
       </c>
-      <c r="B3" s="122">
+      <c r="B3" s="124">
         <v>100000</v>
       </c>
-      <c r="C3" s="122">
+      <c r="C3" s="124">
         <v>29243</v>
       </c>
-      <c r="D3" s="122">
+      <c r="D3" s="124">
         <v>679</v>
       </c>
-      <c r="E3" s="122">
+      <c r="E3" s="124">
         <v>6.79E-3</v>
       </c>
-      <c r="F3" s="122">
+      <c r="F3" s="124">
         <v>2.3219231952946003E-2</v>
       </c>
-      <c r="G3" s="122">
+      <c r="G3" s="124">
         <v>0.29243000000000002</v>
       </c>
-      <c r="H3" s="122">
+      <c r="H3" s="124">
         <v>1.0067900000000001</v>
       </c>
-      <c r="I3" s="122" t="s">
+      <c r="I3" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="122">
+      <c r="J3" s="124">
         <v>10067.900000000001</v>
       </c>
     </row>
@@ -1371,31 +1384,31 @@
       <c r="A4" s="121">
         <v>45912</v>
       </c>
-      <c r="B4" s="122">
+      <c r="B4" s="124">
         <v>100000</v>
       </c>
-      <c r="C4" s="122">
+      <c r="C4" s="124">
         <v>109438</v>
       </c>
-      <c r="D4" s="122">
+      <c r="D4" s="124">
         <v>256</v>
       </c>
-      <c r="E4" s="122">
+      <c r="E4" s="124">
         <v>2.5600000000000002E-3</v>
       </c>
-      <c r="F4" s="122">
+      <c r="F4" s="124">
         <v>2.339224035526965E-3</v>
       </c>
-      <c r="G4" s="122">
+      <c r="G4" s="124">
         <v>1.0943799999999999</v>
       </c>
-      <c r="H4" s="122">
+      <c r="H4" s="124">
         <v>1.0093673824</v>
       </c>
-      <c r="I4" s="122" t="s">
+      <c r="I4" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="122">
+      <c r="J4" s="124">
         <v>10093.673824</v>
       </c>
     </row>
@@ -1403,31 +1416,31 @@
       <c r="A5" s="121">
         <v>45915</v>
       </c>
-      <c r="B5" s="122">
+      <c r="B5" s="124">
         <v>125000</v>
       </c>
-      <c r="C5" s="122">
+      <c r="C5" s="124">
         <v>167749</v>
       </c>
-      <c r="D5" s="122">
+      <c r="D5" s="124">
         <v>406</v>
       </c>
-      <c r="E5" s="122">
+      <c r="E5" s="124">
         <v>3.248E-3</v>
       </c>
-      <c r="F5" s="122">
+      <c r="F5" s="124">
         <v>2.4202826842484905E-3</v>
       </c>
-      <c r="G5" s="122">
+      <c r="G5" s="124">
         <v>1.3419920000000001</v>
       </c>
-      <c r="H5" s="122">
+      <c r="H5" s="124">
         <v>1.0126458076580351</v>
       </c>
-      <c r="I5" s="122" t="s">
+      <c r="I5" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="122">
+      <c r="J5" s="124">
         <v>10126.458076580351</v>
       </c>
     </row>
@@ -1435,31 +1448,31 @@
       <c r="A6" s="121">
         <v>45916</v>
       </c>
-      <c r="B6" s="122">
+      <c r="B6" s="124">
         <v>150000</v>
       </c>
-      <c r="C6" s="122">
+      <c r="C6" s="124">
         <v>233052</v>
       </c>
-      <c r="D6" s="122">
+      <c r="D6" s="124">
         <v>-2922</v>
       </c>
-      <c r="E6" s="122">
+      <c r="E6" s="124">
         <v>-1.9480000000000001E-2</v>
       </c>
-      <c r="F6" s="122">
+      <c r="F6" s="124">
         <v>-1.2537974357654086E-2</v>
       </c>
-      <c r="G6" s="122">
+      <c r="G6" s="124">
         <v>1.5536799999999999</v>
       </c>
-      <c r="H6" s="122">
+      <c r="H6" s="124">
         <v>0.99291946732485659</v>
       </c>
-      <c r="I6" s="122" t="s">
+      <c r="I6" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="122">
+      <c r="J6" s="124">
         <v>9929.1946732485667</v>
       </c>
     </row>
@@ -1467,31 +1480,31 @@
       <c r="A7" s="121">
         <v>45917</v>
       </c>
-      <c r="B7" s="122">
+      <c r="B7" s="124">
         <v>50000</v>
       </c>
-      <c r="C7" s="122">
+      <c r="C7" s="124">
         <v>91261</v>
       </c>
-      <c r="D7" s="122">
+      <c r="D7" s="124">
         <v>-400</v>
       </c>
-      <c r="E7" s="122">
+      <c r="E7" s="124">
         <v>-8.0000000000000002E-3</v>
       </c>
-      <c r="F7" s="122">
+      <c r="F7" s="124">
         <v>-4.3830332781801644E-3</v>
       </c>
-      <c r="G7" s="122">
+      <c r="G7" s="124">
         <v>1.8252200000000001</v>
       </c>
-      <c r="H7" s="122">
+      <c r="H7" s="124">
         <v>0.98497611158625775</v>
       </c>
-      <c r="I7" s="122" t="s">
+      <c r="I7" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="122">
+      <c r="J7" s="124">
         <v>9849.7611158625768</v>
       </c>
     </row>
@@ -1499,31 +1512,31 @@
       <c r="A8" s="121">
         <v>45918</v>
       </c>
-      <c r="B8" s="122">
+      <c r="B8" s="124">
         <v>50000</v>
       </c>
-      <c r="C8" s="122">
+      <c r="C8" s="124">
         <v>78685</v>
       </c>
-      <c r="D8" s="122">
+      <c r="D8" s="124">
         <v>202.54</v>
       </c>
-      <c r="E8" s="122">
+      <c r="E8" s="124">
         <v>4.0508000000000002E-3</v>
       </c>
-      <c r="F8" s="122">
+      <c r="F8" s="124">
         <v>2.5740611298214399E-3</v>
       </c>
-      <c r="G8" s="122">
+      <c r="G8" s="124">
         <v>1.5737000000000001</v>
       </c>
-      <c r="H8" s="122">
+      <c r="H8" s="124">
         <v>0.98896605281907124</v>
       </c>
-      <c r="I8" s="122" t="s">
+      <c r="I8" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="122">
+      <c r="J8" s="124">
         <v>9889.6605281907123</v>
       </c>
     </row>
@@ -1531,31 +1544,31 @@
       <c r="A9" s="121">
         <v>45919</v>
       </c>
-      <c r="B9" s="122">
+      <c r="B9" s="124">
         <v>75000</v>
       </c>
-      <c r="C9" s="122">
+      <c r="C9" s="124">
         <v>154553</v>
       </c>
-      <c r="D9" s="122">
+      <c r="D9" s="124">
         <v>-998.9</v>
       </c>
-      <c r="E9" s="122">
+      <c r="E9" s="124">
         <v>-1.3318666666666666E-2</v>
       </c>
-      <c r="F9" s="122">
+      <c r="F9" s="124">
         <v>-6.4631550341953895E-3</v>
       </c>
-      <c r="G9" s="122">
+      <c r="G9" s="124">
         <v>2.0607066666666665</v>
       </c>
-      <c r="H9" s="122">
+      <c r="H9" s="124">
         <v>0.97579434361692496</v>
       </c>
-      <c r="I9" s="122" t="s">
+      <c r="I9" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="122">
+      <c r="J9" s="124">
         <v>9757.9434361692493</v>
       </c>
     </row>
@@ -1563,31 +1576,31 @@
       <c r="A10" s="121">
         <v>45922</v>
       </c>
-      <c r="B10" s="122">
+      <c r="B10" s="124">
         <v>50000</v>
       </c>
-      <c r="C10" s="122">
+      <c r="C10" s="124">
         <v>67497</v>
       </c>
-      <c r="D10" s="122">
+      <c r="D10" s="124">
         <v>-439</v>
       </c>
-      <c r="E10" s="122">
+      <c r="E10" s="124">
         <v>-8.7799999999999996E-3</v>
       </c>
-      <c r="F10" s="122">
+      <c r="F10" s="124">
         <v>-6.5039927700490394E-3</v>
       </c>
-      <c r="G10" s="122">
+      <c r="G10" s="124">
         <v>1.3499399999999999</v>
       </c>
-      <c r="H10" s="122">
+      <c r="H10" s="124">
         <v>0.96722686927996837</v>
       </c>
-      <c r="I10" s="122" t="s">
+      <c r="I10" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="J10" s="122">
+      <c r="J10" s="124">
         <v>9672.2686927996838</v>
       </c>
     </row>
@@ -1595,31 +1608,31 @@
       <c r="A11" s="121">
         <v>45923</v>
       </c>
-      <c r="B11" s="122">
+      <c r="B11" s="124">
         <v>75000</v>
       </c>
-      <c r="C11" s="122">
+      <c r="C11" s="124">
         <v>139069</v>
       </c>
-      <c r="D11" s="122">
+      <c r="D11" s="124">
         <v>962</v>
       </c>
-      <c r="E11" s="122">
+      <c r="E11" s="124">
         <v>1.2826666666666667E-2</v>
       </c>
-      <c r="F11" s="122">
+      <c r="F11" s="124">
         <v>6.9174294774536384E-3</v>
       </c>
-      <c r="G11" s="122">
+      <c r="G11" s="124">
         <v>1.8542533333333333</v>
       </c>
-      <c r="H11" s="122">
+      <c r="H11" s="124">
         <v>0.97963316592326621</v>
       </c>
-      <c r="I11" s="122" t="s">
+      <c r="I11" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="J11" s="122">
+      <c r="J11" s="124">
         <v>9796.3316592326628</v>
       </c>
     </row>
@@ -1627,31 +1640,31 @@
       <c r="A12" s="121">
         <v>45924</v>
       </c>
-      <c r="B12" s="122">
+      <c r="B12" s="124">
         <v>101202</v>
       </c>
-      <c r="C12" s="122">
+      <c r="C12" s="124">
         <v>162152</v>
       </c>
-      <c r="D12" s="122">
+      <c r="D12" s="124">
         <v>4339</v>
       </c>
-      <c r="E12" s="122">
+      <c r="E12" s="124">
         <v>4.2874646746111737E-2</v>
       </c>
-      <c r="F12" s="122">
+      <c r="F12" s="124">
         <v>2.6758843554196061E-2</v>
       </c>
-      <c r="G12" s="122">
+      <c r="G12" s="124">
         <v>1.6022608248848837</v>
       </c>
-      <c r="H12" s="122">
+      <c r="H12" s="124">
         <v>1.0216345918530012</v>
       </c>
-      <c r="I12" s="122" t="s">
+      <c r="I12" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="J12" s="122">
+      <c r="J12" s="124">
         <v>10216.345918530013</v>
       </c>
     </row>
@@ -1659,31 +1672,31 @@
       <c r="A13" s="121">
         <v>45925</v>
       </c>
-      <c r="B13" s="122">
+      <c r="B13" s="124">
         <v>125000</v>
       </c>
-      <c r="C13" s="122">
+      <c r="C13" s="124">
         <v>155563</v>
       </c>
-      <c r="D13" s="122">
+      <c r="D13" s="124">
         <v>297</v>
       </c>
-      <c r="E13" s="122">
+      <c r="E13" s="124">
         <v>2.3760000000000001E-3</v>
       </c>
-      <c r="F13" s="122">
+      <c r="F13" s="124">
         <v>1.9091943456991702E-3</v>
       </c>
-      <c r="G13" s="122">
+      <c r="G13" s="124">
         <v>1.2445040000000001</v>
       </c>
-      <c r="H13" s="122">
+      <c r="H13" s="124">
         <v>1.024061995643244</v>
       </c>
-      <c r="I13" s="122" t="s">
+      <c r="I13" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="J13" s="122">
+      <c r="J13" s="124">
         <v>10240.61995643244</v>
       </c>
     </row>
@@ -1691,31 +1704,31 @@
       <c r="A14" s="121">
         <v>45926</v>
       </c>
-      <c r="B14" s="122">
+      <c r="B14" s="124">
         <v>150000</v>
       </c>
-      <c r="C14" s="122">
+      <c r="C14" s="124">
         <v>200891</v>
       </c>
-      <c r="D14" s="122">
+      <c r="D14" s="124">
         <v>-2695</v>
       </c>
-      <c r="E14" s="122">
+      <c r="E14" s="124">
         <v>-1.7966666666666666E-2</v>
       </c>
-      <c r="F14" s="122">
+      <c r="F14" s="124">
         <v>-1.3415235127506956E-2</v>
       </c>
-      <c r="G14" s="122">
+      <c r="G14" s="124">
         <v>1.3392733333333333</v>
       </c>
-      <c r="H14" s="122">
+      <c r="H14" s="124">
         <v>1.0056630151215202</v>
       </c>
-      <c r="I14" s="122" t="s">
+      <c r="I14" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="J14" s="122">
+      <c r="J14" s="124">
         <v>10056.630151215202</v>
       </c>
     </row>
@@ -1723,31 +1736,31 @@
       <c r="A15" s="121">
         <v>45929</v>
       </c>
-      <c r="B15" s="122">
+      <c r="B15" s="124">
         <v>100000</v>
       </c>
-      <c r="C15" s="122">
+      <c r="C15" s="124">
         <v>60122</v>
       </c>
-      <c r="D15" s="122">
+      <c r="D15" s="124">
         <v>74</v>
       </c>
-      <c r="E15" s="122">
+      <c r="E15" s="124">
         <v>7.3999999999999999E-4</v>
       </c>
-      <c r="F15" s="122">
+      <c r="F15" s="124">
         <v>1.2308306443564751E-3</v>
       </c>
-      <c r="G15" s="122">
+      <c r="G15" s="124">
         <v>0.60121999999999998</v>
       </c>
-      <c r="H15" s="122">
+      <c r="H15" s="124">
         <v>1.00640720575271</v>
       </c>
-      <c r="I15" s="122" t="s">
+      <c r="I15" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="J15" s="122">
+      <c r="J15" s="124">
         <v>10064.072057527101</v>
       </c>
     </row>
@@ -1755,31 +1768,31 @@
       <c r="A16" s="121">
         <v>45930</v>
       </c>
-      <c r="B16" s="122">
+      <c r="B16" s="124">
         <v>100074</v>
       </c>
-      <c r="C16" s="122">
+      <c r="C16" s="124">
         <v>110686</v>
       </c>
-      <c r="D16" s="122">
+      <c r="D16" s="124">
         <v>-1062</v>
       </c>
-      <c r="E16" s="122">
+      <c r="E16" s="124">
         <v>-1.0612147011211704E-2</v>
       </c>
-      <c r="F16" s="122">
+      <c r="F16" s="124">
         <v>-9.594709358003722E-3</v>
       </c>
-      <c r="G16" s="122">
+      <c r="G16" s="124">
         <v>1.1060415292683414</v>
       </c>
-      <c r="H16" s="122">
+      <c r="H16" s="124">
         <v>0.99572706453211945</v>
       </c>
-      <c r="I16" s="122" t="s">
+      <c r="I16" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="J16" s="122">
+      <c r="J16" s="124">
         <v>9957.270645321194</v>
       </c>
     </row>
@@ -1787,31 +1800,31 @@
       <c r="A17" s="121">
         <v>45931</v>
       </c>
-      <c r="B17" s="122">
+      <c r="B17" s="124">
         <v>99012</v>
       </c>
-      <c r="C17" s="122">
+      <c r="C17" s="124">
         <v>79780</v>
       </c>
-      <c r="D17" s="122">
+      <c r="D17" s="124">
         <v>2218</v>
       </c>
-      <c r="E17" s="122">
+      <c r="E17" s="124">
         <v>2.240132509190805E-2</v>
       </c>
-      <c r="F17" s="122">
+      <c r="F17" s="124">
         <v>2.7801453998495863E-2</v>
       </c>
-      <c r="G17" s="122">
+      <c r="G17" s="124">
         <v>0.8057609178685412</v>
       </c>
-      <c r="H17" s="122">
+      <c r="H17" s="124">
         <v>1.0180326702075146</v>
       </c>
-      <c r="I17" s="122" t="s">
+      <c r="I17" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="J17" s="122">
+      <c r="J17" s="124">
         <v>10180.326702075146</v>
       </c>
     </row>
@@ -1819,31 +1832,31 @@
       <c r="A18" s="121">
         <v>45932</v>
       </c>
-      <c r="B18" s="122">
+      <c r="B18" s="124">
         <v>101230</v>
       </c>
-      <c r="C18" s="122">
+      <c r="C18" s="124">
         <v>161182</v>
       </c>
-      <c r="D18" s="122">
+      <c r="D18" s="124">
         <v>1515</v>
       </c>
-      <c r="E18" s="122">
+      <c r="E18" s="124">
         <v>1.4965919193914847E-2</v>
       </c>
-      <c r="F18" s="122">
+      <c r="F18" s="124">
         <v>9.3993125783276045E-3</v>
       </c>
-      <c r="G18" s="122">
+      <c r="G18" s="124">
         <v>1.5922355033092956</v>
       </c>
-      <c r="H18" s="122">
+      <c r="H18" s="124">
         <v>1.0332684648866057</v>
       </c>
-      <c r="I18" s="122" t="s">
+      <c r="I18" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="J18" s="122">
+      <c r="J18" s="124">
         <v>10332.684648866058</v>
       </c>
     </row>
@@ -1851,31 +1864,31 @@
       <c r="A19" s="121">
         <v>45933</v>
       </c>
-      <c r="B19" s="122">
+      <c r="B19" s="124">
         <v>102745</v>
       </c>
-      <c r="C19" s="122">
+      <c r="C19" s="124">
         <v>62217.760000000002</v>
       </c>
-      <c r="D19" s="122">
+      <c r="D19" s="124">
         <v>-60</v>
       </c>
-      <c r="E19" s="122">
+      <c r="E19" s="124">
         <v>-5.839700228721592E-4</v>
       </c>
-      <c r="F19" s="122">
+      <c r="F19" s="124">
         <v>-9.643548723065568E-4</v>
       </c>
-      <c r="G19" s="122">
+      <c r="G19" s="124">
         <v>0.60555511217090863</v>
       </c>
-      <c r="H19" s="122">
+      <c r="H19" s="124">
         <v>1.0326650670775328</v>
       </c>
-      <c r="I19" s="122" t="s">
+      <c r="I19" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="J19" s="122">
+      <c r="J19" s="124">
         <v>10326.650670775329</v>
       </c>
     </row>
@@ -1883,31 +1896,31 @@
       <c r="A20" s="121">
         <v>45936</v>
       </c>
-      <c r="B20" s="122">
+      <c r="B20" s="124">
         <v>102685</v>
       </c>
-      <c r="C20" s="122">
+      <c r="C20" s="124">
         <v>132025</v>
       </c>
-      <c r="D20" s="122">
+      <c r="D20" s="124">
         <v>1120</v>
       </c>
-      <c r="E20" s="122">
+      <c r="E20" s="124">
         <v>1.0907143204947168E-2</v>
       </c>
-      <c r="F20" s="122">
+      <c r="F20" s="124">
         <v>8.483241810263208E-3</v>
       </c>
-      <c r="G20" s="122">
+      <c r="G20" s="124">
         <v>1.285728197886741</v>
       </c>
-      <c r="H20" s="122">
+      <c r="H20" s="124">
         <v>1.0439284928468939</v>
       </c>
-      <c r="I20" s="122" t="s">
+      <c r="I20" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="J20" s="122">
+      <c r="J20" s="124">
         <v>10439.28492846894</v>
       </c>
     </row>
@@ -1915,31 +1928,31 @@
       <c r="A21" s="121">
         <v>45937</v>
       </c>
-      <c r="B21" s="122">
+      <c r="B21" s="124">
         <v>103805</v>
       </c>
-      <c r="C21" s="122">
+      <c r="C21" s="124">
         <v>131877</v>
       </c>
-      <c r="D21" s="122">
+      <c r="D21" s="124">
         <v>-2157</v>
       </c>
-      <c r="E21" s="122">
+      <c r="E21" s="124">
         <v>-2.0779345888926354E-2</v>
       </c>
-      <c r="F21" s="122">
+      <c r="F21" s="124">
         <v>-1.635615004890921E-2</v>
       </c>
-      <c r="G21" s="122">
+      <c r="G21" s="124">
         <v>1.2704301334232455</v>
       </c>
-      <c r="H21" s="122">
+      <c r="H21" s="124">
         <v>1.0222363416107227</v>
       </c>
-      <c r="I21" s="122" t="s">
+      <c r="I21" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="J21" s="122">
+      <c r="J21" s="124">
         <v>10222.363416107228</v>
       </c>
     </row>
@@ -1947,31 +1960,31 @@
       <c r="A22" s="121">
         <v>45938</v>
       </c>
-      <c r="B22" s="122">
+      <c r="B22" s="124">
         <v>100000</v>
       </c>
-      <c r="C22" s="122">
+      <c r="C22" s="124">
         <v>105221</v>
       </c>
-      <c r="D22" s="122">
+      <c r="D22" s="124">
         <v>1166</v>
       </c>
-      <c r="E22" s="122">
+      <c r="E22" s="124">
         <v>1.166E-2</v>
       </c>
-      <c r="F22" s="122">
+      <c r="F22" s="124">
         <v>1.1081438115965445E-2</v>
       </c>
-      <c r="G22" s="122">
+      <c r="G22" s="124">
         <v>1.0522100000000001</v>
       </c>
-      <c r="H22" s="122">
+      <c r="H22" s="124">
         <v>1.0341556173539037</v>
       </c>
-      <c r="I22" s="122" t="s">
+      <c r="I22" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="J22" s="122">
+      <c r="J22" s="124">
         <v>10341.556173539037</v>
       </c>
     </row>
@@ -1979,31 +1992,31 @@
       <c r="A23" s="121">
         <v>45939</v>
       </c>
-      <c r="B23" s="122">
+      <c r="B23" s="124">
         <v>150000</v>
       </c>
-      <c r="C23" s="122">
+      <c r="C23" s="124">
         <v>179849</v>
       </c>
-      <c r="D23" s="122">
+      <c r="D23" s="124">
         <v>1535</v>
       </c>
-      <c r="E23" s="122">
+      <c r="E23" s="124">
         <v>1.0233333333333334E-2</v>
       </c>
-      <c r="F23" s="122">
+      <c r="F23" s="124">
         <v>8.5349376421331221E-3</v>
       </c>
-      <c r="G23" s="122">
+      <c r="G23" s="124">
         <v>1.1989933333333334</v>
       </c>
-      <c r="H23" s="122">
+      <c r="H23" s="124">
         <v>1.0447384765048253</v>
       </c>
-      <c r="I23" s="122" t="s">
+      <c r="I23" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="J23" s="122">
+      <c r="J23" s="124">
         <v>10447.384765048253</v>
       </c>
     </row>
@@ -2011,31 +2024,31 @@
       <c r="A24" s="121">
         <v>45940</v>
       </c>
-      <c r="B24" s="122">
+      <c r="B24" s="124">
         <v>75000</v>
       </c>
-      <c r="C24" s="122">
+      <c r="C24" s="124">
         <v>45230.059090000002</v>
       </c>
-      <c r="D24" s="122">
+      <c r="D24" s="124">
         <v>339</v>
       </c>
-      <c r="E24" s="122">
+      <c r="E24" s="124">
         <v>4.5199999999999997E-3</v>
       </c>
-      <c r="F24" s="122">
+      <c r="F24" s="124">
         <v>7.4950156338608482E-3</v>
       </c>
-      <c r="G24" s="122">
+      <c r="G24" s="124">
         <v>0.60306745453333332</v>
       </c>
-      <c r="H24" s="122">
+      <c r="H24" s="124">
         <v>1.0494606944186271</v>
       </c>
-      <c r="I24" s="122" t="s">
+      <c r="I24" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="J24" s="122">
+      <c r="J24" s="124">
         <v>10494.606944186271</v>
       </c>
     </row>
@@ -2043,31 +2056,31 @@
       <c r="A25" s="121">
         <v>45943</v>
       </c>
-      <c r="B25" s="122">
+      <c r="B25" s="124">
         <v>150000</v>
       </c>
-      <c r="C25" s="122">
+      <c r="C25" s="124">
         <v>80315.59</v>
       </c>
-      <c r="D25" s="122">
-        <v>-329.42</v>
-      </c>
-      <c r="E25" s="122">
+      <c r="D25" s="124" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="124">
         <v>-2.1961333333333334E-3</v>
       </c>
-      <c r="F25" s="122">
+      <c r="F25" s="124">
         <v>-4.1015698197572857E-3</v>
       </c>
-      <c r="G25" s="122">
+      <c r="G25" s="124">
         <v>0.53543726666666669</v>
       </c>
-      <c r="H25" s="122">
+      <c r="H25" s="124">
         <v>1.0471559388055911</v>
       </c>
-      <c r="I25" s="122" t="s">
+      <c r="I25" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="J25" s="122">
+      <c r="J25" s="124">
         <v>10471.559388055912</v>
       </c>
     </row>
@@ -2075,31 +2088,31 @@
       <c r="A26" s="121">
         <v>45944</v>
       </c>
-      <c r="B26" s="122">
+      <c r="B26" s="124">
         <v>200000</v>
       </c>
-      <c r="C26" s="122">
+      <c r="C26" s="124">
         <v>258812</v>
       </c>
-      <c r="D26" s="122">
+      <c r="D26" s="124">
         <v>-737</v>
       </c>
-      <c r="E26" s="122">
+      <c r="E26" s="124">
         <v>-3.6849999999999999E-3</v>
       </c>
-      <c r="F26" s="122">
+      <c r="F26" s="124">
         <v>-2.8476268488323571E-3</v>
       </c>
-      <c r="G26" s="122">
+      <c r="G26" s="124">
         <v>1.29406</v>
       </c>
-      <c r="H26" s="122">
+      <c r="H26" s="124">
         <v>1.0432971691710924</v>
       </c>
-      <c r="I26" s="122" t="s">
+      <c r="I26" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="J26" s="122">
+      <c r="J26" s="124">
         <v>10432.971691710924</v>
       </c>
     </row>
@@ -2107,31 +2120,31 @@
       <c r="A27" s="121">
         <v>45945</v>
       </c>
-      <c r="B27" s="122">
+      <c r="B27" s="124">
         <v>225113</v>
       </c>
-      <c r="C27" s="122">
+      <c r="C27" s="124">
         <v>158445</v>
       </c>
-      <c r="D27" s="122">
+      <c r="D27" s="124">
         <v>-546</v>
       </c>
-      <c r="E27" s="122">
+      <c r="E27" s="124">
         <v>-2.4254485525047422E-3</v>
       </c>
-      <c r="F27" s="122">
+      <c r="F27" s="124">
         <v>-3.4459907223326706E-3</v>
       </c>
-      <c r="G27" s="122">
+      <c r="G27" s="124">
         <v>0.70384651264031839</v>
       </c>
-      <c r="H27" s="122">
+      <c r="H27" s="124">
         <v>1.040766705562294</v>
       </c>
-      <c r="I27" s="122" t="s">
+      <c r="I27" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="J27" s="122">
+      <c r="J27" s="124">
         <v>10407.66705562294</v>
       </c>
     </row>
@@ -2139,31 +2152,31 @@
       <c r="A28" s="121">
         <v>45946</v>
       </c>
-      <c r="B28" s="122">
+      <c r="B28" s="124">
         <v>222901</v>
       </c>
-      <c r="C28" s="122">
+      <c r="C28" s="124">
         <v>148578</v>
       </c>
-      <c r="D28" s="122">
+      <c r="D28" s="124">
         <v>-3098</v>
       </c>
-      <c r="E28" s="122">
+      <c r="E28" s="124">
         <v>-1.3898546888528988E-2</v>
       </c>
-      <c r="F28" s="122">
+      <c r="F28" s="124">
         <v>-2.0851000821117526E-2</v>
       </c>
-      <c r="G28" s="122">
+      <c r="G28" s="124">
         <v>0.66656497727690767</v>
       </c>
-      <c r="H28" s="122">
+      <c r="H28" s="124">
         <v>1.0263015607050165</v>
       </c>
-      <c r="I28" s="122" t="s">
+      <c r="I28" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="J28" s="122">
+      <c r="J28" s="124">
         <v>10263.015607050165</v>
       </c>
     </row>
@@ -2171,31 +2184,31 @@
       <c r="A29" s="121">
         <v>45950</v>
       </c>
-      <c r="B29" s="122">
+      <c r="B29" s="124">
         <v>218000</v>
       </c>
-      <c r="C29" s="122">
+      <c r="C29" s="124">
         <v>119214.63</v>
       </c>
-      <c r="D29" s="122">
+      <c r="D29" s="124">
         <v>-419</v>
       </c>
-      <c r="E29" s="122">
+      <c r="E29" s="124">
         <v>-1.9220183486238533E-3</v>
       </c>
-      <c r="F29" s="122">
+      <c r="F29" s="124">
         <v>-3.5146692985584065E-3</v>
       </c>
-      <c r="G29" s="122">
+      <c r="G29" s="124">
         <v>0.5468561009174312</v>
       </c>
-      <c r="H29" s="122">
+      <c r="H29" s="124">
         <v>1.0243289902741202</v>
       </c>
-      <c r="I29" s="122" t="s">
+      <c r="I29" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="J29" s="122">
+      <c r="J29" s="124">
         <v>10243.289902741202</v>
       </c>
     </row>
@@ -2203,31 +2216,31 @@
       <c r="A30" s="121">
         <v>45951</v>
       </c>
-      <c r="B30" s="122">
+      <c r="B30" s="124">
         <v>218000</v>
       </c>
-      <c r="C30" s="122">
+      <c r="C30" s="124">
         <v>161589</v>
       </c>
-      <c r="D30" s="122">
+      <c r="D30" s="124">
         <v>-951</v>
       </c>
-      <c r="E30" s="122">
+      <c r="E30" s="124">
         <v>-4.3623853211009174E-3</v>
       </c>
-      <c r="F30" s="122">
+      <c r="F30" s="124">
         <v>-5.885301598499898E-3</v>
       </c>
-      <c r="G30" s="122">
+      <c r="G30" s="124">
         <v>0.74123394495412842</v>
       </c>
-      <c r="H30" s="122">
+      <c r="H30" s="124">
         <v>1.0198604725229703</v>
       </c>
-      <c r="I30" s="122" t="s">
+      <c r="I30" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="J30" s="122">
+      <c r="J30" s="124">
         <v>10198.604725229703</v>
       </c>
     </row>
@@ -2235,31 +2248,31 @@
       <c r="A31" s="121">
         <v>45952</v>
       </c>
-      <c r="B31" s="122">
+      <c r="B31" s="124">
         <v>218000</v>
       </c>
-      <c r="C31" s="122">
+      <c r="C31" s="124">
         <v>180550</v>
       </c>
-      <c r="D31" s="122">
+      <c r="D31" s="124">
         <v>5177</v>
       </c>
-      <c r="E31" s="122">
+      <c r="E31" s="124">
         <v>2.3747706422018348E-2</v>
       </c>
-      <c r="F31" s="122">
+      <c r="F31" s="124">
         <v>2.8673497646081417E-2</v>
       </c>
-      <c r="G31" s="122">
+      <c r="G31" s="124">
         <v>0.8282110091743119</v>
       </c>
-      <c r="H31" s="122">
+      <c r="H31" s="124">
         <v>1.0440798196158667</v>
       </c>
-      <c r="I31" s="122" t="s">
+      <c r="I31" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="J31" s="122">
+      <c r="J31" s="124">
         <v>10440.798196158667</v>
       </c>
     </row>
@@ -2267,31 +2280,31 @@
       <c r="A32" s="121">
         <v>45953</v>
       </c>
-      <c r="B32" s="122">
+      <c r="B32" s="124">
         <v>218000</v>
       </c>
-      <c r="C32" s="122">
+      <c r="C32" s="124">
         <v>211190</v>
       </c>
-      <c r="D32" s="122">
+      <c r="D32" s="124">
         <v>1376</v>
       </c>
-      <c r="E32" s="122">
+      <c r="E32" s="124">
         <v>6.3119266055045873E-3</v>
       </c>
-      <c r="F32" s="122">
+      <c r="F32" s="124">
         <v>6.5154600123111892E-3</v>
       </c>
-      <c r="G32" s="122">
+      <c r="G32" s="124">
         <v>0.96876146788990825</v>
       </c>
-      <c r="H32" s="122">
+      <c r="H32" s="124">
         <v>1.0506699748075705</v>
       </c>
-      <c r="I32" s="122" t="s">
+      <c r="I32" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="J32" s="122">
+      <c r="J32" s="124">
         <v>10506.699748075705</v>
       </c>
     </row>
@@ -2299,31 +2312,31 @@
       <c r="A33" s="121">
         <v>45954</v>
       </c>
-      <c r="B33" s="122">
+      <c r="B33" s="124">
         <v>218000</v>
       </c>
-      <c r="C33" s="122">
+      <c r="C33" s="124">
         <v>164000</v>
       </c>
-      <c r="D33" s="122">
+      <c r="D33" s="124">
         <v>-2513</v>
       </c>
-      <c r="E33" s="122">
+      <c r="E33" s="124">
         <v>-1.1527522935779817E-2</v>
       </c>
-      <c r="F33" s="122">
+      <c r="F33" s="124">
         <v>-1.5323170731707317E-2</v>
       </c>
-      <c r="G33" s="122">
+      <c r="G33" s="124">
         <v>0.75229357798165142</v>
       </c>
-      <c r="H33" s="122">
+      <c r="H33" s="124">
         <v>1.038558352575041</v>
       </c>
-      <c r="I33" s="122" t="s">
+      <c r="I33" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="J33" s="122">
+      <c r="J33" s="124">
         <v>10385.58352575041</v>
       </c>
     </row>
@@ -2331,31 +2344,31 @@
       <c r="A34" s="121">
         <v>45958</v>
       </c>
-      <c r="B34" s="122">
+      <c r="B34" s="124">
         <v>218000</v>
       </c>
-      <c r="C34" s="122">
+      <c r="C34" s="124">
         <v>87500</v>
       </c>
-      <c r="D34" s="122">
+      <c r="D34" s="124">
         <v>-2374</v>
       </c>
-      <c r="E34" s="122">
+      <c r="E34" s="124">
         <v>-1.0889908256880734E-2</v>
       </c>
-      <c r="F34" s="122">
+      <c r="F34" s="124">
         <v>-2.713142857142857E-2</v>
       </c>
-      <c r="G34" s="122">
+      <c r="G34" s="124">
         <v>0.40137614678899081</v>
       </c>
-      <c r="H34" s="122">
+      <c r="H34" s="124">
         <v>1.0272485473960817</v>
       </c>
-      <c r="I34" s="122" t="s">
+      <c r="I34" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="J34" s="122">
+      <c r="J34" s="124">
         <v>10272.485473960818</v>
       </c>
     </row>
@@ -2363,31 +2376,31 @@
       <c r="A35" s="121">
         <v>45959</v>
       </c>
-      <c r="B35" s="122">
+      <c r="B35" s="124">
         <v>218000</v>
       </c>
-      <c r="C35" s="122">
+      <c r="C35" s="124">
         <v>104470</v>
       </c>
-      <c r="D35" s="122">
+      <c r="D35" s="124">
         <v>-3281</v>
       </c>
-      <c r="E35" s="122">
+      <c r="E35" s="124">
         <v>-1.505045871559633E-2</v>
       </c>
-      <c r="F35" s="122">
+      <c r="F35" s="124">
         <v>-3.1406145304872214E-2</v>
       </c>
-      <c r="G35" s="122">
+      <c r="G35" s="124">
         <v>0.47922018348623852</v>
       </c>
-      <c r="H35" s="122">
+      <c r="H35" s="124">
         <v>1.0117879855428407</v>
       </c>
-      <c r="I35" s="122" t="s">
+      <c r="I35" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="J35" s="122">
+      <c r="J35" s="124">
         <v>10117.879855428406</v>
       </c>
     </row>
@@ -2395,31 +2408,31 @@
       <c r="A36" s="121">
         <v>45960</v>
       </c>
-      <c r="B36" s="122">
+      <c r="B36" s="124">
         <v>218000</v>
       </c>
-      <c r="C36" s="122">
+      <c r="C36" s="124">
         <v>163935</v>
       </c>
-      <c r="D36" s="122">
+      <c r="D36" s="124">
         <v>-1815</v>
       </c>
-      <c r="E36" s="122">
+      <c r="E36" s="124">
         <v>-8.3256880733944948E-3</v>
       </c>
-      <c r="F36" s="122">
+      <c r="F36" s="124">
         <v>-1.1071461249885626E-2</v>
       </c>
-      <c r="G36" s="122">
+      <c r="G36" s="124">
         <v>0.7519954128440367</v>
       </c>
-      <c r="H36" s="122">
+      <c r="H36" s="124">
         <v>1.0033641543788028</v>
       </c>
-      <c r="I36" s="122" t="s">
+      <c r="I36" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="J36" s="122">
+      <c r="J36" s="124">
         <v>10033.641543788028</v>
       </c>
     </row>
@@ -2427,31 +2440,31 @@
       <c r="A37" s="121">
         <v>45964</v>
       </c>
-      <c r="B37" s="122">
+      <c r="B37" s="124">
         <v>218000</v>
       </c>
-      <c r="C37" s="122">
+      <c r="C37" s="124">
         <v>153142</v>
       </c>
-      <c r="D37" s="122">
+      <c r="D37" s="124">
         <v>918</v>
       </c>
-      <c r="E37" s="122">
+      <c r="E37" s="124">
         <v>4.2110091743119268E-3</v>
       </c>
-      <c r="F37" s="122">
+      <c r="F37" s="124">
         <v>5.9944365360253878E-3</v>
       </c>
-      <c r="G37" s="122">
+      <c r="G37" s="124">
         <v>0.70248623853211012</v>
       </c>
-      <c r="H37" s="122">
+      <c r="H37" s="124">
         <v>1.0075893300380676</v>
       </c>
-      <c r="I37" s="122" t="s">
+      <c r="I37" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="J37" s="122">
+      <c r="J37" s="124">
         <v>10075.893300380676</v>
       </c>
     </row>
@@ -2459,31 +2472,31 @@
       <c r="A38" s="121">
         <v>45965</v>
       </c>
-      <c r="B38" s="122">
+      <c r="B38" s="124">
         <v>218000</v>
       </c>
-      <c r="C38" s="122">
+      <c r="C38" s="124">
         <v>116764</v>
       </c>
-      <c r="D38" s="122">
+      <c r="D38" s="124">
         <v>-2525</v>
       </c>
-      <c r="E38" s="122">
+      <c r="E38" s="124">
         <v>-1.158256880733945E-2</v>
       </c>
-      <c r="F38" s="122">
+      <c r="F38" s="124">
         <v>-2.162481586790449E-2</v>
       </c>
-      <c r="G38" s="122">
+      <c r="G38" s="124">
         <v>0.53561467889908254</v>
       </c>
-      <c r="H38" s="122">
+      <c r="H38" s="124">
         <v>0.9959188572933606</v>
       </c>
-      <c r="I38" s="122" t="s">
+      <c r="I38" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="J38" s="122">
+      <c r="J38" s="124">
         <v>9959.1885729336063</v>
       </c>
     </row>

--- a/main/streamlit_performances.xlsx
+++ b/main/streamlit_performances.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacopobinati/Desktop/GalambosC/other_projects/main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71136CD-7AD5-D248-85DB-1330D5BD00A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D25272B5-97C9-C94B-8A4D-418BFD95F266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="29400" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22000" yWindow="-20980" windowWidth="35600" windowHeight="19560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="USEquity500" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="20">
   <si>
     <t>date</t>
   </si>
@@ -96,9 +96,6 @@
   <si>
     <t>weight_portfolio</t>
   </si>
-  <si>
-    <t>q</t>
-  </si>
 </sst>
 </file>
 
@@ -106,7 +103,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="d/m/yy"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -808,7 +805,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1055,10 +1052,12 @@
     </xf>
     <xf numFmtId="14" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1280,7 +1279,7 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="L14" sqref="L14:L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1328,11 +1327,11 @@
       <c r="A2" s="121">
         <v>45910</v>
       </c>
-      <c r="B2" s="124">
+      <c r="B2" s="127">
         <v>100000</v>
       </c>
-      <c r="C2" s="124"/>
-      <c r="D2" s="124">
+      <c r="C2" s="127"/>
+      <c r="D2" s="127">
         <v>0</v>
       </c>
       <c r="E2" s="125">
@@ -1344,7 +1343,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="124"/>
-      <c r="J2" s="124">
+      <c r="J2" s="126">
         <v>10000</v>
       </c>
     </row>
@@ -1352,13 +1351,13 @@
       <c r="A3" s="121">
         <v>45911</v>
       </c>
-      <c r="B3" s="124">
+      <c r="B3" s="127">
         <v>100000</v>
       </c>
-      <c r="C3" s="124">
+      <c r="C3" s="127">
         <v>29243</v>
       </c>
-      <c r="D3" s="124">
+      <c r="D3" s="127">
         <v>679</v>
       </c>
       <c r="E3" s="124">
@@ -1376,7 +1375,7 @@
       <c r="I3" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="124">
+      <c r="J3" s="126">
         <v>10067.900000000001</v>
       </c>
     </row>
@@ -1384,13 +1383,13 @@
       <c r="A4" s="121">
         <v>45912</v>
       </c>
-      <c r="B4" s="124">
+      <c r="B4" s="127">
         <v>100000</v>
       </c>
-      <c r="C4" s="124">
+      <c r="C4" s="127">
         <v>109438</v>
       </c>
-      <c r="D4" s="124">
+      <c r="D4" s="127">
         <v>256</v>
       </c>
       <c r="E4" s="124">
@@ -1408,7 +1407,7 @@
       <c r="I4" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="124">
+      <c r="J4" s="126">
         <v>10093.673824</v>
       </c>
     </row>
@@ -1416,13 +1415,13 @@
       <c r="A5" s="121">
         <v>45915</v>
       </c>
-      <c r="B5" s="124">
+      <c r="B5" s="127">
         <v>125000</v>
       </c>
-      <c r="C5" s="124">
+      <c r="C5" s="127">
         <v>167749</v>
       </c>
-      <c r="D5" s="124">
+      <c r="D5" s="127">
         <v>406</v>
       </c>
       <c r="E5" s="124">
@@ -1440,7 +1439,7 @@
       <c r="I5" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="124">
+      <c r="J5" s="126">
         <v>10126.458076580351</v>
       </c>
     </row>
@@ -1448,13 +1447,13 @@
       <c r="A6" s="121">
         <v>45916</v>
       </c>
-      <c r="B6" s="124">
+      <c r="B6" s="127">
         <v>150000</v>
       </c>
-      <c r="C6" s="124">
+      <c r="C6" s="127">
         <v>233052</v>
       </c>
-      <c r="D6" s="124">
+      <c r="D6" s="127">
         <v>-2922</v>
       </c>
       <c r="E6" s="124">
@@ -1472,7 +1471,7 @@
       <c r="I6" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="124">
+      <c r="J6" s="126">
         <v>9929.1946732485667</v>
       </c>
     </row>
@@ -1480,13 +1479,13 @@
       <c r="A7" s="121">
         <v>45917</v>
       </c>
-      <c r="B7" s="124">
+      <c r="B7" s="127">
         <v>50000</v>
       </c>
-      <c r="C7" s="124">
+      <c r="C7" s="127">
         <v>91261</v>
       </c>
-      <c r="D7" s="124">
+      <c r="D7" s="127">
         <v>-400</v>
       </c>
       <c r="E7" s="124">
@@ -1504,7 +1503,7 @@
       <c r="I7" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="124">
+      <c r="J7" s="126">
         <v>9849.7611158625768</v>
       </c>
     </row>
@@ -1512,13 +1511,13 @@
       <c r="A8" s="121">
         <v>45918</v>
       </c>
-      <c r="B8" s="124">
+      <c r="B8" s="127">
         <v>50000</v>
       </c>
-      <c r="C8" s="124">
+      <c r="C8" s="127">
         <v>78685</v>
       </c>
-      <c r="D8" s="124">
+      <c r="D8" s="127">
         <v>202.54</v>
       </c>
       <c r="E8" s="124">
@@ -1536,7 +1535,7 @@
       <c r="I8" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="124">
+      <c r="J8" s="126">
         <v>9889.6605281907123</v>
       </c>
     </row>
@@ -1544,13 +1543,13 @@
       <c r="A9" s="121">
         <v>45919</v>
       </c>
-      <c r="B9" s="124">
+      <c r="B9" s="127">
         <v>75000</v>
       </c>
-      <c r="C9" s="124">
+      <c r="C9" s="127">
         <v>154553</v>
       </c>
-      <c r="D9" s="124">
+      <c r="D9" s="127">
         <v>-998.9</v>
       </c>
       <c r="E9" s="124">
@@ -1568,7 +1567,7 @@
       <c r="I9" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="124">
+      <c r="J9" s="126">
         <v>9757.9434361692493</v>
       </c>
     </row>
@@ -1576,13 +1575,13 @@
       <c r="A10" s="121">
         <v>45922</v>
       </c>
-      <c r="B10" s="124">
+      <c r="B10" s="127">
         <v>50000</v>
       </c>
-      <c r="C10" s="124">
+      <c r="C10" s="127">
         <v>67497</v>
       </c>
-      <c r="D10" s="124">
+      <c r="D10" s="127">
         <v>-439</v>
       </c>
       <c r="E10" s="124">
@@ -1600,7 +1599,7 @@
       <c r="I10" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="J10" s="124">
+      <c r="J10" s="126">
         <v>9672.2686927996838</v>
       </c>
     </row>
@@ -1608,13 +1607,13 @@
       <c r="A11" s="121">
         <v>45923</v>
       </c>
-      <c r="B11" s="124">
+      <c r="B11" s="127">
         <v>75000</v>
       </c>
-      <c r="C11" s="124">
+      <c r="C11" s="127">
         <v>139069</v>
       </c>
-      <c r="D11" s="124">
+      <c r="D11" s="127">
         <v>962</v>
       </c>
       <c r="E11" s="124">
@@ -1632,7 +1631,7 @@
       <c r="I11" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="J11" s="124">
+      <c r="J11" s="126">
         <v>9796.3316592326628</v>
       </c>
     </row>
@@ -1640,13 +1639,13 @@
       <c r="A12" s="121">
         <v>45924</v>
       </c>
-      <c r="B12" s="124">
+      <c r="B12" s="127">
         <v>101202</v>
       </c>
-      <c r="C12" s="124">
+      <c r="C12" s="127">
         <v>162152</v>
       </c>
-      <c r="D12" s="124">
+      <c r="D12" s="127">
         <v>4339</v>
       </c>
       <c r="E12" s="124">
@@ -1664,7 +1663,7 @@
       <c r="I12" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="J12" s="124">
+      <c r="J12" s="126">
         <v>10216.345918530013</v>
       </c>
     </row>
@@ -1672,13 +1671,13 @@
       <c r="A13" s="121">
         <v>45925</v>
       </c>
-      <c r="B13" s="124">
+      <c r="B13" s="127">
         <v>125000</v>
       </c>
-      <c r="C13" s="124">
+      <c r="C13" s="127">
         <v>155563</v>
       </c>
-      <c r="D13" s="124">
+      <c r="D13" s="127">
         <v>297</v>
       </c>
       <c r="E13" s="124">
@@ -1696,7 +1695,7 @@
       <c r="I13" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="J13" s="124">
+      <c r="J13" s="126">
         <v>10240.61995643244</v>
       </c>
     </row>
@@ -1704,13 +1703,13 @@
       <c r="A14" s="121">
         <v>45926</v>
       </c>
-      <c r="B14" s="124">
+      <c r="B14" s="127">
         <v>150000</v>
       </c>
-      <c r="C14" s="124">
+      <c r="C14" s="127">
         <v>200891</v>
       </c>
-      <c r="D14" s="124">
+      <c r="D14" s="127">
         <v>-2695</v>
       </c>
       <c r="E14" s="124">
@@ -1728,7 +1727,7 @@
       <c r="I14" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="J14" s="124">
+      <c r="J14" s="126">
         <v>10056.630151215202</v>
       </c>
     </row>
@@ -1736,13 +1735,13 @@
       <c r="A15" s="121">
         <v>45929</v>
       </c>
-      <c r="B15" s="124">
+      <c r="B15" s="127">
         <v>100000</v>
       </c>
-      <c r="C15" s="124">
+      <c r="C15" s="127">
         <v>60122</v>
       </c>
-      <c r="D15" s="124">
+      <c r="D15" s="127">
         <v>74</v>
       </c>
       <c r="E15" s="124">
@@ -1760,7 +1759,7 @@
       <c r="I15" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="J15" s="124">
+      <c r="J15" s="126">
         <v>10064.072057527101</v>
       </c>
     </row>
@@ -1768,13 +1767,13 @@
       <c r="A16" s="121">
         <v>45930</v>
       </c>
-      <c r="B16" s="124">
+      <c r="B16" s="127">
         <v>100074</v>
       </c>
-      <c r="C16" s="124">
+      <c r="C16" s="127">
         <v>110686</v>
       </c>
-      <c r="D16" s="124">
+      <c r="D16" s="127">
         <v>-1062</v>
       </c>
       <c r="E16" s="124">
@@ -1792,7 +1791,7 @@
       <c r="I16" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="J16" s="124">
+      <c r="J16" s="126">
         <v>9957.270645321194</v>
       </c>
     </row>
@@ -1800,13 +1799,13 @@
       <c r="A17" s="121">
         <v>45931</v>
       </c>
-      <c r="B17" s="124">
+      <c r="B17" s="127">
         <v>99012</v>
       </c>
-      <c r="C17" s="124">
+      <c r="C17" s="127">
         <v>79780</v>
       </c>
-      <c r="D17" s="124">
+      <c r="D17" s="127">
         <v>2218</v>
       </c>
       <c r="E17" s="124">
@@ -1824,7 +1823,7 @@
       <c r="I17" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="J17" s="124">
+      <c r="J17" s="126">
         <v>10180.326702075146</v>
       </c>
     </row>
@@ -1832,13 +1831,13 @@
       <c r="A18" s="121">
         <v>45932</v>
       </c>
-      <c r="B18" s="124">
+      <c r="B18" s="127">
         <v>101230</v>
       </c>
-      <c r="C18" s="124">
+      <c r="C18" s="127">
         <v>161182</v>
       </c>
-      <c r="D18" s="124">
+      <c r="D18" s="127">
         <v>1515</v>
       </c>
       <c r="E18" s="124">
@@ -1856,7 +1855,7 @@
       <c r="I18" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="J18" s="124">
+      <c r="J18" s="126">
         <v>10332.684648866058</v>
       </c>
     </row>
@@ -1864,13 +1863,13 @@
       <c r="A19" s="121">
         <v>45933</v>
       </c>
-      <c r="B19" s="124">
+      <c r="B19" s="127">
         <v>102745</v>
       </c>
-      <c r="C19" s="124">
+      <c r="C19" s="127">
         <v>62217.760000000002</v>
       </c>
-      <c r="D19" s="124">
+      <c r="D19" s="127">
         <v>-60</v>
       </c>
       <c r="E19" s="124">
@@ -1888,7 +1887,7 @@
       <c r="I19" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="J19" s="124">
+      <c r="J19" s="126">
         <v>10326.650670775329</v>
       </c>
     </row>
@@ -1896,13 +1895,13 @@
       <c r="A20" s="121">
         <v>45936</v>
       </c>
-      <c r="B20" s="124">
+      <c r="B20" s="127">
         <v>102685</v>
       </c>
-      <c r="C20" s="124">
+      <c r="C20" s="127">
         <v>132025</v>
       </c>
-      <c r="D20" s="124">
+      <c r="D20" s="127">
         <v>1120</v>
       </c>
       <c r="E20" s="124">
@@ -1920,7 +1919,7 @@
       <c r="I20" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="J20" s="124">
+      <c r="J20" s="126">
         <v>10439.28492846894</v>
       </c>
     </row>
@@ -1928,13 +1927,13 @@
       <c r="A21" s="121">
         <v>45937</v>
       </c>
-      <c r="B21" s="124">
+      <c r="B21" s="127">
         <v>103805</v>
       </c>
-      <c r="C21" s="124">
+      <c r="C21" s="127">
         <v>131877</v>
       </c>
-      <c r="D21" s="124">
+      <c r="D21" s="127">
         <v>-2157</v>
       </c>
       <c r="E21" s="124">
@@ -1952,7 +1951,7 @@
       <c r="I21" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="J21" s="124">
+      <c r="J21" s="126">
         <v>10222.363416107228</v>
       </c>
     </row>
@@ -1960,13 +1959,13 @@
       <c r="A22" s="121">
         <v>45938</v>
       </c>
-      <c r="B22" s="124">
+      <c r="B22" s="127">
         <v>100000</v>
       </c>
-      <c r="C22" s="124">
+      <c r="C22" s="127">
         <v>105221</v>
       </c>
-      <c r="D22" s="124">
+      <c r="D22" s="127">
         <v>1166</v>
       </c>
       <c r="E22" s="124">
@@ -1984,7 +1983,7 @@
       <c r="I22" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="J22" s="124">
+      <c r="J22" s="126">
         <v>10341.556173539037</v>
       </c>
     </row>
@@ -1992,13 +1991,13 @@
       <c r="A23" s="121">
         <v>45939</v>
       </c>
-      <c r="B23" s="124">
+      <c r="B23" s="127">
         <v>150000</v>
       </c>
-      <c r="C23" s="124">
+      <c r="C23" s="127">
         <v>179849</v>
       </c>
-      <c r="D23" s="124">
+      <c r="D23" s="127">
         <v>1535</v>
       </c>
       <c r="E23" s="124">
@@ -2016,7 +2015,7 @@
       <c r="I23" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="J23" s="124">
+      <c r="J23" s="126">
         <v>10447.384765048253</v>
       </c>
     </row>
@@ -2024,13 +2023,13 @@
       <c r="A24" s="121">
         <v>45940</v>
       </c>
-      <c r="B24" s="124">
+      <c r="B24" s="127">
         <v>75000</v>
       </c>
-      <c r="C24" s="124">
+      <c r="C24" s="127">
         <v>45230.059090000002</v>
       </c>
-      <c r="D24" s="124">
+      <c r="D24" s="127">
         <v>339</v>
       </c>
       <c r="E24" s="124">
@@ -2048,7 +2047,7 @@
       <c r="I24" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="J24" s="124">
+      <c r="J24" s="126">
         <v>10494.606944186271</v>
       </c>
     </row>
@@ -2056,14 +2055,14 @@
       <c r="A25" s="121">
         <v>45943</v>
       </c>
-      <c r="B25" s="124">
+      <c r="B25" s="127">
         <v>150000</v>
       </c>
-      <c r="C25" s="124">
+      <c r="C25" s="127">
         <v>80315.59</v>
       </c>
-      <c r="D25" s="124" t="s">
-        <v>20</v>
+      <c r="D25" s="127">
+        <v>-329.42</v>
       </c>
       <c r="E25" s="124">
         <v>-2.1961333333333334E-3</v>
@@ -2080,7 +2079,7 @@
       <c r="I25" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="J25" s="124">
+      <c r="J25" s="126">
         <v>10471.559388055912</v>
       </c>
     </row>
@@ -2088,13 +2087,13 @@
       <c r="A26" s="121">
         <v>45944</v>
       </c>
-      <c r="B26" s="124">
+      <c r="B26" s="127">
         <v>200000</v>
       </c>
-      <c r="C26" s="124">
+      <c r="C26" s="127">
         <v>258812</v>
       </c>
-      <c r="D26" s="124">
+      <c r="D26" s="127">
         <v>-737</v>
       </c>
       <c r="E26" s="124">
@@ -2112,7 +2111,7 @@
       <c r="I26" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="J26" s="124">
+      <c r="J26" s="126">
         <v>10432.971691710924</v>
       </c>
     </row>
@@ -2120,13 +2119,13 @@
       <c r="A27" s="121">
         <v>45945</v>
       </c>
-      <c r="B27" s="124">
+      <c r="B27" s="127">
         <v>225113</v>
       </c>
-      <c r="C27" s="124">
+      <c r="C27" s="127">
         <v>158445</v>
       </c>
-      <c r="D27" s="124">
+      <c r="D27" s="127">
         <v>-546</v>
       </c>
       <c r="E27" s="124">
@@ -2144,7 +2143,7 @@
       <c r="I27" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="J27" s="124">
+      <c r="J27" s="126">
         <v>10407.66705562294</v>
       </c>
     </row>
@@ -2152,13 +2151,13 @@
       <c r="A28" s="121">
         <v>45946</v>
       </c>
-      <c r="B28" s="124">
+      <c r="B28" s="127">
         <v>222901</v>
       </c>
-      <c r="C28" s="124">
+      <c r="C28" s="127">
         <v>148578</v>
       </c>
-      <c r="D28" s="124">
+      <c r="D28" s="127">
         <v>-3098</v>
       </c>
       <c r="E28" s="124">
@@ -2176,7 +2175,7 @@
       <c r="I28" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="J28" s="124">
+      <c r="J28" s="126">
         <v>10263.015607050165</v>
       </c>
     </row>
@@ -2184,13 +2183,13 @@
       <c r="A29" s="121">
         <v>45950</v>
       </c>
-      <c r="B29" s="124">
+      <c r="B29" s="127">
         <v>218000</v>
       </c>
-      <c r="C29" s="124">
+      <c r="C29" s="127">
         <v>119214.63</v>
       </c>
-      <c r="D29" s="124">
+      <c r="D29" s="127">
         <v>-419</v>
       </c>
       <c r="E29" s="124">
@@ -2208,7 +2207,7 @@
       <c r="I29" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="J29" s="124">
+      <c r="J29" s="126">
         <v>10243.289902741202</v>
       </c>
     </row>
@@ -2216,13 +2215,13 @@
       <c r="A30" s="121">
         <v>45951</v>
       </c>
-      <c r="B30" s="124">
+      <c r="B30" s="127">
         <v>218000</v>
       </c>
-      <c r="C30" s="124">
+      <c r="C30" s="127">
         <v>161589</v>
       </c>
-      <c r="D30" s="124">
+      <c r="D30" s="127">
         <v>-951</v>
       </c>
       <c r="E30" s="124">
@@ -2240,7 +2239,7 @@
       <c r="I30" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="J30" s="124">
+      <c r="J30" s="126">
         <v>10198.604725229703</v>
       </c>
     </row>
@@ -2248,13 +2247,13 @@
       <c r="A31" s="121">
         <v>45952</v>
       </c>
-      <c r="B31" s="124">
+      <c r="B31" s="127">
         <v>218000</v>
       </c>
-      <c r="C31" s="124">
+      <c r="C31" s="127">
         <v>180550</v>
       </c>
-      <c r="D31" s="124">
+      <c r="D31" s="127">
         <v>5177</v>
       </c>
       <c r="E31" s="124">
@@ -2272,7 +2271,7 @@
       <c r="I31" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="J31" s="124">
+      <c r="J31" s="126">
         <v>10440.798196158667</v>
       </c>
     </row>
@@ -2280,13 +2279,13 @@
       <c r="A32" s="121">
         <v>45953</v>
       </c>
-      <c r="B32" s="124">
+      <c r="B32" s="127">
         <v>218000</v>
       </c>
-      <c r="C32" s="124">
+      <c r="C32" s="127">
         <v>211190</v>
       </c>
-      <c r="D32" s="124">
+      <c r="D32" s="127">
         <v>1376</v>
       </c>
       <c r="E32" s="124">
@@ -2304,7 +2303,7 @@
       <c r="I32" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="J32" s="124">
+      <c r="J32" s="126">
         <v>10506.699748075705</v>
       </c>
     </row>
@@ -2312,13 +2311,13 @@
       <c r="A33" s="121">
         <v>45954</v>
       </c>
-      <c r="B33" s="124">
+      <c r="B33" s="127">
         <v>218000</v>
       </c>
-      <c r="C33" s="124">
+      <c r="C33" s="127">
         <v>164000</v>
       </c>
-      <c r="D33" s="124">
+      <c r="D33" s="127">
         <v>-2513</v>
       </c>
       <c r="E33" s="124">
@@ -2336,7 +2335,7 @@
       <c r="I33" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="J33" s="124">
+      <c r="J33" s="126">
         <v>10385.58352575041</v>
       </c>
     </row>
@@ -2344,13 +2343,13 @@
       <c r="A34" s="121">
         <v>45958</v>
       </c>
-      <c r="B34" s="124">
+      <c r="B34" s="127">
         <v>218000</v>
       </c>
-      <c r="C34" s="124">
+      <c r="C34" s="127">
         <v>87500</v>
       </c>
-      <c r="D34" s="124">
+      <c r="D34" s="127">
         <v>-2374</v>
       </c>
       <c r="E34" s="124">
@@ -2368,7 +2367,7 @@
       <c r="I34" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="J34" s="124">
+      <c r="J34" s="126">
         <v>10272.485473960818</v>
       </c>
     </row>
@@ -2376,13 +2375,13 @@
       <c r="A35" s="121">
         <v>45959</v>
       </c>
-      <c r="B35" s="124">
+      <c r="B35" s="127">
         <v>218000</v>
       </c>
-      <c r="C35" s="124">
+      <c r="C35" s="127">
         <v>104470</v>
       </c>
-      <c r="D35" s="124">
+      <c r="D35" s="127">
         <v>-3281</v>
       </c>
       <c r="E35" s="124">
@@ -2400,7 +2399,7 @@
       <c r="I35" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="J35" s="124">
+      <c r="J35" s="126">
         <v>10117.879855428406</v>
       </c>
     </row>
@@ -2408,13 +2407,13 @@
       <c r="A36" s="121">
         <v>45960</v>
       </c>
-      <c r="B36" s="124">
+      <c r="B36" s="127">
         <v>218000</v>
       </c>
-      <c r="C36" s="124">
+      <c r="C36" s="127">
         <v>163935</v>
       </c>
-      <c r="D36" s="124">
+      <c r="D36" s="127">
         <v>-1815</v>
       </c>
       <c r="E36" s="124">
@@ -2432,7 +2431,7 @@
       <c r="I36" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="J36" s="124">
+      <c r="J36" s="126">
         <v>10033.641543788028</v>
       </c>
     </row>
@@ -2440,13 +2439,13 @@
       <c r="A37" s="121">
         <v>45964</v>
       </c>
-      <c r="B37" s="124">
+      <c r="B37" s="127">
         <v>218000</v>
       </c>
-      <c r="C37" s="124">
+      <c r="C37" s="127">
         <v>153142</v>
       </c>
-      <c r="D37" s="124">
+      <c r="D37" s="127">
         <v>918</v>
       </c>
       <c r="E37" s="124">
@@ -2464,7 +2463,7 @@
       <c r="I37" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="J37" s="124">
+      <c r="J37" s="126">
         <v>10075.893300380676</v>
       </c>
     </row>
@@ -2472,13 +2471,13 @@
       <c r="A38" s="121">
         <v>45965</v>
       </c>
-      <c r="B38" s="124">
+      <c r="B38" s="127">
         <v>218000</v>
       </c>
-      <c r="C38" s="124">
+      <c r="C38" s="127">
         <v>116764</v>
       </c>
-      <c r="D38" s="124">
+      <c r="D38" s="127">
         <v>-2525</v>
       </c>
       <c r="E38" s="124">
@@ -2496,7 +2495,7 @@
       <c r="I38" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="J38" s="124">
+      <c r="J38" s="126">
         <v>9959.1885729336063</v>
       </c>
     </row>

--- a/main/streamlit_performances.xlsx
+++ b/main/streamlit_performances.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacopobinati/Desktop/GalambosC/other_projects/main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D25272B5-97C9-C94B-8A4D-418BFD95F266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{895039AD-179C-2B4D-AE6A-5A92918B7DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22000" yWindow="-20980" windowWidth="35600" windowHeight="19560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19400" yWindow="680" windowWidth="10000" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="USEquity500" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="20">
   <si>
     <t>date</t>
   </si>
@@ -1276,10 +1276,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14:L15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44:D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2497,6 +2497,166 @@
       </c>
       <c r="J38" s="126">
         <v>9959.1885729336063</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A39" s="121">
+        <v>45966</v>
+      </c>
+      <c r="B39" s="127">
+        <v>218000</v>
+      </c>
+      <c r="C39" s="127">
+        <v>89813</v>
+      </c>
+      <c r="D39" s="127">
+        <v>542</v>
+      </c>
+      <c r="E39" s="124">
+        <v>2.4862385321100917E-3</v>
+      </c>
+      <c r="F39" s="124">
+        <v>6.0347611147606693E-3</v>
+      </c>
+      <c r="G39" s="124">
+        <v>0.41198623853211008</v>
+      </c>
+      <c r="H39" s="124">
+        <v>0.9983949491312184</v>
+      </c>
+      <c r="I39" s="124" t="s">
+        <v>10</v>
+      </c>
+      <c r="J39" s="126">
+        <v>9983.9494913121835</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A40" s="121">
+        <v>45967</v>
+      </c>
+      <c r="B40" s="127">
+        <v>218000</v>
+      </c>
+      <c r="C40" s="127">
+        <v>78661</v>
+      </c>
+      <c r="D40" s="127">
+        <v>1524</v>
+      </c>
+      <c r="E40" s="124">
+        <v>6.9908256880733943E-3</v>
+      </c>
+      <c r="F40" s="124">
+        <v>1.937427696062852E-2</v>
+      </c>
+      <c r="G40" s="124">
+        <v>0.36083027522935779</v>
+      </c>
+      <c r="H40" s="124">
+        <v>1.0053745541884476</v>
+      </c>
+      <c r="I40" s="124" t="s">
+        <v>10</v>
+      </c>
+      <c r="J40" s="126">
+        <v>10053.745541884477</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A41" s="121">
+        <v>45968</v>
+      </c>
+      <c r="B41" s="127">
+        <v>218000</v>
+      </c>
+      <c r="C41" s="127">
+        <v>108342</v>
+      </c>
+      <c r="D41" s="127">
+        <v>-1915</v>
+      </c>
+      <c r="E41" s="124">
+        <v>-8.7844036697247701E-3</v>
+      </c>
+      <c r="F41" s="124">
+        <v>-1.7675509036200181E-2</v>
+      </c>
+      <c r="G41" s="124">
+        <v>0.4969816513761468</v>
+      </c>
+      <c r="H41" s="124">
+        <v>0.9965429382651867</v>
+      </c>
+      <c r="I41" s="124" t="s">
+        <v>11</v>
+      </c>
+      <c r="J41" s="126">
+        <v>9965.4293826518679</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A42" s="123">
+        <v>45971</v>
+      </c>
+      <c r="B42">
+        <v>200000</v>
+      </c>
+      <c r="C42">
+        <v>98621</v>
+      </c>
+      <c r="D42">
+        <v>102</v>
+      </c>
+      <c r="E42">
+        <v>5.1000000000000004E-4</v>
+      </c>
+      <c r="F42">
+        <v>1.0342624795935957E-3</v>
+      </c>
+      <c r="G42">
+        <v>0.49310500000000002</v>
+      </c>
+      <c r="H42">
+        <v>0.9970511751637019</v>
+      </c>
+      <c r="I42" t="s">
+        <v>10</v>
+      </c>
+      <c r="J42">
+        <v>9970.5117516370192</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A43" s="123">
+        <v>45972</v>
+      </c>
+      <c r="B43">
+        <v>200000</v>
+      </c>
+      <c r="C43">
+        <v>210000</v>
+      </c>
+      <c r="D43">
+        <v>336</v>
+      </c>
+      <c r="E43">
+        <v>1.6800000000000001E-3</v>
+      </c>
+      <c r="F43">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="G43">
+        <v>1.05</v>
+      </c>
+      <c r="H43">
+        <v>0.99872622113797682</v>
+      </c>
+      <c r="I43" t="s">
+        <v>10</v>
+      </c>
+      <c r="J43">
+        <v>9987.2622113797679</v>
       </c>
     </row>
   </sheetData>

--- a/main/streamlit_performances.xlsx
+++ b/main/streamlit_performances.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacopobinati/Desktop/GalambosC/other_projects/main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{895039AD-179C-2B4D-AE6A-5A92918B7DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C08437-D1F9-5143-B016-5FB1CAB2138A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19400" yWindow="680" windowWidth="10000" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3440" yWindow="-20980" windowWidth="20300" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="USEquity500" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="20">
   <si>
     <t>date</t>
   </si>
@@ -1276,10 +1276,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44:D46"/>
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2596,67 +2596,99 @@
       </c>
     </row>
     <row r="42" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A42" s="123">
+      <c r="A42" s="121">
         <v>45971</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="127">
         <v>200000</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="127">
         <v>98621</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="127">
         <v>102</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="124">
         <v>5.1000000000000004E-4</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="124">
         <v>1.0342624795935957E-3</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="124">
         <v>0.49310500000000002</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="124">
         <v>0.9970511751637019</v>
       </c>
-      <c r="I42" t="s">
+      <c r="I42" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="J42">
+      <c r="J42" s="126">
         <v>9970.5117516370192</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A43" s="123">
+      <c r="A43" s="121">
         <v>45972</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="127">
         <v>200000</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="127">
         <v>210000</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="127">
         <v>336</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="124">
         <v>1.6800000000000001E-3</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="124">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="124">
         <v>1.05</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="124">
         <v>0.99872622113797682</v>
       </c>
-      <c r="I43" t="s">
+      <c r="I43" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="J43">
+      <c r="J43" s="126">
         <v>9987.2622113797679</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A44" s="121">
+        <v>45974</v>
+      </c>
+      <c r="B44" s="127">
+        <v>200000</v>
+      </c>
+      <c r="C44" s="127">
+        <v>119538</v>
+      </c>
+      <c r="D44" s="127">
+        <v>-841</v>
+      </c>
+      <c r="E44" s="124">
+        <v>-4.2050000000000004E-3</v>
+      </c>
+      <c r="F44" s="124">
+        <v>-7.0354196991751581E-3</v>
+      </c>
+      <c r="G44" s="124">
+        <v>0.59769000000000005</v>
+      </c>
+      <c r="H44" s="124">
+        <v>0.99452657737809158</v>
+      </c>
+      <c r="I44" s="124" t="s">
+        <v>11</v>
+      </c>
+      <c r="J44" s="126">
+        <v>9945.265773780915</v>
       </c>
     </row>
   </sheetData>

--- a/main/streamlit_performances.xlsx
+++ b/main/streamlit_performances.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacopobinati/Desktop/GalambosC/other_projects/main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C08437-D1F9-5143-B016-5FB1CAB2138A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1223734-ED3A-F647-962D-9C6CD898623B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3440" yWindow="-20980" windowWidth="20300" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12460" yWindow="680" windowWidth="16940" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="USEquity500" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="20">
   <si>
     <t>date</t>
   </si>
@@ -1276,10 +1276,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47:J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2689,6 +2689,166 @@
       </c>
       <c r="J44" s="126">
         <v>9945.265773780915</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A45" s="123">
+        <v>45975</v>
+      </c>
+      <c r="B45">
+        <v>200000</v>
+      </c>
+      <c r="C45">
+        <v>134000</v>
+      </c>
+      <c r="D45">
+        <v>136</v>
+      </c>
+      <c r="E45">
+        <v>6.8000000000000005E-4</v>
+      </c>
+      <c r="F45">
+        <v>1.0149253731343284E-3</v>
+      </c>
+      <c r="G45">
+        <v>0.67</v>
+      </c>
+      <c r="H45">
+        <v>0.99520285545070875</v>
+      </c>
+      <c r="I45" t="s">
+        <v>10</v>
+      </c>
+      <c r="J45">
+        <v>9952.0285545070874</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A46" s="123">
+        <v>45978</v>
+      </c>
+      <c r="B46">
+        <v>200000</v>
+      </c>
+      <c r="C46">
+        <v>160414</v>
+      </c>
+      <c r="D46">
+        <v>275</v>
+      </c>
+      <c r="E46">
+        <v>1.3749999999999999E-3</v>
+      </c>
+      <c r="F46">
+        <v>1.7143142119765108E-3</v>
+      </c>
+      <c r="G46">
+        <v>0.80206999999999995</v>
+      </c>
+      <c r="H46">
+        <v>0.99657125937695334</v>
+      </c>
+      <c r="I46" t="s">
+        <v>10</v>
+      </c>
+      <c r="J46">
+        <v>9965.7125937695328</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A47" s="123">
+        <v>45979</v>
+      </c>
+      <c r="B47">
+        <v>200000</v>
+      </c>
+      <c r="C47">
+        <v>145539</v>
+      </c>
+      <c r="D47">
+        <v>156</v>
+      </c>
+      <c r="E47">
+        <v>7.7999999999999999E-4</v>
+      </c>
+      <c r="F47">
+        <v>1.0718776410446685E-3</v>
+      </c>
+      <c r="G47">
+        <v>0.72769499999999998</v>
+      </c>
+      <c r="H47">
+        <v>0.99734858495926737</v>
+      </c>
+      <c r="I47" t="s">
+        <v>10</v>
+      </c>
+      <c r="J47">
+        <v>9973.4858495926728</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A48" s="123">
+        <v>45980</v>
+      </c>
+      <c r="B48">
+        <v>200000</v>
+      </c>
+      <c r="C48">
+        <v>147270</v>
+      </c>
+      <c r="D48">
+        <v>-880</v>
+      </c>
+      <c r="E48">
+        <v>-4.4000000000000003E-3</v>
+      </c>
+      <c r="F48">
+        <v>-5.9754192978882324E-3</v>
+      </c>
+      <c r="G48">
+        <v>0.73634999999999995</v>
+      </c>
+      <c r="H48">
+        <v>0.99296025118544662</v>
+      </c>
+      <c r="I48" t="s">
+        <v>11</v>
+      </c>
+      <c r="J48">
+        <v>9929.6025118544658</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A49" s="123">
+        <v>45981</v>
+      </c>
+      <c r="B49">
+        <v>200000</v>
+      </c>
+      <c r="C49">
+        <v>120874</v>
+      </c>
+      <c r="D49">
+        <v>2046</v>
+      </c>
+      <c r="E49">
+        <v>1.023E-2</v>
+      </c>
+      <c r="F49">
+        <v>1.6926717077287091E-2</v>
+      </c>
+      <c r="G49">
+        <v>0.60436999999999996</v>
+      </c>
+      <c r="H49">
+        <v>1.0031182345550738</v>
+      </c>
+      <c r="I49" t="s">
+        <v>10</v>
+      </c>
+      <c r="J49">
+        <v>10031.182345550738</v>
       </c>
     </row>
   </sheetData>

--- a/main/streamlit_performances.xlsx
+++ b/main/streamlit_performances.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacopobinati/Desktop/GalambosC/other_projects/main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1223734-ED3A-F647-962D-9C6CD898623B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F549740F-A216-C644-8FBF-B9F822ED55CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12460" yWindow="680" windowWidth="16940" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="20">
   <si>
     <t>date</t>
   </si>
@@ -1276,10 +1276,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47:J49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L51" sqref="L51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2849,6 +2849,166 @@
       </c>
       <c r="J49">
         <v>10031.182345550738</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A50" s="123">
+        <v>45982</v>
+      </c>
+      <c r="B50">
+        <v>200000</v>
+      </c>
+      <c r="C50">
+        <v>194976</v>
+      </c>
+      <c r="D50">
+        <v>1937</v>
+      </c>
+      <c r="E50">
+        <v>9.6849999999999992E-3</v>
+      </c>
+      <c r="F50">
+        <v>9.9345560479238478E-3</v>
+      </c>
+      <c r="G50">
+        <v>0.97487999999999997</v>
+      </c>
+      <c r="H50">
+        <v>1.0128334346567396</v>
+      </c>
+      <c r="I50" t="s">
+        <v>10</v>
+      </c>
+      <c r="J50">
+        <v>10128.334346567395</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A51" s="123">
+        <v>45985</v>
+      </c>
+      <c r="B51">
+        <v>200000</v>
+      </c>
+      <c r="C51">
+        <v>197244</v>
+      </c>
+      <c r="D51">
+        <v>38</v>
+      </c>
+      <c r="E51">
+        <v>1.9000000000000001E-4</v>
+      </c>
+      <c r="F51">
+        <v>1.9265478290847883E-4</v>
+      </c>
+      <c r="G51">
+        <v>0.98621999999999999</v>
+      </c>
+      <c r="H51">
+        <v>1.0130258730093242</v>
+      </c>
+      <c r="I51" t="s">
+        <v>10</v>
+      </c>
+      <c r="J51">
+        <v>10130.258730093243</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A52" s="123">
+        <v>45986</v>
+      </c>
+      <c r="B52">
+        <v>200000</v>
+      </c>
+      <c r="C52">
+        <v>133078.49</v>
+      </c>
+      <c r="D52">
+        <v>38</v>
+      </c>
+      <c r="E52">
+        <v>1.9000000000000001E-4</v>
+      </c>
+      <c r="F52">
+        <v>2.8554577077031758E-4</v>
+      </c>
+      <c r="G52">
+        <v>0.66539244999999991</v>
+      </c>
+      <c r="H52">
+        <v>1.0132183479251959</v>
+      </c>
+      <c r="I52" t="s">
+        <v>10</v>
+      </c>
+      <c r="J52">
+        <v>10132.183479251958</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A53" s="123">
+        <v>45987</v>
+      </c>
+      <c r="B53">
+        <v>200000</v>
+      </c>
+      <c r="C53">
+        <v>147392.13</v>
+      </c>
+      <c r="D53">
+        <v>-2403</v>
+      </c>
+      <c r="E53">
+        <v>-1.2015E-2</v>
+      </c>
+      <c r="F53">
+        <v>-1.6303448494841617E-2</v>
+      </c>
+      <c r="G53">
+        <v>0.73696064999999999</v>
+      </c>
+      <c r="H53">
+        <v>1.0010445294748747</v>
+      </c>
+      <c r="I53" t="s">
+        <v>11</v>
+      </c>
+      <c r="J53">
+        <v>10010.445294748746</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A54" s="123">
+        <v>45993</v>
+      </c>
+      <c r="B54">
+        <v>165000</v>
+      </c>
+      <c r="C54">
+        <v>164750.37</v>
+      </c>
+      <c r="D54">
+        <v>-381</v>
+      </c>
+      <c r="E54">
+        <v>-2.3090909090909091E-3</v>
+      </c>
+      <c r="F54">
+        <v>-2.3125896469913848E-3</v>
+      </c>
+      <c r="G54">
+        <v>0.99848709090909094</v>
+      </c>
+      <c r="H54">
+        <v>0.99873302665226904</v>
+      </c>
+      <c r="I54" t="s">
+        <v>11</v>
+      </c>
+      <c r="J54">
+        <v>9987.3302665226911</v>
       </c>
     </row>
   </sheetData>

--- a/main/streamlit_performances.xlsx
+++ b/main/streamlit_performances.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacopobinati/Desktop/GalambosC/other_projects/main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F549740F-A216-C644-8FBF-B9F822ED55CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A831D30-79BF-DD42-994B-8AC08FD5BA4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12460" yWindow="680" windowWidth="16940" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21560" yWindow="-20980" windowWidth="28840" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="USEquity500" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="20">
   <si>
     <t>date</t>
   </si>
@@ -1276,10 +1276,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J54"/>
+  <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L51" sqref="L51"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="J55" sqref="J55:J59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3009,6 +3009,166 @@
       </c>
       <c r="J54">
         <v>9987.3302665226911</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A55" s="123">
+        <v>45994</v>
+      </c>
+      <c r="B55">
+        <v>165000</v>
+      </c>
+      <c r="C55">
+        <v>146381</v>
+      </c>
+      <c r="D55">
+        <v>764</v>
+      </c>
+      <c r="E55">
+        <v>4.6303030303030306E-3</v>
+      </c>
+      <c r="F55">
+        <v>5.2192565975092394E-3</v>
+      </c>
+      <c r="G55">
+        <v>0.88715757575757581</v>
+      </c>
+      <c r="H55">
+        <v>1.0033574632120408</v>
+      </c>
+      <c r="I55" t="s">
+        <v>10</v>
+      </c>
+      <c r="J55">
+        <v>10033.574632120408</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A56" s="123">
+        <v>45995</v>
+      </c>
+      <c r="B56">
+        <v>165000</v>
+      </c>
+      <c r="C56">
+        <v>101081</v>
+      </c>
+      <c r="D56">
+        <v>-1874</v>
+      </c>
+      <c r="E56">
+        <v>-1.1357575757575757E-2</v>
+      </c>
+      <c r="F56">
+        <v>-1.8539587063839891E-2</v>
+      </c>
+      <c r="G56">
+        <v>0.61261212121212116</v>
+      </c>
+      <c r="H56">
+        <v>0.99196175481168092</v>
+      </c>
+      <c r="I56" t="s">
+        <v>11</v>
+      </c>
+      <c r="J56">
+        <v>9919.6175481168084</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A57" s="123">
+        <v>45996</v>
+      </c>
+      <c r="B57">
+        <v>165000</v>
+      </c>
+      <c r="C57">
+        <v>67134</v>
+      </c>
+      <c r="D57">
+        <v>2647</v>
+      </c>
+      <c r="E57">
+        <v>1.6042424242424243E-2</v>
+      </c>
+      <c r="F57">
+        <v>3.9428605475615934E-2</v>
+      </c>
+      <c r="G57">
+        <v>0.40687272727272727</v>
+      </c>
+      <c r="H57">
+        <v>1.0078752261146295</v>
+      </c>
+      <c r="I57" t="s">
+        <v>10</v>
+      </c>
+      <c r="J57">
+        <v>10078.752261146295</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A58" s="123">
+        <v>45999</v>
+      </c>
+      <c r="B58">
+        <v>204000</v>
+      </c>
+      <c r="C58">
+        <v>170560.09</v>
+      </c>
+      <c r="D58">
+        <v>1268</v>
+      </c>
+      <c r="E58">
+        <v>6.2156862745098036E-3</v>
+      </c>
+      <c r="F58">
+        <v>7.434330035824911E-3</v>
+      </c>
+      <c r="G58">
+        <v>0.83607887254901958</v>
+      </c>
+      <c r="H58">
+        <v>1.0141398623240085</v>
+      </c>
+      <c r="I58" t="s">
+        <v>10</v>
+      </c>
+      <c r="J58">
+        <v>10141.398623240086</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A59" s="123">
+        <v>46000</v>
+      </c>
+      <c r="B59">
+        <v>200000</v>
+      </c>
+      <c r="C59">
+        <v>117839</v>
+      </c>
+      <c r="D59">
+        <v>967</v>
+      </c>
+      <c r="E59">
+        <v>4.8349999999999999E-3</v>
+      </c>
+      <c r="F59">
+        <v>8.2061117287146029E-3</v>
+      </c>
+      <c r="G59">
+        <v>0.58919500000000002</v>
+      </c>
+      <c r="H59">
+        <v>1.0190432285583451</v>
+      </c>
+      <c r="I59" t="s">
+        <v>10</v>
+      </c>
+      <c r="J59">
+        <v>10190.432285583451</v>
       </c>
     </row>
   </sheetData>

--- a/main/streamlit_performances.xlsx
+++ b/main/streamlit_performances.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacopobinati/Desktop/GalambosC/other_projects/main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A831D30-79BF-DD42-994B-8AC08FD5BA4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2628B376-4866-4845-B39C-05AD1ED270EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21560" yWindow="-20980" windowWidth="28840" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12000" yWindow="680" windowWidth="17400" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="USEquity500" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="20">
   <si>
     <t>date</t>
   </si>
@@ -1276,10 +1276,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J59"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="J55" sqref="J55:J59"/>
+    <sheetView tabSelected="1" topLeftCell="G31" workbookViewId="0">
+      <selection activeCell="L58" sqref="L58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3169,6 +3169,38 @@
       </c>
       <c r="J59">
         <v>10190.432285583451</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A60" s="123">
+        <v>46001</v>
+      </c>
+      <c r="B60">
+        <v>202432</v>
+      </c>
+      <c r="C60">
+        <v>336898.79000000004</v>
+      </c>
+      <c r="D60">
+        <v>2444</v>
+      </c>
+      <c r="E60">
+        <v>1.2073190009484666E-2</v>
+      </c>
+      <c r="F60">
+        <v>7.2544042084567882E-3</v>
+      </c>
+      <c r="G60">
+        <v>1.6642565898672148</v>
+      </c>
+      <c r="H60">
+        <v>1.0313463310846085</v>
+      </c>
+      <c r="I60" t="s">
+        <v>10</v>
+      </c>
+      <c r="J60">
+        <v>10313.463310846086</v>
       </c>
     </row>
   </sheetData>

--- a/main/streamlit_performances.xlsx
+++ b/main/streamlit_performances.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacopobinati/Desktop/GalambosC/other_projects/main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2628B376-4866-4845-B39C-05AD1ED270EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D13679-7BED-004B-BD27-5725A042CCA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12000" yWindow="680" windowWidth="17400" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="20">
   <si>
     <t>date</t>
   </si>
@@ -1276,10 +1276,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J60"/>
+  <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G31" workbookViewId="0">
-      <selection activeCell="L58" sqref="L58"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="75" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3201,6 +3201,38 @@
       </c>
       <c r="J60">
         <v>10313.463310846086</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A61" s="123">
+        <v>46002</v>
+      </c>
+      <c r="B61">
+        <v>204738</v>
+      </c>
+      <c r="C61">
+        <v>227970</v>
+      </c>
+      <c r="D61">
+        <v>590</v>
+      </c>
+      <c r="E61">
+        <v>2.8817317742676003E-3</v>
+      </c>
+      <c r="F61">
+        <v>2.5880598324340923E-3</v>
+      </c>
+      <c r="G61">
+        <v>1.1134718518301439</v>
+      </c>
+      <c r="H61">
+        <v>1.0343183945771692</v>
+      </c>
+      <c r="I61" t="s">
+        <v>10</v>
+      </c>
+      <c r="J61">
+        <v>10343.183945771692</v>
       </c>
     </row>
   </sheetData>

--- a/main/streamlit_performances.xlsx
+++ b/main/streamlit_performances.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacopobinati/Desktop/GalambosC/other_projects/main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D13679-7BED-004B-BD27-5725A042CCA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{465E496E-F62A-B948-9200-443148E87A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12000" yWindow="680" windowWidth="17400" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1279,7 +1279,7 @@
   <dimension ref="A1:J61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" zoomScale="75" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+      <selection activeCell="G68" sqref="G68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2692,546 +2692,546 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A45" s="123">
+      <c r="A45" s="121">
         <v>45975</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="127">
         <v>200000</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="127">
         <v>134000</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="127">
         <v>136</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="124">
         <v>6.8000000000000005E-4</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="124">
         <v>1.0149253731343284E-3</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="124">
         <v>0.67</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="124">
         <v>0.99520285545070875</v>
       </c>
-      <c r="I45" t="s">
+      <c r="I45" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="J45">
+      <c r="J45" s="126">
         <v>9952.0285545070874</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A46" s="123">
+      <c r="A46" s="121">
         <v>45978</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="127">
         <v>200000</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="127">
         <v>160414</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="127">
         <v>275</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="124">
         <v>1.3749999999999999E-3</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="124">
         <v>1.7143142119765108E-3</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="124">
         <v>0.80206999999999995</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="124">
         <v>0.99657125937695334</v>
       </c>
-      <c r="I46" t="s">
+      <c r="I46" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="J46">
+      <c r="J46" s="126">
         <v>9965.7125937695328</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A47" s="123">
+      <c r="A47" s="121">
         <v>45979</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="127">
         <v>200000</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="127">
         <v>145539</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="127">
         <v>156</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="124">
         <v>7.7999999999999999E-4</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="124">
         <v>1.0718776410446685E-3</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="124">
         <v>0.72769499999999998</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="124">
         <v>0.99734858495926737</v>
       </c>
-      <c r="I47" t="s">
+      <c r="I47" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="J47">
+      <c r="J47" s="126">
         <v>9973.4858495926728</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A48" s="123">
+      <c r="A48" s="121">
         <v>45980</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="127">
         <v>200000</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="127">
         <v>147270</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="127">
         <v>-880</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="124">
         <v>-4.4000000000000003E-3</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="124">
         <v>-5.9754192978882324E-3</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="124">
         <v>0.73634999999999995</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="124">
         <v>0.99296025118544662</v>
       </c>
-      <c r="I48" t="s">
+      <c r="I48" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="J48">
+      <c r="J48" s="126">
         <v>9929.6025118544658</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A49" s="123">
+      <c r="A49" s="121">
         <v>45981</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="127">
         <v>200000</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="127">
         <v>120874</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="127">
         <v>2046</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="124">
         <v>1.023E-2</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="124">
         <v>1.6926717077287091E-2</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="124">
         <v>0.60436999999999996</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="124">
         <v>1.0031182345550738</v>
       </c>
-      <c r="I49" t="s">
+      <c r="I49" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="J49">
+      <c r="J49" s="126">
         <v>10031.182345550738</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A50" s="123">
+      <c r="A50" s="121">
         <v>45982</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="127">
         <v>200000</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="127">
         <v>194976</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="127">
         <v>1937</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="124">
         <v>9.6849999999999992E-3</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="124">
         <v>9.9345560479238478E-3</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="124">
         <v>0.97487999999999997</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="124">
         <v>1.0128334346567396</v>
       </c>
-      <c r="I50" t="s">
+      <c r="I50" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="J50">
+      <c r="J50" s="126">
         <v>10128.334346567395</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A51" s="123">
+      <c r="A51" s="121">
         <v>45985</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="127">
         <v>200000</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="127">
         <v>197244</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="127">
         <v>38</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="124">
         <v>1.9000000000000001E-4</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="124">
         <v>1.9265478290847883E-4</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="124">
         <v>0.98621999999999999</v>
       </c>
-      <c r="H51">
+      <c r="H51" s="124">
         <v>1.0130258730093242</v>
       </c>
-      <c r="I51" t="s">
+      <c r="I51" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="J51">
+      <c r="J51" s="126">
         <v>10130.258730093243</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A52" s="123">
+      <c r="A52" s="121">
         <v>45986</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="127">
         <v>200000</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="127">
         <v>133078.49</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="127">
         <v>38</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="124">
         <v>1.9000000000000001E-4</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="124">
         <v>2.8554577077031758E-4</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="124">
         <v>0.66539244999999991</v>
       </c>
-      <c r="H52">
+      <c r="H52" s="124">
         <v>1.0132183479251959</v>
       </c>
-      <c r="I52" t="s">
+      <c r="I52" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="J52">
+      <c r="J52" s="126">
         <v>10132.183479251958</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A53" s="123">
+      <c r="A53" s="121">
         <v>45987</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="127">
         <v>200000</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="127">
         <v>147392.13</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="127">
         <v>-2403</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="124">
         <v>-1.2015E-2</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="124">
         <v>-1.6303448494841617E-2</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="124">
         <v>0.73696064999999999</v>
       </c>
-      <c r="H53">
+      <c r="H53" s="124">
         <v>1.0010445294748747</v>
       </c>
-      <c r="I53" t="s">
+      <c r="I53" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="J53">
+      <c r="J53" s="126">
         <v>10010.445294748746</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A54" s="123">
+      <c r="A54" s="121">
         <v>45993</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="127">
         <v>165000</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="127">
         <v>164750.37</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="127">
         <v>-381</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="124">
         <v>-2.3090909090909091E-3</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="124">
         <v>-2.3125896469913848E-3</v>
       </c>
-      <c r="G54">
+      <c r="G54" s="124">
         <v>0.99848709090909094</v>
       </c>
-      <c r="H54">
+      <c r="H54" s="124">
         <v>0.99873302665226904</v>
       </c>
-      <c r="I54" t="s">
+      <c r="I54" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="J54">
+      <c r="J54" s="126">
         <v>9987.3302665226911</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A55" s="123">
+      <c r="A55" s="121">
         <v>45994</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="127">
         <v>165000</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="127">
         <v>146381</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="127">
         <v>764</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="124">
         <v>4.6303030303030306E-3</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="124">
         <v>5.2192565975092394E-3</v>
       </c>
-      <c r="G55">
+      <c r="G55" s="124">
         <v>0.88715757575757581</v>
       </c>
-      <c r="H55">
+      <c r="H55" s="124">
         <v>1.0033574632120408</v>
       </c>
-      <c r="I55" t="s">
+      <c r="I55" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="J55">
+      <c r="J55" s="126">
         <v>10033.574632120408</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A56" s="123">
+      <c r="A56" s="121">
         <v>45995</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="127">
         <v>165000</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="127">
         <v>101081</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="127">
         <v>-1874</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="124">
         <v>-1.1357575757575757E-2</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="124">
         <v>-1.8539587063839891E-2</v>
       </c>
-      <c r="G56">
+      <c r="G56" s="124">
         <v>0.61261212121212116</v>
       </c>
-      <c r="H56">
+      <c r="H56" s="124">
         <v>0.99196175481168092</v>
       </c>
-      <c r="I56" t="s">
+      <c r="I56" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="J56">
+      <c r="J56" s="126">
         <v>9919.6175481168084</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A57" s="123">
+      <c r="A57" s="121">
         <v>45996</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="127">
         <v>165000</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="127">
         <v>67134</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="127">
         <v>2647</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="124">
         <v>1.6042424242424243E-2</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="124">
         <v>3.9428605475615934E-2</v>
       </c>
-      <c r="G57">
+      <c r="G57" s="124">
         <v>0.40687272727272727</v>
       </c>
-      <c r="H57">
+      <c r="H57" s="124">
         <v>1.0078752261146295</v>
       </c>
-      <c r="I57" t="s">
+      <c r="I57" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="J57">
+      <c r="J57" s="126">
         <v>10078.752261146295</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A58" s="123">
+      <c r="A58" s="121">
         <v>45999</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="127">
         <v>204000</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="127">
         <v>170560.09</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="127">
         <v>1268</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="124">
         <v>6.2156862745098036E-3</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="124">
         <v>7.434330035824911E-3</v>
       </c>
-      <c r="G58">
+      <c r="G58" s="124">
         <v>0.83607887254901958</v>
       </c>
-      <c r="H58">
+      <c r="H58" s="124">
         <v>1.0141398623240085</v>
       </c>
-      <c r="I58" t="s">
+      <c r="I58" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="J58">
+      <c r="J58" s="126">
         <v>10141.398623240086</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A59" s="123">
+      <c r="A59" s="121">
         <v>46000</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="127">
         <v>200000</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="127">
         <v>117839</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="127">
         <v>967</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="124">
         <v>4.8349999999999999E-3</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="124">
         <v>8.2061117287146029E-3</v>
       </c>
-      <c r="G59">
+      <c r="G59" s="124">
         <v>0.58919500000000002</v>
       </c>
-      <c r="H59">
+      <c r="H59" s="124">
         <v>1.0190432285583451</v>
       </c>
-      <c r="I59" t="s">
+      <c r="I59" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="J59">
+      <c r="J59" s="126">
         <v>10190.432285583451</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A60" s="123">
+      <c r="A60" s="121">
         <v>46001</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="127">
         <v>202432</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="127">
         <v>336898.79000000004</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="127">
         <v>2444</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="124">
         <v>1.2073190009484666E-2</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="124">
         <v>7.2544042084567882E-3</v>
       </c>
-      <c r="G60">
+      <c r="G60" s="124">
         <v>1.6642565898672148</v>
       </c>
-      <c r="H60">
+      <c r="H60" s="124">
         <v>1.0313463310846085</v>
       </c>
-      <c r="I60" t="s">
+      <c r="I60" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="J60">
+      <c r="J60" s="126">
         <v>10313.463310846086</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A61" s="123">
+      <c r="A61" s="121">
         <v>46002</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="127">
         <v>204738</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="127">
         <v>227970</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="127">
         <v>590</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="124">
         <v>2.8817317742676003E-3</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="124">
         <v>2.5880598324340923E-3</v>
       </c>
-      <c r="G61">
+      <c r="G61" s="124">
         <v>1.1134718518301439</v>
       </c>
-      <c r="H61">
+      <c r="H61" s="124">
         <v>1.0343183945771692</v>
       </c>
-      <c r="I61" t="s">
+      <c r="I61" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="J61">
+      <c r="J61" s="126">
         <v>10343.183945771692</v>
       </c>
     </row>

--- a/main/streamlit_performances.xlsx
+++ b/main/streamlit_performances.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacopobinati/Desktop/GalambosC/other_projects/main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{465E496E-F62A-B948-9200-443148E87A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3801FE4C-9020-1B48-8507-393DF0E6EAB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12000" yWindow="680" windowWidth="17400" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="20">
   <si>
     <t>date</t>
   </si>
@@ -1276,10 +1276,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J61"/>
+  <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="75" workbookViewId="0">
-      <selection activeCell="G68" sqref="G68"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="75" workbookViewId="0">
+      <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3233,6 +3233,38 @@
       </c>
       <c r="J61" s="126">
         <v>10343.183945771692</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A62" s="121">
+        <v>46003</v>
+      </c>
+      <c r="B62" s="127">
+        <v>202959</v>
+      </c>
+      <c r="C62" s="127">
+        <v>216942</v>
+      </c>
+      <c r="D62" s="127">
+        <v>236</v>
+      </c>
+      <c r="E62" s="124">
+        <v>1.1627964268645392E-3</v>
+      </c>
+      <c r="F62" s="124">
+        <v>1.0878483650007837E-3</v>
+      </c>
+      <c r="G62" s="124">
+        <v>1.068895688291724</v>
+      </c>
+      <c r="H62" s="124">
+        <v>1.0355210963106238</v>
+      </c>
+      <c r="I62" s="124" t="s">
+        <v>10</v>
+      </c>
+      <c r="J62" s="126">
+        <v>10355.210963106238</v>
       </c>
     </row>
   </sheetData>

--- a/main/streamlit_performances.xlsx
+++ b/main/streamlit_performances.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacopobinati/Desktop/GalambosC/other_projects/main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3801FE4C-9020-1B48-8507-393DF0E6EAB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD1ABA84-D11A-E340-AA3D-7344E95BBF51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12000" yWindow="680" windowWidth="17400" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="20">
   <si>
     <t>date</t>
   </si>
@@ -1276,10 +1276,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J62"/>
+  <dimension ref="A1:J64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" zoomScale="75" workbookViewId="0">
-      <selection activeCell="G66" sqref="G66"/>
+      <selection activeCell="H71" sqref="H71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3266,6 +3266,50 @@
       <c r="J62" s="126">
         <v>10355.210963106238</v>
       </c>
+    </row>
+    <row r="63" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A63" s="121">
+        <v>46006</v>
+      </c>
+      <c r="B63" s="127">
+        <v>203183</v>
+      </c>
+      <c r="C63" s="127">
+        <v>147446</v>
+      </c>
+      <c r="D63" s="127">
+        <v>1192</v>
+      </c>
+      <c r="E63" s="124">
+        <v>5.8666325430769307E-3</v>
+      </c>
+      <c r="F63" s="124">
+        <v>8.0843156138518512E-3</v>
+      </c>
+      <c r="G63" s="124">
+        <v>0.72568079022359155</v>
+      </c>
+      <c r="H63" s="124">
+        <v>1.0415961180732825</v>
+      </c>
+      <c r="I63" s="124" t="s">
+        <v>10</v>
+      </c>
+      <c r="J63" s="126">
+        <v>10415.961180732824</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A64" s="121"/>
+      <c r="B64" s="127"/>
+      <c r="C64" s="127"/>
+      <c r="D64" s="127"/>
+      <c r="E64" s="124"/>
+      <c r="F64" s="124"/>
+      <c r="G64" s="124"/>
+      <c r="H64" s="124"/>
+      <c r="I64" s="124"/>
+      <c r="J64" s="126"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/main/streamlit_performances.xlsx
+++ b/main/streamlit_performances.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacopobinati/Desktop/GalambosC/other_projects/main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD1ABA84-D11A-E340-AA3D-7344E95BBF51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{233F77D2-C22F-874C-BC9A-EA9511B0BA84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12000" yWindow="680" windowWidth="17400" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="20">
   <si>
     <t>date</t>
   </si>
@@ -1278,8 +1278,8 @@
   </sheetPr>
   <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="75" workbookViewId="0">
-      <selection activeCell="H71" sqref="H71"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="75" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3300,16 +3300,36 @@
       </c>
     </row>
     <row r="64" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A64" s="121"/>
-      <c r="B64" s="127"/>
-      <c r="C64" s="127"/>
-      <c r="D64" s="127"/>
-      <c r="E64" s="124"/>
-      <c r="F64" s="124"/>
-      <c r="G64" s="124"/>
-      <c r="H64" s="124"/>
-      <c r="I64" s="124"/>
-      <c r="J64" s="126"/>
+      <c r="A64" s="121">
+        <v>46007</v>
+      </c>
+      <c r="B64" s="127">
+        <v>204334</v>
+      </c>
+      <c r="C64" s="127">
+        <v>172740</v>
+      </c>
+      <c r="D64" s="127">
+        <v>2587</v>
+      </c>
+      <c r="E64" s="124">
+        <v>1.2660643847817789E-2</v>
+      </c>
+      <c r="F64" s="124">
+        <v>1.4976264906796341E-2</v>
+      </c>
+      <c r="G64" s="124">
+        <v>0.84538060234713752</v>
+      </c>
+      <c r="H64" s="124">
+        <v>1.0547833955574779</v>
+      </c>
+      <c r="I64" s="124" t="s">
+        <v>10</v>
+      </c>
+      <c r="J64">
+        <v>10547.833955574779</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/main/streamlit_performances.xlsx
+++ b/main/streamlit_performances.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacopobinati/Desktop/GalambosC/other_projects/main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{233F77D2-C22F-874C-BC9A-EA9511B0BA84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51CDDB5D-FFF7-6548-8F6B-6D24CD6258D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12000" yWindow="680" windowWidth="17400" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="20">
   <si>
     <t>date</t>
   </si>
@@ -1276,10 +1276,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J64"/>
+  <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="75" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="75" workbookViewId="0">
+      <selection activeCell="H75" sqref="H75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3329,6 +3329,198 @@
       </c>
       <c r="J64">
         <v>10547.833955574779</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A65" s="121">
+        <v>46008</v>
+      </c>
+      <c r="B65" s="127">
+        <v>206402</v>
+      </c>
+      <c r="C65" s="127">
+        <v>196479.84</v>
+      </c>
+      <c r="D65" s="127">
+        <v>-3039</v>
+      </c>
+      <c r="E65" s="124">
+        <v>-1.4723694537843626E-2</v>
+      </c>
+      <c r="F65" s="124">
+        <v>-1.546723572250466E-2</v>
+      </c>
+      <c r="G65" s="124">
+        <v>0.95192798519394195</v>
+      </c>
+      <c r="H65" s="124">
+        <v>1.0392530870377001</v>
+      </c>
+      <c r="I65" s="124" t="s">
+        <v>11</v>
+      </c>
+      <c r="J65">
+        <v>10392.530870377001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A66" s="121">
+        <v>46009</v>
+      </c>
+      <c r="B66" s="127">
+        <v>203136</v>
+      </c>
+      <c r="C66" s="127">
+        <v>124120</v>
+      </c>
+      <c r="D66" s="127">
+        <v>-1543</v>
+      </c>
+      <c r="E66" s="124">
+        <v>-7.5958963453056083E-3</v>
+      </c>
+      <c r="F66" s="124">
+        <v>-1.2431517885916855E-2</v>
+      </c>
+      <c r="G66" s="124">
+        <v>0.61101921865154374</v>
+      </c>
+      <c r="H66" s="124">
+        <v>1.0313590283120229</v>
+      </c>
+      <c r="I66" s="124" t="s">
+        <v>11</v>
+      </c>
+      <c r="J66">
+        <v>10313.590283120229</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A67" s="121">
+        <v>46010</v>
+      </c>
+      <c r="B67" s="127">
+        <v>201573</v>
+      </c>
+      <c r="C67" s="127">
+        <v>286851</v>
+      </c>
+      <c r="D67" s="127">
+        <v>2334</v>
+      </c>
+      <c r="E67" s="124">
+        <v>1.1578931702162492E-2</v>
+      </c>
+      <c r="F67" s="124">
+        <v>8.1366284238158487E-3</v>
+      </c>
+      <c r="G67" s="124">
+        <v>1.4230626125522763</v>
+      </c>
+      <c r="H67" s="124">
+        <v>1.0433010640612563</v>
+      </c>
+      <c r="I67" s="124" t="s">
+        <v>10</v>
+      </c>
+      <c r="J67">
+        <v>10433.010640612563</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A68" s="121">
+        <v>46013</v>
+      </c>
+      <c r="B68" s="127">
+        <v>201867</v>
+      </c>
+      <c r="C68" s="127">
+        <v>240177.66</v>
+      </c>
+      <c r="D68" s="127">
+        <v>-2232</v>
+      </c>
+      <c r="E68" s="124">
+        <v>-1.1056784912838652E-2</v>
+      </c>
+      <c r="F68" s="124">
+        <v>-9.2931207673519669E-3</v>
+      </c>
+      <c r="G68" s="124">
+        <v>1.1897816879430516</v>
+      </c>
+      <c r="H68" s="124">
+        <v>1.0317655085965953</v>
+      </c>
+      <c r="I68" s="124" t="s">
+        <v>11</v>
+      </c>
+      <c r="J68">
+        <v>10317.655085965953</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A69" s="121">
+        <v>46014</v>
+      </c>
+      <c r="B69" s="127">
+        <v>199579</v>
+      </c>
+      <c r="C69" s="127">
+        <v>174365</v>
+      </c>
+      <c r="D69" s="127">
+        <v>6101</v>
+      </c>
+      <c r="E69" s="124">
+        <v>3.0569348478547344E-2</v>
+      </c>
+      <c r="F69" s="124">
+        <v>3.4989820204742922E-2</v>
+      </c>
+      <c r="G69" s="124">
+        <v>0.87366406285230414</v>
+      </c>
+      <c r="H69" s="124">
+        <v>1.0633059079770304</v>
+      </c>
+      <c r="I69" s="124" t="s">
+        <v>10</v>
+      </c>
+      <c r="J69">
+        <v>10633.059079770304</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A70" s="121">
+        <v>46015</v>
+      </c>
+      <c r="B70" s="127">
+        <v>205644</v>
+      </c>
+      <c r="C70" s="127">
+        <v>180500</v>
+      </c>
+      <c r="D70" s="127">
+        <v>1491</v>
+      </c>
+      <c r="E70" s="124">
+        <v>7.2503938845772309E-3</v>
+      </c>
+      <c r="F70" s="124">
+        <v>8.2603878116343493E-3</v>
+      </c>
+      <c r="G70" s="124">
+        <v>0.87773044679154266</v>
+      </c>
+      <c r="H70" s="124">
+        <v>1.0710152946296618</v>
+      </c>
+      <c r="I70" s="124" t="s">
+        <v>10</v>
+      </c>
+      <c r="J70">
+        <v>10710.152946296619</v>
       </c>
     </row>
   </sheetData>

--- a/main/streamlit_performances.xlsx
+++ b/main/streamlit_performances.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacopobinati/Desktop/GalambosC/other_projects/main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51CDDB5D-FFF7-6548-8F6B-6D24CD6258D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C925D6D0-241D-744F-A17B-252306E823A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12000" yWindow="680" windowWidth="17400" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="20">
   <si>
     <t>date</t>
   </si>
@@ -1276,10 +1276,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J70"/>
+  <dimension ref="A1:J74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScale="75" workbookViewId="0">
-      <selection activeCell="H75" sqref="H75"/>
+      <selection activeCell="L71" sqref="L71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3522,6 +3522,92 @@
       <c r="J70">
         <v>10710.152946296619</v>
       </c>
+    </row>
+    <row r="71" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A71" s="121">
+        <v>46017</v>
+      </c>
+      <c r="B71" s="127">
+        <v>207135</v>
+      </c>
+      <c r="C71" s="127">
+        <v>181000</v>
+      </c>
+      <c r="D71" s="127">
+        <v>-1050</v>
+      </c>
+      <c r="E71" s="124">
+        <v>-5.0691577956405243E-3</v>
+      </c>
+      <c r="F71" s="124">
+        <v>-5.8011049723756909E-3</v>
+      </c>
+      <c r="G71" s="124">
+        <v>0.87382624858184277</v>
+      </c>
+      <c r="H71" s="124">
+        <v>1.0655861490996397</v>
+      </c>
+      <c r="I71" s="124" t="s">
+        <v>11</v>
+      </c>
+      <c r="J71">
+        <v>10655.861490996396</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A72" s="121">
+        <v>46022</v>
+      </c>
+      <c r="B72" s="127">
+        <v>205978</v>
+      </c>
+      <c r="C72" s="127">
+        <v>101432</v>
+      </c>
+      <c r="D72" s="127">
+        <v>436</v>
+      </c>
+      <c r="E72" s="124">
+        <v>2.1167309130101274E-3</v>
+      </c>
+      <c r="F72" s="124">
+        <v>4.2984462497042356E-3</v>
+      </c>
+      <c r="G72" s="124">
+        <v>0.49244094029459456</v>
+      </c>
+      <c r="H72" s="124">
+        <v>1.0678417082419143</v>
+      </c>
+      <c r="I72" s="124" t="s">
+        <v>10</v>
+      </c>
+      <c r="J72">
+        <v>10678.417082419142</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A73" s="121"/>
+      <c r="B73" s="127"/>
+      <c r="C73" s="127"/>
+      <c r="D73" s="127"/>
+      <c r="E73" s="124"/>
+      <c r="F73" s="124"/>
+      <c r="G73" s="124"/>
+      <c r="H73" s="124"/>
+      <c r="I73" s="124"/>
+    </row>
+    <row r="74" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A74" s="121"/>
+      <c r="B74" s="127"/>
+      <c r="C74" s="127"/>
+      <c r="D74" s="127"/>
+      <c r="E74" s="124"/>
+      <c r="F74" s="124"/>
+      <c r="G74" s="124"/>
+      <c r="H74" s="124"/>
+      <c r="I74" s="124"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/main/streamlit_performances.xlsx
+++ b/main/streamlit_performances.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacopobinati/Desktop/GalambosC/other_projects/main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C925D6D0-241D-744F-A17B-252306E823A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB075897-EF31-1A4E-9865-2E10465B1213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12000" yWindow="680" windowWidth="17400" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1278,8 +1278,8 @@
   </sheetPr>
   <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="75" workbookViewId="0">
-      <selection activeCell="L71" sqref="L71"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="75" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>

--- a/main/streamlit_performances.xlsx
+++ b/main/streamlit_performances.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacopobinati/Desktop/GalambosC/other_projects/main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB075897-EF31-1A4E-9865-2E10465B1213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C150701C-3B02-AD46-B422-2A2A37792D35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12000" yWindow="680" windowWidth="17400" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="20">
   <si>
     <t>date</t>
   </si>
@@ -1276,10 +1276,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J74"/>
+  <dimension ref="A1:J114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="75" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="J95" sqref="J95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3588,26 +3588,676 @@
       </c>
     </row>
     <row r="73" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A73" s="121"/>
-      <c r="B73" s="127"/>
-      <c r="C73" s="127"/>
-      <c r="D73" s="127"/>
-      <c r="E73" s="124"/>
-      <c r="F73" s="124"/>
-      <c r="G73" s="124"/>
-      <c r="H73" s="124"/>
-      <c r="I73" s="124"/>
+      <c r="A73" s="121">
+        <v>46024</v>
+      </c>
+      <c r="B73" s="127">
+        <v>206397</v>
+      </c>
+      <c r="C73" s="127">
+        <v>258480</v>
+      </c>
+      <c r="D73" s="127">
+        <v>-1495.3899999999999</v>
+      </c>
+      <c r="E73" s="124">
+        <v>-7.2452118974597494E-3</v>
+      </c>
+      <c r="F73" s="124">
+        <v>-5.785321881770349E-3</v>
+      </c>
+      <c r="G73" s="124">
+        <v>1.2523437840666289</v>
+      </c>
+      <c r="H73" s="124">
+        <v>1.0601049687927562</v>
+      </c>
+      <c r="I73" s="124" t="s">
+        <v>11</v>
+      </c>
+      <c r="J73">
+        <v>10601.049687927562</v>
+      </c>
     </row>
     <row r="74" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A74" s="121"/>
-      <c r="B74" s="127"/>
-      <c r="C74" s="127"/>
-      <c r="D74" s="127"/>
-      <c r="E74" s="124"/>
-      <c r="F74" s="124"/>
-      <c r="G74" s="124"/>
-      <c r="H74" s="124"/>
-      <c r="I74" s="124"/>
+      <c r="A74" s="121">
+        <v>46027</v>
+      </c>
+      <c r="B74" s="127">
+        <v>199863</v>
+      </c>
+      <c r="C74" s="127">
+        <v>123284</v>
+      </c>
+      <c r="D74" s="127">
+        <v>210</v>
+      </c>
+      <c r="E74" s="124">
+        <v>1.0507197430239714E-3</v>
+      </c>
+      <c r="F74" s="124">
+        <v>1.7033840563252327E-3</v>
+      </c>
+      <c r="G74" s="124">
+        <v>0.61684253713793946</v>
+      </c>
+      <c r="H74" s="124">
+        <v>1.0612188420131445</v>
+      </c>
+      <c r="I74" s="124" t="s">
+        <v>10</v>
+      </c>
+      <c r="J74">
+        <v>10612.188420131446</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A75" s="121">
+        <v>46028</v>
+      </c>
+      <c r="B75" s="127">
+        <v>199983.78</v>
+      </c>
+      <c r="C75" s="127">
+        <v>182853.93</v>
+      </c>
+      <c r="D75" s="127">
+        <v>535.55000000000018</v>
+      </c>
+      <c r="E75" s="124">
+        <v>2.6779671831385536E-3</v>
+      </c>
+      <c r="F75" s="124">
+        <v>2.9288405231432555E-3</v>
+      </c>
+      <c r="G75" s="124">
+        <v>0.91434380328244613</v>
+      </c>
+      <c r="H75" s="124">
+        <v>1.0640607512461839</v>
+      </c>
+      <c r="I75" s="124" t="s">
+        <v>10</v>
+      </c>
+      <c r="J75">
+        <v>10640.60751246184</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A76" s="121">
+        <v>46029</v>
+      </c>
+      <c r="B76" s="127">
+        <v>200929</v>
+      </c>
+      <c r="C76" s="127">
+        <v>194136.51</v>
+      </c>
+      <c r="D76" s="127">
+        <v>126.66999999999962</v>
+      </c>
+      <c r="E76" s="124">
+        <v>6.3042169124416893E-4</v>
+      </c>
+      <c r="F76" s="124">
+        <v>6.5247902107645598E-4</v>
+      </c>
+      <c r="G76" s="124">
+        <v>0.96619457619358085</v>
+      </c>
+      <c r="H76" s="124">
+        <v>1.0647315582245711</v>
+      </c>
+      <c r="I76" s="124" t="s">
+        <v>10</v>
+      </c>
+      <c r="J76">
+        <v>10647.31558224571</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A77" s="121">
+        <v>46030</v>
+      </c>
+      <c r="B77" s="127">
+        <v>201051.29</v>
+      </c>
+      <c r="C77" s="127">
+        <v>202526.59</v>
+      </c>
+      <c r="D77" s="127">
+        <v>2278.0399999999995</v>
+      </c>
+      <c r="E77" s="124">
+        <v>1.1330641051843037E-2</v>
+      </c>
+      <c r="F77" s="124">
+        <v>1.1248103273747903E-2</v>
+      </c>
+      <c r="G77" s="124">
+        <v>1.0073379285454969</v>
+      </c>
+      <c r="H77" s="124">
+        <v>1.0767956493273831</v>
+      </c>
+      <c r="I77" s="124" t="s">
+        <v>10</v>
+      </c>
+      <c r="J77">
+        <v>10767.956493273832</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A78" s="121">
+        <v>46031</v>
+      </c>
+      <c r="B78" s="127">
+        <v>203302.6</v>
+      </c>
+      <c r="C78" s="127">
+        <v>189352.63</v>
+      </c>
+      <c r="D78" s="127">
+        <v>-1201</v>
+      </c>
+      <c r="E78" s="124">
+        <v>-5.9074502736315227E-3</v>
+      </c>
+      <c r="F78" s="124">
+        <v>-6.3426634211523761E-3</v>
+      </c>
+      <c r="G78" s="124">
+        <v>0.9313832189062019</v>
+      </c>
+      <c r="H78" s="124">
+        <v>1.0704345325741189</v>
+      </c>
+      <c r="I78" s="124" t="s">
+        <v>11</v>
+      </c>
+      <c r="J78">
+        <v>10704.345325741189</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A79" s="121">
+        <v>46034</v>
+      </c>
+      <c r="B79" s="127">
+        <v>305136.96999999997</v>
+      </c>
+      <c r="C79" s="127">
+        <v>153469.24</v>
+      </c>
+      <c r="D79" s="127">
+        <v>110.53999999999996</v>
+      </c>
+      <c r="E79" s="124">
+        <v>3.622635434834395E-4</v>
+      </c>
+      <c r="F79" s="124">
+        <v>7.2027462962610594E-4</v>
+      </c>
+      <c r="G79" s="124">
+        <v>0.50295196940573939</v>
+      </c>
+      <c r="H79" s="124">
+        <v>1.0779857439259539</v>
+      </c>
+      <c r="I79" s="124" t="s">
+        <v>10</v>
+      </c>
+      <c r="J79">
+        <v>10779.85743925954</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A80" s="121">
+        <v>46035</v>
+      </c>
+      <c r="B80" s="127">
+        <v>305163.90000000002</v>
+      </c>
+      <c r="C80" s="127">
+        <v>285489.12</v>
+      </c>
+      <c r="D80" s="127">
+        <v>3279.39</v>
+      </c>
+      <c r="E80" s="124">
+        <v>1.0746323533026021E-2</v>
+      </c>
+      <c r="F80" s="124">
+        <v>1.1486917610030112E-2</v>
+      </c>
+      <c r="G80" s="124">
+        <v>0.93552717080886694</v>
+      </c>
+      <c r="H80" s="124">
+        <v>1.089570127494172</v>
+      </c>
+      <c r="I80" s="124" t="s">
+        <v>10</v>
+      </c>
+      <c r="J80">
+        <v>10895.701274941721</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A81" s="121">
+        <v>46036</v>
+      </c>
+      <c r="B81" s="127">
+        <v>310041.81</v>
+      </c>
+      <c r="C81" s="127">
+        <v>229484.02000000002</v>
+      </c>
+      <c r="D81" s="127">
+        <v>2390.63</v>
+      </c>
+      <c r="E81" s="124">
+        <v>7.7106697319306713E-3</v>
+      </c>
+      <c r="F81" s="124">
+        <v>1.0417413813824597E-2</v>
+      </c>
+      <c r="G81" s="124">
+        <v>0.74017120465139852</v>
+      </c>
+      <c r="H81" s="124">
+        <v>1.0979714428970573</v>
+      </c>
+      <c r="I81" s="124" t="s">
+        <v>10</v>
+      </c>
+      <c r="J81">
+        <v>10979.714428970572</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A82" s="121">
+        <v>46037</v>
+      </c>
+      <c r="B82" s="127">
+        <v>313577.96999999997</v>
+      </c>
+      <c r="C82" s="127">
+        <v>295136.69000000006</v>
+      </c>
+      <c r="D82" s="127">
+        <v>3627.2799999999997</v>
+      </c>
+      <c r="E82" s="124">
+        <v>1.1567394227343203E-2</v>
+      </c>
+      <c r="F82" s="124">
+        <v>1.2290169683748907E-2</v>
+      </c>
+      <c r="G82" s="124">
+        <v>0.94119076668555535</v>
+      </c>
+      <c r="H82" s="124">
+        <v>1.1106721114274123</v>
+      </c>
+      <c r="I82" s="124" t="s">
+        <v>10</v>
+      </c>
+      <c r="J82">
+        <v>11106.721114274123</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A83" s="121"/>
+      <c r="B83" s="127"/>
+      <c r="C83" s="127"/>
+      <c r="D83" s="127"/>
+      <c r="E83" s="124"/>
+      <c r="F83" s="124"/>
+      <c r="G83" s="124"/>
+      <c r="H83" s="124"/>
+      <c r="I83" s="124"/>
+    </row>
+    <row r="84" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A84" s="121"/>
+      <c r="B84" s="127"/>
+      <c r="C84" s="127"/>
+      <c r="D84" s="127"/>
+      <c r="E84" s="124"/>
+      <c r="F84" s="124"/>
+      <c r="G84" s="124"/>
+      <c r="H84" s="124"/>
+      <c r="I84" s="124"/>
+    </row>
+    <row r="85" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A85" s="121"/>
+      <c r="B85" s="127"/>
+      <c r="C85" s="127"/>
+      <c r="D85" s="127"/>
+      <c r="E85" s="124"/>
+      <c r="F85" s="124"/>
+      <c r="G85" s="124"/>
+      <c r="H85" s="124"/>
+      <c r="I85" s="124"/>
+    </row>
+    <row r="86" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A86" s="121"/>
+      <c r="B86" s="127"/>
+      <c r="C86" s="127"/>
+      <c r="D86" s="127"/>
+      <c r="E86" s="124"/>
+      <c r="F86" s="124"/>
+      <c r="G86" s="124"/>
+      <c r="H86" s="124"/>
+      <c r="I86" s="124"/>
+    </row>
+    <row r="87" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A87" s="121"/>
+      <c r="B87" s="127"/>
+      <c r="C87" s="127"/>
+      <c r="D87" s="127"/>
+      <c r="E87" s="124"/>
+      <c r="F87" s="124"/>
+      <c r="G87" s="124"/>
+      <c r="H87" s="124"/>
+      <c r="I87" s="124"/>
+    </row>
+    <row r="88" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A88" s="121"/>
+      <c r="B88" s="127"/>
+      <c r="C88" s="127"/>
+      <c r="D88" s="127"/>
+      <c r="E88" s="124"/>
+      <c r="F88" s="124"/>
+      <c r="G88" s="124"/>
+      <c r="H88" s="124"/>
+      <c r="I88" s="124"/>
+    </row>
+    <row r="89" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A89" s="121"/>
+      <c r="B89" s="127"/>
+      <c r="C89" s="127"/>
+      <c r="D89" s="127"/>
+      <c r="E89" s="124"/>
+      <c r="F89" s="124"/>
+      <c r="G89" s="124"/>
+      <c r="H89" s="124"/>
+      <c r="I89" s="124"/>
+    </row>
+    <row r="90" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A90" s="121"/>
+      <c r="B90" s="127"/>
+      <c r="C90" s="127"/>
+      <c r="D90" s="127"/>
+      <c r="E90" s="124"/>
+      <c r="F90" s="124"/>
+      <c r="G90" s="124"/>
+      <c r="H90" s="124"/>
+      <c r="I90" s="124"/>
+    </row>
+    <row r="91" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A91" s="121"/>
+      <c r="B91" s="127"/>
+      <c r="C91" s="127"/>
+      <c r="D91" s="127"/>
+      <c r="E91" s="124"/>
+      <c r="F91" s="124"/>
+      <c r="G91" s="124"/>
+      <c r="H91" s="124"/>
+      <c r="I91" s="124"/>
+    </row>
+    <row r="92" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A92" s="121"/>
+      <c r="B92" s="127"/>
+      <c r="C92" s="127"/>
+      <c r="D92" s="127"/>
+      <c r="E92" s="124"/>
+      <c r="F92" s="124"/>
+      <c r="G92" s="124"/>
+      <c r="H92" s="124"/>
+      <c r="I92" s="124"/>
+    </row>
+    <row r="93" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A93" s="121"/>
+      <c r="B93" s="127"/>
+      <c r="C93" s="127"/>
+      <c r="D93" s="127"/>
+      <c r="E93" s="124"/>
+      <c r="F93" s="124"/>
+      <c r="G93" s="124"/>
+      <c r="H93" s="124"/>
+      <c r="I93" s="124"/>
+    </row>
+    <row r="94" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A94" s="121"/>
+      <c r="B94" s="127"/>
+      <c r="C94" s="127"/>
+      <c r="D94" s="127"/>
+      <c r="E94" s="124"/>
+      <c r="F94" s="124"/>
+      <c r="G94" s="124"/>
+      <c r="H94" s="124"/>
+      <c r="I94" s="124"/>
+    </row>
+    <row r="95" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A95" s="121"/>
+      <c r="B95" s="127"/>
+      <c r="C95" s="127"/>
+      <c r="D95" s="127"/>
+      <c r="E95" s="124"/>
+      <c r="F95" s="124"/>
+      <c r="G95" s="124"/>
+      <c r="H95" s="124"/>
+      <c r="I95" s="124"/>
+    </row>
+    <row r="96" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A96" s="121"/>
+      <c r="B96" s="127"/>
+      <c r="C96" s="127"/>
+      <c r="D96" s="127"/>
+      <c r="E96" s="124"/>
+      <c r="F96" s="124"/>
+      <c r="G96" s="124"/>
+      <c r="H96" s="124"/>
+      <c r="I96" s="124"/>
+    </row>
+    <row r="97" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A97" s="121"/>
+      <c r="B97" s="127"/>
+      <c r="C97" s="127"/>
+      <c r="D97" s="127"/>
+      <c r="E97" s="124"/>
+      <c r="F97" s="124"/>
+      <c r="G97" s="124"/>
+      <c r="H97" s="124"/>
+      <c r="I97" s="124"/>
+    </row>
+    <row r="98" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A98" s="121"/>
+      <c r="B98" s="127"/>
+      <c r="C98" s="127"/>
+      <c r="D98" s="127"/>
+      <c r="E98" s="124"/>
+      <c r="F98" s="124"/>
+      <c r="G98" s="124"/>
+      <c r="H98" s="124"/>
+      <c r="I98" s="124"/>
+    </row>
+    <row r="99" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A99" s="121"/>
+      <c r="B99" s="127"/>
+      <c r="C99" s="127"/>
+      <c r="D99" s="127"/>
+      <c r="E99" s="124"/>
+      <c r="F99" s="124"/>
+      <c r="G99" s="124"/>
+      <c r="H99" s="124"/>
+      <c r="I99" s="124"/>
+    </row>
+    <row r="100" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A100" s="121"/>
+      <c r="B100" s="127"/>
+      <c r="C100" s="127"/>
+      <c r="D100" s="127"/>
+      <c r="E100" s="124"/>
+      <c r="F100" s="124"/>
+      <c r="G100" s="124"/>
+      <c r="H100" s="124"/>
+      <c r="I100" s="124"/>
+    </row>
+    <row r="101" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A101" s="121"/>
+      <c r="B101" s="127"/>
+      <c r="C101" s="127"/>
+      <c r="D101" s="127"/>
+      <c r="E101" s="124"/>
+      <c r="F101" s="124"/>
+      <c r="G101" s="124"/>
+      <c r="H101" s="124"/>
+      <c r="I101" s="124"/>
+    </row>
+    <row r="102" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A102" s="121"/>
+      <c r="B102" s="127"/>
+      <c r="C102" s="127"/>
+      <c r="D102" s="127"/>
+      <c r="E102" s="124"/>
+      <c r="F102" s="124"/>
+      <c r="G102" s="124"/>
+      <c r="H102" s="124"/>
+      <c r="I102" s="124"/>
+    </row>
+    <row r="103" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A103" s="121"/>
+      <c r="B103" s="127"/>
+      <c r="C103" s="127"/>
+      <c r="D103" s="127"/>
+      <c r="E103" s="124"/>
+      <c r="F103" s="124"/>
+      <c r="G103" s="124"/>
+      <c r="H103" s="124"/>
+      <c r="I103" s="124"/>
+    </row>
+    <row r="104" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A104" s="121"/>
+      <c r="B104" s="127"/>
+      <c r="C104" s="127"/>
+      <c r="D104" s="127"/>
+      <c r="E104" s="124"/>
+      <c r="F104" s="124"/>
+      <c r="G104" s="124"/>
+      <c r="H104" s="124"/>
+      <c r="I104" s="124"/>
+    </row>
+    <row r="105" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A105" s="121"/>
+      <c r="B105" s="127"/>
+      <c r="C105" s="127"/>
+      <c r="D105" s="127"/>
+      <c r="E105" s="124"/>
+      <c r="F105" s="124"/>
+      <c r="G105" s="124"/>
+      <c r="H105" s="124"/>
+      <c r="I105" s="124"/>
+    </row>
+    <row r="106" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A106" s="121"/>
+      <c r="B106" s="127"/>
+      <c r="C106" s="127"/>
+      <c r="D106" s="127"/>
+      <c r="E106" s="124"/>
+      <c r="F106" s="124"/>
+      <c r="G106" s="124"/>
+      <c r="H106" s="124"/>
+      <c r="I106" s="124"/>
+    </row>
+    <row r="107" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A107" s="121"/>
+      <c r="B107" s="127"/>
+      <c r="C107" s="127"/>
+      <c r="D107" s="127"/>
+      <c r="E107" s="124"/>
+      <c r="F107" s="124"/>
+      <c r="G107" s="124"/>
+      <c r="H107" s="124"/>
+      <c r="I107" s="124"/>
+    </row>
+    <row r="108" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A108" s="121"/>
+      <c r="B108" s="127"/>
+      <c r="C108" s="127"/>
+      <c r="D108" s="127"/>
+      <c r="E108" s="124"/>
+      <c r="F108" s="124"/>
+      <c r="G108" s="124"/>
+      <c r="H108" s="124"/>
+      <c r="I108" s="124"/>
+    </row>
+    <row r="109" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A109" s="121"/>
+      <c r="B109" s="127"/>
+      <c r="C109" s="127"/>
+      <c r="D109" s="127"/>
+      <c r="E109" s="124"/>
+      <c r="F109" s="124"/>
+      <c r="G109" s="124"/>
+      <c r="H109" s="124"/>
+      <c r="I109" s="124"/>
+    </row>
+    <row r="110" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A110" s="121"/>
+      <c r="B110" s="127"/>
+      <c r="C110" s="127"/>
+      <c r="D110" s="127"/>
+      <c r="E110" s="124"/>
+      <c r="F110" s="124"/>
+      <c r="G110" s="124"/>
+      <c r="H110" s="124"/>
+      <c r="I110" s="124"/>
+    </row>
+    <row r="111" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A111" s="121"/>
+      <c r="B111" s="127"/>
+      <c r="C111" s="127"/>
+      <c r="D111" s="127"/>
+      <c r="E111" s="124"/>
+      <c r="F111" s="124"/>
+      <c r="G111" s="124"/>
+      <c r="H111" s="124"/>
+      <c r="I111" s="124"/>
+    </row>
+    <row r="112" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A112" s="121"/>
+      <c r="B112" s="127"/>
+      <c r="C112" s="127"/>
+      <c r="D112" s="127"/>
+      <c r="E112" s="124"/>
+      <c r="F112" s="124"/>
+      <c r="G112" s="124"/>
+      <c r="H112" s="124"/>
+      <c r="I112" s="124"/>
+    </row>
+    <row r="113" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A113" s="121"/>
+      <c r="B113" s="127"/>
+      <c r="C113" s="127"/>
+      <c r="D113" s="127"/>
+      <c r="E113" s="124"/>
+      <c r="F113" s="124"/>
+      <c r="G113" s="124"/>
+      <c r="H113" s="124"/>
+      <c r="I113" s="124"/>
+    </row>
+    <row r="114" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A114" s="121"/>
+      <c r="B114" s="127"/>
+      <c r="C114" s="127"/>
+      <c r="D114" s="127"/>
+      <c r="E114" s="124"/>
+      <c r="F114" s="124"/>
+      <c r="G114" s="124"/>
+      <c r="H114" s="124"/>
+      <c r="I114" s="124"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
